--- a/tree/tree.xlsx
+++ b/tree/tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuke\Desktop\guest\1130826\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47ED5156-9733-45D4-A68A-92C6BCD42499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AC51437-5725-413C-8437-D9985ADD2844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA16FEF3-4787-468B-94EE-76BE82BCE9D9}"/>
   </bookViews>
@@ -439,10 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://xtjh-aa0487.byethost8.com/math/book1/1-1p25自我評量6.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>p25挑錯題</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -660,6 +656,10 @@
   </si>
   <si>
     <t>資料的連結網址</t>
+  </si>
+  <si>
+    <t>http://xtjh-aa0487.byethost8.com/math/book1/1-1/p25自我評量6.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B8439-9079-4DF4-BB05-62730084EFF9}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1057,19 +1057,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
         <v>162</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>164</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>165</v>
-      </c>
-      <c r="E1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1630,7 +1630,7 @@
         <v>25</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>64</v>
@@ -1664,7 +1664,7 @@
         <v>27</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1681,7 +1681,7 @@
         <v>28</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1698,7 +1698,7 @@
         <v>30</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1732,7 +1732,7 @@
         <v>31</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1749,7 +1749,7 @@
         <v>32</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
         <v>33</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1783,7 +1783,7 @@
         <v>34</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1800,7 +1800,7 @@
         <v>35</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1817,7 +1817,7 @@
         <v>36</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1834,7 +1834,7 @@
         <v>37</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1848,10 +1848,10 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1865,10 +1865,10 @@
         <v>26</v>
       </c>
       <c r="D48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1885,7 +1885,7 @@
         <v>38</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>39</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1919,7 +1919,7 @@
         <v>40</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1936,7 +1936,7 @@
         <v>41</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1953,7 +1953,7 @@
         <v>42</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1970,7 +1970,7 @@
         <v>45</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1987,7 +1987,7 @@
         <v>46</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2004,7 +2004,7 @@
         <v>43</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2021,7 +2021,7 @@
         <v>47</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2038,7 +2038,7 @@
         <v>44</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2055,7 +2055,7 @@
         <v>48</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2072,7 +2072,7 @@
         <v>49</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2089,7 +2089,7 @@
         <v>50</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2106,7 +2106,7 @@
         <v>51</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2123,7 +2123,7 @@
         <v>52</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2140,7 +2140,7 @@
         <v>53</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2157,7 +2157,7 @@
         <v>55</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2174,7 +2174,7 @@
         <v>54</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2188,10 +2188,10 @@
         <v>26</v>
       </c>
       <c r="D67" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2208,7 +2208,7 @@
         <v>56</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2225,7 +2225,7 @@
         <v>57</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2242,7 +2242,7 @@
         <v>58</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2259,7 +2259,7 @@
         <v>59</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2276,7 +2276,7 @@
         <v>60</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2293,7 +2293,7 @@
         <v>61</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2307,10 +2307,10 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2327,7 +2327,7 @@
         <v>62</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2344,7 +2344,7 @@
         <v>63</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2358,35 +2358,35 @@
         <v>26</v>
       </c>
       <c r="D77" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2423,50 +2423,50 @@
     <hyperlink ref="E29" r:id="rId29" xr:uid="{E8A1927B-9B62-458E-9D1E-5D610A63D1AF}"/>
     <hyperlink ref="E30:E32" r:id="rId30" display="http://xtjh-aa0487.byethost8.com/math/book1/1-1/p24自我評量1.png" xr:uid="{89260721-B190-43D1-B615-7AA02615829D}"/>
     <hyperlink ref="E33" r:id="rId31" xr:uid="{A53A6162-9260-479B-9482-688A7DF21518}"/>
-    <hyperlink ref="E34" r:id="rId32" xr:uid="{9EBF35AA-EF9D-4A4E-B8B7-417E1EA60C37}"/>
-    <hyperlink ref="E35" r:id="rId33" xr:uid="{C87CEED4-FBEB-42EA-B5F4-8177CE054038}"/>
-    <hyperlink ref="E36" r:id="rId34" xr:uid="{FDFA2906-F547-4EC1-866A-336AE739F793}"/>
-    <hyperlink ref="E37" r:id="rId35" xr:uid="{15352281-A6AC-4A7B-9778-6CA124822484}"/>
-    <hyperlink ref="E38" r:id="rId36" xr:uid="{15FF09CF-922F-43DE-8951-FDD6CEDB082E}"/>
-    <hyperlink ref="E40" r:id="rId37" xr:uid="{7BE912DA-0B6A-4417-9ED4-FE132774DF01}"/>
-    <hyperlink ref="E42" r:id="rId38" xr:uid="{5A879B32-EA58-4EAA-A21B-3AB43118EC5A}"/>
-    <hyperlink ref="E46" r:id="rId39" xr:uid="{1EB72FBA-5C27-4843-A3A4-3E13D120D8DB}"/>
-    <hyperlink ref="E39" r:id="rId40" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p27隨堂.png" xr:uid="{FC821931-8DE5-4C9A-9AAC-E8102D498AD3}"/>
-    <hyperlink ref="E41" r:id="rId41" xr:uid="{10833519-16C9-4B0A-9817-D2FB38935B18}"/>
-    <hyperlink ref="E43" r:id="rId42" xr:uid="{F759F974-838A-4E1A-917E-08D1037A0184}"/>
-    <hyperlink ref="E45" r:id="rId43" xr:uid="{71819BD4-B8A8-4135-B406-028B5C0ED3A3}"/>
-    <hyperlink ref="E44" r:id="rId44" xr:uid="{B73CD2BF-08AD-40A2-8603-C3C2F998F651}"/>
-    <hyperlink ref="E47:E50" r:id="rId45" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{F6BB2430-21E1-4F46-A7E9-54DFBA5E4FE5}"/>
-    <hyperlink ref="E47" r:id="rId46" xr:uid="{8ED4D171-61D0-4D9A-ADBC-1B0E362B1B2D}"/>
-    <hyperlink ref="E48" r:id="rId47" xr:uid="{B2A78DA6-15BF-4353-B0F2-3F9DF2F6C9B9}"/>
-    <hyperlink ref="E49" r:id="rId48" xr:uid="{3FF72FB4-31F9-4E07-BCF1-7009F7654AC3}"/>
-    <hyperlink ref="E50" r:id="rId49" xr:uid="{741D8432-0B81-4972-A524-6C6310D1DE92}"/>
-    <hyperlink ref="E51:E52" r:id="rId50" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{80E8BE27-E4D4-4D56-93A3-73C3BB025A3B}"/>
-    <hyperlink ref="E51" r:id="rId51" xr:uid="{733D5649-BBCD-4E78-A9CB-5DF31BD0D295}"/>
-    <hyperlink ref="E52" r:id="rId52" xr:uid="{C405DCA3-8138-4626-BED7-4C73482DCED7}"/>
-    <hyperlink ref="E53" r:id="rId53" xr:uid="{4046F51E-ABF9-41CA-BCE2-081BF25814F5}"/>
-    <hyperlink ref="E54:E55" r:id="rId54" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{E8FD7A1C-2313-4CDA-81F2-64E351A1FB53}"/>
-    <hyperlink ref="E54" r:id="rId55" xr:uid="{6A4B9435-604D-4C1B-AB63-A806BD5C59CA}"/>
-    <hyperlink ref="E55" r:id="rId56" xr:uid="{B96FA244-A912-4CEC-BA07-81A837282133}"/>
-    <hyperlink ref="E56" r:id="rId57" xr:uid="{24D5F9F4-72D1-4C55-8A3F-E699159068A6}"/>
-    <hyperlink ref="E57" r:id="rId58" xr:uid="{7A64B6E9-5B6B-4FA2-A970-F37EB3239883}"/>
-    <hyperlink ref="E58" r:id="rId59" xr:uid="{411F9D04-543E-4BDE-8E5D-5DBBE4DC875E}"/>
-    <hyperlink ref="E60" r:id="rId60" xr:uid="{7938CC28-DAA7-43C7-9C82-EC16E18B243B}"/>
-    <hyperlink ref="E62" r:id="rId61" xr:uid="{409F41FA-08AA-4238-A51A-EC64E15C8D3B}"/>
-    <hyperlink ref="E64" r:id="rId62" xr:uid="{CC5C2FCD-FEEA-4187-AB56-9F338BA38FF6}"/>
-    <hyperlink ref="E59" r:id="rId63" xr:uid="{829B1F0F-8570-4BB9-945B-B082801556F2}"/>
-    <hyperlink ref="E61" r:id="rId64" xr:uid="{B5C91745-51DB-4CA6-8A88-8EEE2BDDD7B4}"/>
-    <hyperlink ref="E63" r:id="rId65" xr:uid="{EA50CB10-AE2B-4EEB-81F2-DD3EE2079D13}"/>
-    <hyperlink ref="E65" r:id="rId66" xr:uid="{E8A9E684-F85A-472C-92AB-AFA3970F3D79}"/>
-    <hyperlink ref="E66" r:id="rId67" xr:uid="{0994ED72-4ACA-4735-B1DD-25EF4860F289}"/>
-    <hyperlink ref="E67" r:id="rId68" xr:uid="{00B65A08-0F54-4671-ACD1-9BFC6D7E390C}"/>
-    <hyperlink ref="E68:E73" r:id="rId69" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p46重點1.png" xr:uid="{6318AA02-65E5-473F-A56E-E500D5DC6768}"/>
-    <hyperlink ref="E72" r:id="rId70" xr:uid="{D69DEB70-368C-4FE7-8510-A3DDE0C7D763}"/>
-    <hyperlink ref="E73" r:id="rId71" xr:uid="{CF098BAC-600F-40F3-8356-D985B9BBEEA9}"/>
-    <hyperlink ref="E74" r:id="rId72" xr:uid="{60F68F6E-8A2D-4F61-A45D-7DF0E9781481}"/>
-    <hyperlink ref="E75:E76" r:id="rId73" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p48自我評量1.png" xr:uid="{641AAF4E-855C-4513-9014-8B1837FFE741}"/>
-    <hyperlink ref="E77" r:id="rId74" xr:uid="{0D9E6F85-F34F-49B6-9055-9B5E6552A210}"/>
-    <hyperlink ref="E76" r:id="rId75" xr:uid="{73DC6E12-9708-47EB-A9C2-64A2BA536BDA}"/>
+    <hyperlink ref="E35" r:id="rId32" xr:uid="{C87CEED4-FBEB-42EA-B5F4-8177CE054038}"/>
+    <hyperlink ref="E36" r:id="rId33" xr:uid="{FDFA2906-F547-4EC1-866A-336AE739F793}"/>
+    <hyperlink ref="E37" r:id="rId34" xr:uid="{15352281-A6AC-4A7B-9778-6CA124822484}"/>
+    <hyperlink ref="E38" r:id="rId35" xr:uid="{15FF09CF-922F-43DE-8951-FDD6CEDB082E}"/>
+    <hyperlink ref="E40" r:id="rId36" xr:uid="{7BE912DA-0B6A-4417-9ED4-FE132774DF01}"/>
+    <hyperlink ref="E42" r:id="rId37" xr:uid="{5A879B32-EA58-4EAA-A21B-3AB43118EC5A}"/>
+    <hyperlink ref="E46" r:id="rId38" xr:uid="{1EB72FBA-5C27-4843-A3A4-3E13D120D8DB}"/>
+    <hyperlink ref="E39" r:id="rId39" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p27隨堂.png" xr:uid="{FC821931-8DE5-4C9A-9AAC-E8102D498AD3}"/>
+    <hyperlink ref="E41" r:id="rId40" xr:uid="{10833519-16C9-4B0A-9817-D2FB38935B18}"/>
+    <hyperlink ref="E43" r:id="rId41" xr:uid="{F759F974-838A-4E1A-917E-08D1037A0184}"/>
+    <hyperlink ref="E45" r:id="rId42" xr:uid="{71819BD4-B8A8-4135-B406-028B5C0ED3A3}"/>
+    <hyperlink ref="E44" r:id="rId43" xr:uid="{B73CD2BF-08AD-40A2-8603-C3C2F998F651}"/>
+    <hyperlink ref="E47:E50" r:id="rId44" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{F6BB2430-21E1-4F46-A7E9-54DFBA5E4FE5}"/>
+    <hyperlink ref="E47" r:id="rId45" xr:uid="{8ED4D171-61D0-4D9A-ADBC-1B0E362B1B2D}"/>
+    <hyperlink ref="E48" r:id="rId46" xr:uid="{B2A78DA6-15BF-4353-B0F2-3F9DF2F6C9B9}"/>
+    <hyperlink ref="E49" r:id="rId47" xr:uid="{3FF72FB4-31F9-4E07-BCF1-7009F7654AC3}"/>
+    <hyperlink ref="E50" r:id="rId48" xr:uid="{741D8432-0B81-4972-A524-6C6310D1DE92}"/>
+    <hyperlink ref="E51:E52" r:id="rId49" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{80E8BE27-E4D4-4D56-93A3-73C3BB025A3B}"/>
+    <hyperlink ref="E51" r:id="rId50" xr:uid="{733D5649-BBCD-4E78-A9CB-5DF31BD0D295}"/>
+    <hyperlink ref="E52" r:id="rId51" xr:uid="{C405DCA3-8138-4626-BED7-4C73482DCED7}"/>
+    <hyperlink ref="E53" r:id="rId52" xr:uid="{4046F51E-ABF9-41CA-BCE2-081BF25814F5}"/>
+    <hyperlink ref="E54:E55" r:id="rId53" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{E8FD7A1C-2313-4CDA-81F2-64E351A1FB53}"/>
+    <hyperlink ref="E54" r:id="rId54" xr:uid="{6A4B9435-604D-4C1B-AB63-A806BD5C59CA}"/>
+    <hyperlink ref="E55" r:id="rId55" xr:uid="{B96FA244-A912-4CEC-BA07-81A837282133}"/>
+    <hyperlink ref="E56" r:id="rId56" xr:uid="{24D5F9F4-72D1-4C55-8A3F-E699159068A6}"/>
+    <hyperlink ref="E57" r:id="rId57" xr:uid="{7A64B6E9-5B6B-4FA2-A970-F37EB3239883}"/>
+    <hyperlink ref="E58" r:id="rId58" xr:uid="{411F9D04-543E-4BDE-8E5D-5DBBE4DC875E}"/>
+    <hyperlink ref="E60" r:id="rId59" xr:uid="{7938CC28-DAA7-43C7-9C82-EC16E18B243B}"/>
+    <hyperlink ref="E62" r:id="rId60" xr:uid="{409F41FA-08AA-4238-A51A-EC64E15C8D3B}"/>
+    <hyperlink ref="E64" r:id="rId61" xr:uid="{CC5C2FCD-FEEA-4187-AB56-9F338BA38FF6}"/>
+    <hyperlink ref="E59" r:id="rId62" xr:uid="{829B1F0F-8570-4BB9-945B-B082801556F2}"/>
+    <hyperlink ref="E61" r:id="rId63" xr:uid="{B5C91745-51DB-4CA6-8A88-8EEE2BDDD7B4}"/>
+    <hyperlink ref="E63" r:id="rId64" xr:uid="{EA50CB10-AE2B-4EEB-81F2-DD3EE2079D13}"/>
+    <hyperlink ref="E65" r:id="rId65" xr:uid="{E8A9E684-F85A-472C-92AB-AFA3970F3D79}"/>
+    <hyperlink ref="E66" r:id="rId66" xr:uid="{0994ED72-4ACA-4735-B1DD-25EF4860F289}"/>
+    <hyperlink ref="E67" r:id="rId67" xr:uid="{00B65A08-0F54-4671-ACD1-9BFC6D7E390C}"/>
+    <hyperlink ref="E68:E73" r:id="rId68" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p46重點1.png" xr:uid="{6318AA02-65E5-473F-A56E-E500D5DC6768}"/>
+    <hyperlink ref="E72" r:id="rId69" xr:uid="{D69DEB70-368C-4FE7-8510-A3DDE0C7D763}"/>
+    <hyperlink ref="E73" r:id="rId70" xr:uid="{CF098BAC-600F-40F3-8356-D985B9BBEEA9}"/>
+    <hyperlink ref="E74" r:id="rId71" xr:uid="{60F68F6E-8A2D-4F61-A45D-7DF0E9781481}"/>
+    <hyperlink ref="E75:E76" r:id="rId72" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p48自我評量1.png" xr:uid="{641AAF4E-855C-4513-9014-8B1837FFE741}"/>
+    <hyperlink ref="E77" r:id="rId73" xr:uid="{0D9E6F85-F34F-49B6-9055-9B5E6552A210}"/>
+    <hyperlink ref="E76" r:id="rId74" xr:uid="{73DC6E12-9708-47EB-A9C2-64A2BA536BDA}"/>
+    <hyperlink ref="E34" r:id="rId75" xr:uid="{9EBF35AA-EF9D-4A4E-B8B7-417E1EA60C37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tree/tree.xlsx
+++ b/tree/tree.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuke\Desktop\guest\1130826\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AC51437-5725-413C-8437-D9985ADD2844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4303C5B6-D593-4AD0-BBDF-0C48B5041617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA16FEF3-4787-468B-94EE-76BE82BCE9D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="184">
   <si>
     <t>第一冊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,6 +659,71 @@
   </si>
   <si>
     <t>http://xtjh-aa0487.byethost8.com/math/book1/1-1/p25自我評量6.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2單元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總複習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/65ce270ed2092a0013c9dab9/guide-2yuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3單元</t>
+  </si>
+  <si>
+    <t>P33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/669cd1dd079a5f293384be18/learning-experience-didactic-unit-3yuanyuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4單元</t>
+  </si>
+  <si>
+    <t>P46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/669e8c4097ad7b0b01e033ab/interactive-content-4yuan-yuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/669fb5d47dadb63f096d4905/guide-b1-1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>P40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/669fbec44b779ff586d1254f/presentation-b1-1-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1042,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B8439-9079-4DF4-BB05-62730084EFF9}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2366,26 +2431,111 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>168</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" t="s">
+        <v>169</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>168</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" t="s">
+        <v>172</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80" t="s">
+        <v>175</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>177</v>
+      </c>
+      <c r="B81" t="s">
+        <v>178</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" t="s">
+        <v>182</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2467,6 +2617,11 @@
     <hyperlink ref="E77" r:id="rId73" xr:uid="{0D9E6F85-F34F-49B6-9055-9B5E6552A210}"/>
     <hyperlink ref="E76" r:id="rId74" xr:uid="{73DC6E12-9708-47EB-A9C2-64A2BA536BDA}"/>
     <hyperlink ref="E34" r:id="rId75" xr:uid="{9EBF35AA-EF9D-4A4E-B8B7-417E1EA60C37}"/>
+    <hyperlink ref="E78" r:id="rId76" xr:uid="{386E46CF-F362-49BC-82EF-DF26F3CD28BF}"/>
+    <hyperlink ref="E79" r:id="rId77" xr:uid="{14488313-01B6-46A0-A61B-4A86BFAA5FC9}"/>
+    <hyperlink ref="E80" r:id="rId78" xr:uid="{67CAE917-BF0D-4D29-9FC3-415970EB81AF}"/>
+    <hyperlink ref="E81" r:id="rId79" xr:uid="{3063C1E8-A365-4B1F-BFCD-707A5CD759AA}"/>
+    <hyperlink ref="E82" r:id="rId80" xr:uid="{69739254-390A-47D3-B5D0-D5944E887393}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tree/tree.xlsx
+++ b/tree/tree.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuke\Desktop\guest\1130826\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4303C5B6-D593-4AD0-BBDF-0C48B5041617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2912FC-CD1F-4D5C-8946-47F95EA572C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA16FEF3-4787-468B-94EE-76BE82BCE9D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="314">
   <si>
     <t>第一冊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -724,6 +724,523 @@
   </si>
   <si>
     <t>https://view.genially.com/669fbec44b779ff586d1254f/presentation-b1-1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題1   正數與負數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66a7b57ea1e079dde866aeb2/guide-1-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題2   數線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66aa5bd5a02c4c1725e6b823/learning-experience-didactic-unit-1-1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題3   數的大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66ab28baea7e20db440976be/learning-experience-didactic-unit-1-1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66ad135315a9171d5c1cb22e/guide-1-1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題4   相反數與絕對值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66ada3a2cc88dc4b87dd11d5/guide-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1 自我評量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66ae01ac62e534c3b275154c/presentation-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1 習作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66aeef1acc88dc4b8783a703/learning-experience-didactic-unit-1-2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>https://view.genially.com/66af2ab9cc88dc4b879ea5fd/presentation-1-2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題2  整數的減法運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題1  整數的加法運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66af361acc88dc4b87a14bca/presentation-1-2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題3   整數的加減運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66af565862e534c3b21f1149/presentation-1-2-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題4   數線上兩點的距離</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66b06ca2cc88dc4b874ad68d/presentation-1-3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題1   整數的乘法運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2 自我評量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2 習作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66af7da3cc88dc4b87af4a20/presentation-1-2-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66af854762e534c3b228c7c9/presentation-1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66b09bcb73d38274cf7b7138/presentation-1-3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66b0afd94c7f3cdcda3c2e3b/presentation-pipes-presentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題3   整數的四則運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66b18805ec4602db4712c68d/presentation-1-3-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-3 自我評量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66b1911828258c97d0eca749/guide-1-3-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3 習作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66b1ca055ac4fc97828414c8/presentation-1-4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題1   整數的乘方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66b2d341bd1d034f8d9d420b/presentation-1-4-2-10-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題2  10 的次方 主題3  科學記號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66b2ff5e95868c00f4ca3c30/presentation-1-4-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4 自我評量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66b4c4e42d315456c641ceb2/presentation-1-4-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4 習作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66b5a60f0459bb13cd10b3e2/presentation-1-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題1 分配律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66b5bee0911760cdf76ba899/presentation-zen-presentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題2  乘法公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66b98bc2529beddf220d0f0c/presentation-research-project-presentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66b998a911f770bcbe11836f/presentation-vintage-circus-presentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66b9d71faaaec020f41754bf/presentation-1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題1   認識多項式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66b9dfcf11f770bcbe24a46f/presentation-1-2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題2    多項式的加減運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66ba21ec11f770bcbe4e4b36/presentation-1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66bb60605328193b14c7f31e/presentation-1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66bb73e55328193b14d6bb84/presentation-1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題1   多項式的乘法運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66bc4795cfb9611ccbf9b173/presentation-1-3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題2   多項式的除法運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66bc79ed13380c30f3f1fe24/presentation-1-3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題3   綜合應用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66bcb003de0d3b00de4d0221/presentation-1-3-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66bcc280c5ecc5bc82e36a94/presentation-1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66bd600a3c705278ce702b95/presentation-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH1 習作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66b4e8b809f7509870c5477e/presentation-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66bdc998e0a3b3144f636cb8/presentation-2-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH2</t>
+  </si>
+  <si>
+    <t>主題1  "√"的意義</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66be121212a7f7ba1a3d3b1e/presentation-2-1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題2  √a 的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66bee8b2de0d3b00debe4bcd/presentation-2-1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題3   平方根的意義</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66bf11b1a25a5c5e6b42b331/presentation-2-1-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1 自我評量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66bf6e465d727bc122fce924/presentation-2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1 習作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c051bd5d727bc12291fdb4/interactive-content-quiz-1-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-1主題1 分配律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c0884ba6a644953aa95454/interactive-content-quiz-1-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-1 主題2 乘法公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c216925d727bc1226178f0/interactive-content-quiz-1-2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-2 主題1   認識多項式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c22b195d727bc1227052bc/interactive-content-quiz-1-2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-2 主題2    多項式的加減運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c31159416193b1371ab5ba/interactive-content-1-3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-3 主題1   多項式的乘法運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c3730674dc3b6a1120d7ac/interactive-content-quiz-1-3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-3 主題3   多項式的除法運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-3 主題3   綜合應用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c225b9a6a644953a7b6cf4/interactive-content-1-3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c464661e16436feca4bcea/interactive-content-quiz-2-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c471711e16436feca83c18/interactive-content-quiz-2-1-2a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 2-1 主題1 "√"的意義</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 2-1 主題2  √a 的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c47d541e16436fecae62b8/interactive-content-quiz-2-1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 2-1 主題3   平方根的意義</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c49f0c6c22fb8da4939c6a/interactive-content-quiz-1-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-1 主題1   正數與負數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c4ac194835b6224adb5cdc/interactive-content-quiz-1-1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-1 主題2   數線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c4c3731e16436fece1a0d4/interactive-content-quiz-1-1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-1 主題3   數的大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c4cbd21c85c671f8d93870/interactive-content-escape-room-1-1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-1 主題4   相反數與絕對值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c5975d34d99156cfadcace/interactive-content-quiz-1-2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-2 主題1  整數的加法運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c5a6c2569f4d1bc563ad22/interactive-content-quiz-1-2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-2 主題2  整數的減法運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c5c84f35799c046249df82/interactive-content-escape-room-1-2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-2 主題3   整數的加減運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c5c74762f52caf3ba08f33/interactive-content-quiz-1-2-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c5c69c62f52caf3ba02fc5/interactive-content-quiz-1-3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-3 主題1   整數的乘法運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-2 主題4   數線上兩點的距離</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c5c6d462f52caf3ba04da1/interactive-content-quiz-1-3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c5c64caa6c0b8495c0b384/interactive-content-quiz-1-4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-4 主題1   整數的乘方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題2   整數的除法運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-3 主題2   整數的除法運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c69960b492d288ffe257b8/interactive-content-halloween-escape-1-3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-3 主題3   整數的四則運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c6b3f2a19e22347c2f6e36/interactive-content-quiz-1-4-2-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1-4 主題2  10 的次方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66c72bd57bb196fc5f714bda/interactive-content-quiz-1-4-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ 1.4 主題3    科學記號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +1299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,6 +1308,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1107,17 +1627,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B8439-9079-4DF4-BB05-62730084EFF9}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.88671875" customWidth="1"/>
+    <col min="5" max="5" width="89.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1137,7 +1657,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1147,14 +1667,14 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>65</v>
+      <c r="D2" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1164,14 +1684,14 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>66</v>
+      <c r="D3" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1181,14 +1701,14 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>67</v>
+      <c r="D4" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1198,14 +1718,14 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
+      <c r="D5" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1215,14 +1735,14 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
+      <c r="D6" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1232,14 +1752,14 @@
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
+      <c r="D7" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1249,14 +1769,14 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
+      <c r="D8" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1266,14 +1786,14 @@
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
+      <c r="D9" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1283,14 +1803,14 @@
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>68</v>
+      <c r="D10" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1300,14 +1820,14 @@
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>69</v>
+      <c r="D11" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1315,16 +1835,16 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
+        <v>197</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1332,16 +1852,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1349,16 +1869,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1366,16 +1886,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1383,16 +1903,16 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1400,16 +1920,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1417,16 +1937,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1434,16 +1954,16 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>87</v>
+        <v>26</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1451,16 +1971,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1468,16 +1988,16 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1485,16 +2005,16 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>91</v>
+        <v>212</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1502,16 +2022,16 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>95</v>
+        <v>212</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1519,16 +2039,16 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
+        <v>212</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1536,16 +2056,16 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
+        <v>212</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1553,16 +2073,16 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
+        <v>212</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1570,16 +2090,16 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>102</v>
+        <v>212</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1587,16 +2107,16 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>104</v>
+        <v>212</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1604,16 +2124,16 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>106</v>
+        <v>212</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1621,16 +2141,16 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
+        <v>216</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1638,16 +2158,16 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
+        <v>223</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1655,16 +2175,16 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>23</v>
+        <v>223</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1672,16 +2192,16 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" t="s">
-        <v>24</v>
+        <v>223</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1689,16 +2209,16 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
+        <v>223</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1706,47 +2226,47 @@
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>109</v>
+        <v>223</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" t="s">
-        <v>27</v>
+        <v>223</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s">
-        <v>28</v>
+        <v>223</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1754,16 +2274,16 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1771,16 +2291,16 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1788,16 +2308,16 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1805,16 +2325,16 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1822,16 +2342,16 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1839,16 +2359,16 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1856,16 +2376,16 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1873,16 +2393,16 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1890,16 +2410,16 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1907,16 +2427,16 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1924,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1941,16 +2461,16 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1958,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1975,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1992,16 +2512,16 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2009,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2026,16 +2546,16 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2043,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2060,16 +2580,16 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2077,16 +2597,16 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2094,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2111,16 +2631,16 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2128,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2145,16 +2665,16 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2162,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2179,16 +2699,16 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2196,16 +2716,16 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2213,16 +2733,16 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2230,16 +2750,16 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2247,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2264,16 +2784,16 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2281,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2298,16 +2818,16 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2315,16 +2835,16 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2338,10 +2858,10 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2355,10 +2875,10 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2372,10 +2892,10 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2389,10 +2909,10 @@
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2406,10 +2926,10 @@
         <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2423,206 +2943,1372 @@
         <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" t="s">
-        <v>167</v>
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" t="s">
-        <v>171</v>
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" t="s">
-        <v>174</v>
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>156</v>
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" t="s">
+        <v>120</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" t="s">
+        <v>122</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" t="s">
+        <v>47</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" t="s">
+        <v>50</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" t="s">
+        <v>51</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" t="s">
+        <v>53</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" t="s">
+        <v>55</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" t="s">
+        <v>54</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" t="s">
+        <v>147</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" t="s">
+        <v>56</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" t="s">
+        <v>57</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" t="s">
+        <v>58</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" t="s">
+        <v>59</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" t="s">
+        <v>60</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" t="s">
+        <v>61</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" t="s">
+        <v>151</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>62</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" t="s">
+        <v>63</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>167</v>
+      </c>
+      <c r="D114" t="s">
+        <v>169</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>168</v>
+      </c>
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" t="s">
+        <v>172</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>174</v>
+      </c>
+      <c r="D116" t="s">
+        <v>175</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>177</v>
+      </c>
+      <c r="B117" t="s">
+        <v>178</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" t="s">
+        <v>179</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>177</v>
+      </c>
+      <c r="B118" t="s">
+        <v>178</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D118" t="s">
+        <v>182</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>157</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>157</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>157</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>157</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>157</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>157</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>157</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>157</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>157</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>157</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>157</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>157</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>157</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>157</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>157</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>157</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>157</v>
+      </c>
+      <c r="B141" t="s">
+        <v>253</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>157</v>
+      </c>
+      <c r="B142" t="s">
+        <v>257</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>157</v>
+      </c>
+      <c r="B143" t="s">
+        <v>257</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>157</v>
+      </c>
+      <c r="B144" t="s">
+        <v>257</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" t="s">
+        <v>257</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" t="s">
+        <v>257</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>157</v>
+      </c>
+      <c r="B147" t="s">
+        <v>257</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>157</v>
+      </c>
+      <c r="B148" t="s">
+        <v>257</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{D39C6DFF-EA35-46E9-869F-A0D866EE02E8}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{230947B5-88BA-409C-A520-A7146327E0FF}"/>
-    <hyperlink ref="E4:E23" r:id="rId3" display="http://xtjh-aa0487.byethost8.com/math/book1/1-1/p" xr:uid="{DAE097C3-5324-4869-BC32-7287BF8FBEDF}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{B1AD83C0-F955-4C79-AD08-4E64E66B5542}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{0172B511-09B1-4EC2-AE70-C6FE9D11122B}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{91B5FB02-058B-4568-B360-F9F53F22FEC3}"/>
-    <hyperlink ref="E7" r:id="rId7" xr:uid="{986BEE39-1880-4066-8B5C-BE7F1707667C}"/>
-    <hyperlink ref="E8" r:id="rId8" xr:uid="{0C2E3AF8-B873-4CD7-99A9-08C3D367711E}"/>
-    <hyperlink ref="E9" r:id="rId9" xr:uid="{B63BFB7E-B73F-471B-9F2C-E5F581197C0A}"/>
-    <hyperlink ref="E10" r:id="rId10" xr:uid="{0B7C3CB0-3A2D-48DB-956D-6459F1671748}"/>
-    <hyperlink ref="E11" r:id="rId11" xr:uid="{B057FEE1-6534-4628-AC49-4A39BE658F7D}"/>
-    <hyperlink ref="E12" r:id="rId12" xr:uid="{F6F14E67-1D80-4D87-986C-8360290CFA56}"/>
-    <hyperlink ref="E13" r:id="rId13" xr:uid="{36A59FD5-B518-4518-9EFB-97CEFD061515}"/>
-    <hyperlink ref="E14" r:id="rId14" xr:uid="{EF8040B8-7852-4048-9B93-A629F39287AE}"/>
-    <hyperlink ref="E15" r:id="rId15" xr:uid="{F31447CB-37B0-474E-9129-65514EABC8CD}"/>
-    <hyperlink ref="E16" r:id="rId16" xr:uid="{98A117DF-5D86-4CEF-B287-68CFD642D2FD}"/>
-    <hyperlink ref="E17" r:id="rId17" xr:uid="{6220FB04-9333-4C4B-93A7-C9F22B9EB837}"/>
-    <hyperlink ref="E18" r:id="rId18" xr:uid="{88C2E624-91F3-433D-8E1C-E9D8A66D43A7}"/>
-    <hyperlink ref="E19" r:id="rId19" xr:uid="{033BF64E-4962-4823-BD2C-814A7508FA19}"/>
-    <hyperlink ref="E20" r:id="rId20" xr:uid="{D387F777-A3DE-464B-89E4-AC2C74BD409A}"/>
-    <hyperlink ref="E21" r:id="rId21" xr:uid="{281420D5-7351-40E3-8FB8-DCB5C560D595}"/>
-    <hyperlink ref="E22" r:id="rId22" xr:uid="{C0746E29-17F5-4D20-B194-6EFFE5148423}"/>
-    <hyperlink ref="E23" r:id="rId23" xr:uid="{5EB0103C-E963-4A65-93E7-67E2881B1E17}"/>
-    <hyperlink ref="E24" r:id="rId24" xr:uid="{A3EBEEA1-4192-4892-AC81-8789348AD060}"/>
-    <hyperlink ref="E25" r:id="rId25" xr:uid="{32807BEA-3335-4DF0-A846-33F65FB61B1D}"/>
-    <hyperlink ref="E26:E28" r:id="rId26" display="http://xtjh-aa0487.byethost8.com/math/book1/1-1/p22重點4.png" xr:uid="{895FA315-17C7-48E3-AA9E-A714BF6A95AD}"/>
-    <hyperlink ref="E27" r:id="rId27" xr:uid="{3ED9F135-E5DB-4934-B6F0-327708068386}"/>
-    <hyperlink ref="E28" r:id="rId28" xr:uid="{672A2DFC-F7E9-400C-9DC2-A925A8FC0496}"/>
-    <hyperlink ref="E29" r:id="rId29" xr:uid="{E8A1927B-9B62-458E-9D1E-5D610A63D1AF}"/>
-    <hyperlink ref="E30:E32" r:id="rId30" display="http://xtjh-aa0487.byethost8.com/math/book1/1-1/p24自我評量1.png" xr:uid="{89260721-B190-43D1-B615-7AA02615829D}"/>
-    <hyperlink ref="E33" r:id="rId31" xr:uid="{A53A6162-9260-479B-9482-688A7DF21518}"/>
-    <hyperlink ref="E35" r:id="rId32" xr:uid="{C87CEED4-FBEB-42EA-B5F4-8177CE054038}"/>
-    <hyperlink ref="E36" r:id="rId33" xr:uid="{FDFA2906-F547-4EC1-866A-336AE739F793}"/>
-    <hyperlink ref="E37" r:id="rId34" xr:uid="{15352281-A6AC-4A7B-9778-6CA124822484}"/>
-    <hyperlink ref="E38" r:id="rId35" xr:uid="{15FF09CF-922F-43DE-8951-FDD6CEDB082E}"/>
-    <hyperlink ref="E40" r:id="rId36" xr:uid="{7BE912DA-0B6A-4417-9ED4-FE132774DF01}"/>
-    <hyperlink ref="E42" r:id="rId37" xr:uid="{5A879B32-EA58-4EAA-A21B-3AB43118EC5A}"/>
-    <hyperlink ref="E46" r:id="rId38" xr:uid="{1EB72FBA-5C27-4843-A3A4-3E13D120D8DB}"/>
-    <hyperlink ref="E39" r:id="rId39" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p27隨堂.png" xr:uid="{FC821931-8DE5-4C9A-9AAC-E8102D498AD3}"/>
-    <hyperlink ref="E41" r:id="rId40" xr:uid="{10833519-16C9-4B0A-9817-D2FB38935B18}"/>
-    <hyperlink ref="E43" r:id="rId41" xr:uid="{F759F974-838A-4E1A-917E-08D1037A0184}"/>
-    <hyperlink ref="E45" r:id="rId42" xr:uid="{71819BD4-B8A8-4135-B406-028B5C0ED3A3}"/>
-    <hyperlink ref="E44" r:id="rId43" xr:uid="{B73CD2BF-08AD-40A2-8603-C3C2F998F651}"/>
-    <hyperlink ref="E47:E50" r:id="rId44" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{F6BB2430-21E1-4F46-A7E9-54DFBA5E4FE5}"/>
-    <hyperlink ref="E47" r:id="rId45" xr:uid="{8ED4D171-61D0-4D9A-ADBC-1B0E362B1B2D}"/>
-    <hyperlink ref="E48" r:id="rId46" xr:uid="{B2A78DA6-15BF-4353-B0F2-3F9DF2F6C9B9}"/>
-    <hyperlink ref="E49" r:id="rId47" xr:uid="{3FF72FB4-31F9-4E07-BCF1-7009F7654AC3}"/>
-    <hyperlink ref="E50" r:id="rId48" xr:uid="{741D8432-0B81-4972-A524-6C6310D1DE92}"/>
-    <hyperlink ref="E51:E52" r:id="rId49" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{80E8BE27-E4D4-4D56-93A3-73C3BB025A3B}"/>
-    <hyperlink ref="E51" r:id="rId50" xr:uid="{733D5649-BBCD-4E78-A9CB-5DF31BD0D295}"/>
-    <hyperlink ref="E52" r:id="rId51" xr:uid="{C405DCA3-8138-4626-BED7-4C73482DCED7}"/>
-    <hyperlink ref="E53" r:id="rId52" xr:uid="{4046F51E-ABF9-41CA-BCE2-081BF25814F5}"/>
-    <hyperlink ref="E54:E55" r:id="rId53" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{E8FD7A1C-2313-4CDA-81F2-64E351A1FB53}"/>
-    <hyperlink ref="E54" r:id="rId54" xr:uid="{6A4B9435-604D-4C1B-AB63-A806BD5C59CA}"/>
-    <hyperlink ref="E55" r:id="rId55" xr:uid="{B96FA244-A912-4CEC-BA07-81A837282133}"/>
-    <hyperlink ref="E56" r:id="rId56" xr:uid="{24D5F9F4-72D1-4C55-8A3F-E699159068A6}"/>
-    <hyperlink ref="E57" r:id="rId57" xr:uid="{7A64B6E9-5B6B-4FA2-A970-F37EB3239883}"/>
-    <hyperlink ref="E58" r:id="rId58" xr:uid="{411F9D04-543E-4BDE-8E5D-5DBBE4DC875E}"/>
-    <hyperlink ref="E60" r:id="rId59" xr:uid="{7938CC28-DAA7-43C7-9C82-EC16E18B243B}"/>
-    <hyperlink ref="E62" r:id="rId60" xr:uid="{409F41FA-08AA-4238-A51A-EC64E15C8D3B}"/>
-    <hyperlink ref="E64" r:id="rId61" xr:uid="{CC5C2FCD-FEEA-4187-AB56-9F338BA38FF6}"/>
-    <hyperlink ref="E59" r:id="rId62" xr:uid="{829B1F0F-8570-4BB9-945B-B082801556F2}"/>
-    <hyperlink ref="E61" r:id="rId63" xr:uid="{B5C91745-51DB-4CA6-8A88-8EEE2BDDD7B4}"/>
-    <hyperlink ref="E63" r:id="rId64" xr:uid="{EA50CB10-AE2B-4EEB-81F2-DD3EE2079D13}"/>
-    <hyperlink ref="E65" r:id="rId65" xr:uid="{E8A9E684-F85A-472C-92AB-AFA3970F3D79}"/>
-    <hyperlink ref="E66" r:id="rId66" xr:uid="{0994ED72-4ACA-4735-B1DD-25EF4860F289}"/>
-    <hyperlink ref="E67" r:id="rId67" xr:uid="{00B65A08-0F54-4671-ACD1-9BFC6D7E390C}"/>
-    <hyperlink ref="E68:E73" r:id="rId68" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p46重點1.png" xr:uid="{6318AA02-65E5-473F-A56E-E500D5DC6768}"/>
-    <hyperlink ref="E72" r:id="rId69" xr:uid="{D69DEB70-368C-4FE7-8510-A3DDE0C7D763}"/>
-    <hyperlink ref="E73" r:id="rId70" xr:uid="{CF098BAC-600F-40F3-8356-D985B9BBEEA9}"/>
-    <hyperlink ref="E74" r:id="rId71" xr:uid="{60F68F6E-8A2D-4F61-A45D-7DF0E9781481}"/>
-    <hyperlink ref="E75:E76" r:id="rId72" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p48自我評量1.png" xr:uid="{641AAF4E-855C-4513-9014-8B1837FFE741}"/>
-    <hyperlink ref="E77" r:id="rId73" xr:uid="{0D9E6F85-F34F-49B6-9055-9B5E6552A210}"/>
-    <hyperlink ref="E76" r:id="rId74" xr:uid="{73DC6E12-9708-47EB-A9C2-64A2BA536BDA}"/>
-    <hyperlink ref="E34" r:id="rId75" xr:uid="{9EBF35AA-EF9D-4A4E-B8B7-417E1EA60C37}"/>
-    <hyperlink ref="E78" r:id="rId76" xr:uid="{386E46CF-F362-49BC-82EF-DF26F3CD28BF}"/>
-    <hyperlink ref="E79" r:id="rId77" xr:uid="{14488313-01B6-46A0-A61B-4A86BFAA5FC9}"/>
-    <hyperlink ref="E80" r:id="rId78" xr:uid="{67CAE917-BF0D-4D29-9FC3-415970EB81AF}"/>
-    <hyperlink ref="E81" r:id="rId79" xr:uid="{3063C1E8-A365-4B1F-BFCD-707A5CD759AA}"/>
-    <hyperlink ref="E82" r:id="rId80" xr:uid="{69739254-390A-47D3-B5D0-D5944E887393}"/>
+    <hyperlink ref="E38" r:id="rId1" xr:uid="{D39C6DFF-EA35-46E9-869F-A0D866EE02E8}"/>
+    <hyperlink ref="E39" r:id="rId2" xr:uid="{230947B5-88BA-409C-A520-A7146327E0FF}"/>
+    <hyperlink ref="E40:E59" r:id="rId3" display="http://xtjh-aa0487.byethost8.com/math/book1/1-1/p" xr:uid="{DAE097C3-5324-4869-BC32-7287BF8FBEDF}"/>
+    <hyperlink ref="E40" r:id="rId4" xr:uid="{B1AD83C0-F955-4C79-AD08-4E64E66B5542}"/>
+    <hyperlink ref="E41" r:id="rId5" xr:uid="{0172B511-09B1-4EC2-AE70-C6FE9D11122B}"/>
+    <hyperlink ref="E42" r:id="rId6" xr:uid="{91B5FB02-058B-4568-B360-F9F53F22FEC3}"/>
+    <hyperlink ref="E43" r:id="rId7" xr:uid="{986BEE39-1880-4066-8B5C-BE7F1707667C}"/>
+    <hyperlink ref="E44" r:id="rId8" xr:uid="{0C2E3AF8-B873-4CD7-99A9-08C3D367711E}"/>
+    <hyperlink ref="E45" r:id="rId9" xr:uid="{B63BFB7E-B73F-471B-9F2C-E5F581197C0A}"/>
+    <hyperlink ref="E46" r:id="rId10" xr:uid="{0B7C3CB0-3A2D-48DB-956D-6459F1671748}"/>
+    <hyperlink ref="E47" r:id="rId11" xr:uid="{B057FEE1-6534-4628-AC49-4A39BE658F7D}"/>
+    <hyperlink ref="E48" r:id="rId12" xr:uid="{F6F14E67-1D80-4D87-986C-8360290CFA56}"/>
+    <hyperlink ref="E49" r:id="rId13" xr:uid="{36A59FD5-B518-4518-9EFB-97CEFD061515}"/>
+    <hyperlink ref="E50" r:id="rId14" xr:uid="{EF8040B8-7852-4048-9B93-A629F39287AE}"/>
+    <hyperlink ref="E51" r:id="rId15" xr:uid="{F31447CB-37B0-474E-9129-65514EABC8CD}"/>
+    <hyperlink ref="E52" r:id="rId16" xr:uid="{98A117DF-5D86-4CEF-B287-68CFD642D2FD}"/>
+    <hyperlink ref="E53" r:id="rId17" xr:uid="{6220FB04-9333-4C4B-93A7-C9F22B9EB837}"/>
+    <hyperlink ref="E54" r:id="rId18" xr:uid="{88C2E624-91F3-433D-8E1C-E9D8A66D43A7}"/>
+    <hyperlink ref="E55" r:id="rId19" xr:uid="{033BF64E-4962-4823-BD2C-814A7508FA19}"/>
+    <hyperlink ref="E56" r:id="rId20" xr:uid="{D387F777-A3DE-464B-89E4-AC2C74BD409A}"/>
+    <hyperlink ref="E57" r:id="rId21" xr:uid="{281420D5-7351-40E3-8FB8-DCB5C560D595}"/>
+    <hyperlink ref="E58" r:id="rId22" xr:uid="{C0746E29-17F5-4D20-B194-6EFFE5148423}"/>
+    <hyperlink ref="E59" r:id="rId23" xr:uid="{5EB0103C-E963-4A65-93E7-67E2881B1E17}"/>
+    <hyperlink ref="E60" r:id="rId24" xr:uid="{A3EBEEA1-4192-4892-AC81-8789348AD060}"/>
+    <hyperlink ref="E61" r:id="rId25" xr:uid="{32807BEA-3335-4DF0-A846-33F65FB61B1D}"/>
+    <hyperlink ref="E62:E64" r:id="rId26" display="http://xtjh-aa0487.byethost8.com/math/book1/1-1/p22重點4.png" xr:uid="{895FA315-17C7-48E3-AA9E-A714BF6A95AD}"/>
+    <hyperlink ref="E63" r:id="rId27" xr:uid="{3ED9F135-E5DB-4934-B6F0-327708068386}"/>
+    <hyperlink ref="E64" r:id="rId28" xr:uid="{672A2DFC-F7E9-400C-9DC2-A925A8FC0496}"/>
+    <hyperlink ref="E65" r:id="rId29" xr:uid="{E8A1927B-9B62-458E-9D1E-5D610A63D1AF}"/>
+    <hyperlink ref="E66:E68" r:id="rId30" display="http://xtjh-aa0487.byethost8.com/math/book1/1-1/p24自我評量1.png" xr:uid="{89260721-B190-43D1-B615-7AA02615829D}"/>
+    <hyperlink ref="E69" r:id="rId31" xr:uid="{A53A6162-9260-479B-9482-688A7DF21518}"/>
+    <hyperlink ref="E71" r:id="rId32" xr:uid="{C87CEED4-FBEB-42EA-B5F4-8177CE054038}"/>
+    <hyperlink ref="E72" r:id="rId33" xr:uid="{FDFA2906-F547-4EC1-866A-336AE739F793}"/>
+    <hyperlink ref="E73" r:id="rId34" xr:uid="{15352281-A6AC-4A7B-9778-6CA124822484}"/>
+    <hyperlink ref="E74" r:id="rId35" xr:uid="{15FF09CF-922F-43DE-8951-FDD6CEDB082E}"/>
+    <hyperlink ref="E76" r:id="rId36" xr:uid="{7BE912DA-0B6A-4417-9ED4-FE132774DF01}"/>
+    <hyperlink ref="E78" r:id="rId37" xr:uid="{5A879B32-EA58-4EAA-A21B-3AB43118EC5A}"/>
+    <hyperlink ref="E82" r:id="rId38" xr:uid="{1EB72FBA-5C27-4843-A3A4-3E13D120D8DB}"/>
+    <hyperlink ref="E75" r:id="rId39" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p27隨堂.png" xr:uid="{FC821931-8DE5-4C9A-9AAC-E8102D498AD3}"/>
+    <hyperlink ref="E77" r:id="rId40" xr:uid="{10833519-16C9-4B0A-9817-D2FB38935B18}"/>
+    <hyperlink ref="E79" r:id="rId41" xr:uid="{F759F974-838A-4E1A-917E-08D1037A0184}"/>
+    <hyperlink ref="E81" r:id="rId42" xr:uid="{71819BD4-B8A8-4135-B406-028B5C0ED3A3}"/>
+    <hyperlink ref="E80" r:id="rId43" xr:uid="{B73CD2BF-08AD-40A2-8603-C3C2F998F651}"/>
+    <hyperlink ref="E83:E86" r:id="rId44" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{F6BB2430-21E1-4F46-A7E9-54DFBA5E4FE5}"/>
+    <hyperlink ref="E83" r:id="rId45" xr:uid="{8ED4D171-61D0-4D9A-ADBC-1B0E362B1B2D}"/>
+    <hyperlink ref="E84" r:id="rId46" xr:uid="{B2A78DA6-15BF-4353-B0F2-3F9DF2F6C9B9}"/>
+    <hyperlink ref="E85" r:id="rId47" xr:uid="{3FF72FB4-31F9-4E07-BCF1-7009F7654AC3}"/>
+    <hyperlink ref="E86" r:id="rId48" xr:uid="{741D8432-0B81-4972-A524-6C6310D1DE92}"/>
+    <hyperlink ref="E87:E88" r:id="rId49" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{80E8BE27-E4D4-4D56-93A3-73C3BB025A3B}"/>
+    <hyperlink ref="E87" r:id="rId50" xr:uid="{733D5649-BBCD-4E78-A9CB-5DF31BD0D295}"/>
+    <hyperlink ref="E88" r:id="rId51" xr:uid="{C405DCA3-8138-4626-BED7-4C73482DCED7}"/>
+    <hyperlink ref="E89" r:id="rId52" xr:uid="{4046F51E-ABF9-41CA-BCE2-081BF25814F5}"/>
+    <hyperlink ref="E90:E91" r:id="rId53" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{E8FD7A1C-2313-4CDA-81F2-64E351A1FB53}"/>
+    <hyperlink ref="E90" r:id="rId54" xr:uid="{6A4B9435-604D-4C1B-AB63-A806BD5C59CA}"/>
+    <hyperlink ref="E91" r:id="rId55" xr:uid="{B96FA244-A912-4CEC-BA07-81A837282133}"/>
+    <hyperlink ref="E92" r:id="rId56" xr:uid="{24D5F9F4-72D1-4C55-8A3F-E699159068A6}"/>
+    <hyperlink ref="E93" r:id="rId57" xr:uid="{7A64B6E9-5B6B-4FA2-A970-F37EB3239883}"/>
+    <hyperlink ref="E94" r:id="rId58" xr:uid="{411F9D04-543E-4BDE-8E5D-5DBBE4DC875E}"/>
+    <hyperlink ref="E96" r:id="rId59" xr:uid="{7938CC28-DAA7-43C7-9C82-EC16E18B243B}"/>
+    <hyperlink ref="E98" r:id="rId60" xr:uid="{409F41FA-08AA-4238-A51A-EC64E15C8D3B}"/>
+    <hyperlink ref="E100" r:id="rId61" xr:uid="{CC5C2FCD-FEEA-4187-AB56-9F338BA38FF6}"/>
+    <hyperlink ref="E95" r:id="rId62" xr:uid="{829B1F0F-8570-4BB9-945B-B082801556F2}"/>
+    <hyperlink ref="E97" r:id="rId63" xr:uid="{B5C91745-51DB-4CA6-8A88-8EEE2BDDD7B4}"/>
+    <hyperlink ref="E99" r:id="rId64" xr:uid="{EA50CB10-AE2B-4EEB-81F2-DD3EE2079D13}"/>
+    <hyperlink ref="E101" r:id="rId65" xr:uid="{E8A9E684-F85A-472C-92AB-AFA3970F3D79}"/>
+    <hyperlink ref="E102" r:id="rId66" xr:uid="{0994ED72-4ACA-4735-B1DD-25EF4860F289}"/>
+    <hyperlink ref="E103" r:id="rId67" xr:uid="{00B65A08-0F54-4671-ACD1-9BFC6D7E390C}"/>
+    <hyperlink ref="E104:E109" r:id="rId68" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p46重點1.png" xr:uid="{6318AA02-65E5-473F-A56E-E500D5DC6768}"/>
+    <hyperlink ref="E108" r:id="rId69" xr:uid="{D69DEB70-368C-4FE7-8510-A3DDE0C7D763}"/>
+    <hyperlink ref="E109" r:id="rId70" xr:uid="{CF098BAC-600F-40F3-8356-D985B9BBEEA9}"/>
+    <hyperlink ref="E110" r:id="rId71" xr:uid="{60F68F6E-8A2D-4F61-A45D-7DF0E9781481}"/>
+    <hyperlink ref="E111:E112" r:id="rId72" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p48自我評量1.png" xr:uid="{641AAF4E-855C-4513-9014-8B1837FFE741}"/>
+    <hyperlink ref="E113" r:id="rId73" xr:uid="{0D9E6F85-F34F-49B6-9055-9B5E6552A210}"/>
+    <hyperlink ref="E112" r:id="rId74" xr:uid="{73DC6E12-9708-47EB-A9C2-64A2BA536BDA}"/>
+    <hyperlink ref="E70" r:id="rId75" xr:uid="{9EBF35AA-EF9D-4A4E-B8B7-417E1EA60C37}"/>
+    <hyperlink ref="E114" r:id="rId76" xr:uid="{386E46CF-F362-49BC-82EF-DF26F3CD28BF}"/>
+    <hyperlink ref="E115" r:id="rId77" xr:uid="{14488313-01B6-46A0-A61B-4A86BFAA5FC9}"/>
+    <hyperlink ref="E116" r:id="rId78" xr:uid="{67CAE917-BF0D-4D29-9FC3-415970EB81AF}"/>
+    <hyperlink ref="E117" r:id="rId79" xr:uid="{3063C1E8-A365-4B1F-BFCD-707A5CD759AA}"/>
+    <hyperlink ref="E118" r:id="rId80" xr:uid="{69739254-390A-47D3-B5D0-D5944E887393}"/>
+    <hyperlink ref="E2" r:id="rId81" xr:uid="{DBB1BFDE-139F-4C94-9438-37E2272B281C}"/>
+    <hyperlink ref="E4" r:id="rId82" xr:uid="{5B145B3E-4930-4192-B230-0F7725E85C3E}"/>
+    <hyperlink ref="E6" r:id="rId83" xr:uid="{DA630380-1D5E-4FB0-90E2-B438ABA57DBB}"/>
+    <hyperlink ref="E8" r:id="rId84" xr:uid="{F5FE5235-8B90-4E68-9C2B-BF277273AFFC}"/>
+    <hyperlink ref="E10" r:id="rId85" xr:uid="{A6BA6C8E-1DA7-4BE1-ABC4-55AE627E048D}"/>
+    <hyperlink ref="E11" r:id="rId86" xr:uid="{3A15301E-D7DF-4914-997E-2D1B5B29BA5C}"/>
+    <hyperlink ref="E12" r:id="rId87" xr:uid="{10EA1FC3-5879-4084-8B79-7596CB4DE3E0}"/>
+    <hyperlink ref="E14" r:id="rId88" xr:uid="{94C8E539-F252-4D0F-A51E-783637A22268}"/>
+    <hyperlink ref="E16" r:id="rId89" xr:uid="{4D066FA2-3217-4346-A73C-B62071585918}"/>
+    <hyperlink ref="E18" r:id="rId90" xr:uid="{851B7892-8C74-4729-AA27-1893AF66592B}"/>
+    <hyperlink ref="E22" r:id="rId91" xr:uid="{1326EE2C-84A9-4DBD-95E6-69EC7E4CF665}"/>
+    <hyperlink ref="E20" r:id="rId92" xr:uid="{242C66EC-93CB-4704-A3C7-E5F52A62A2C2}"/>
+    <hyperlink ref="E21" r:id="rId93" xr:uid="{2CB42F31-F756-4661-A727-69B2AF01E560}"/>
+    <hyperlink ref="E24" r:id="rId94" xr:uid="{1E2F087E-0A2B-4CE5-BE9D-852710A1DE5C}"/>
+    <hyperlink ref="E26" r:id="rId95" xr:uid="{E9E70D19-22E7-42F5-A1EE-4D011158CA7E}"/>
+    <hyperlink ref="E28" r:id="rId96" xr:uid="{0BCEFD85-E1A3-4036-AC53-3568DB4D1369}"/>
+    <hyperlink ref="E29" r:id="rId97" xr:uid="{15E6317A-4389-41A3-9EC4-5687851C8247}"/>
+    <hyperlink ref="E30" r:id="rId98" xr:uid="{72CCB03C-AEF8-48FC-AB8A-8BFEC065735D}"/>
+    <hyperlink ref="E32" r:id="rId99" xr:uid="{3B2D22EC-2846-4137-B7ED-FB4158659405}"/>
+    <hyperlink ref="E35" r:id="rId100" xr:uid="{3207C799-1CF5-4E2D-B796-360DAFACE1F9}"/>
+    <hyperlink ref="E36" r:id="rId101" xr:uid="{BEA7FA42-89E9-4019-BF5C-50400806E16A}"/>
+    <hyperlink ref="E120" r:id="rId102" xr:uid="{C8E2BFDD-C2A3-4061-B59E-73DE313E9A62}"/>
+    <hyperlink ref="E122" r:id="rId103" xr:uid="{541C7A59-5466-45D6-BBC9-8CF4F77AF937}"/>
+    <hyperlink ref="E124" r:id="rId104" xr:uid="{181BFE64-8390-4397-A37A-06A3818938AE}"/>
+    <hyperlink ref="E125" r:id="rId105" xr:uid="{DCE3315E-7734-49E5-A6CC-1E9E1E356B22}"/>
+    <hyperlink ref="E126" r:id="rId106" xr:uid="{4D9068C8-BF06-4A7F-A930-07DB6296101A}"/>
+    <hyperlink ref="E128" r:id="rId107" xr:uid="{2CAF93AE-9D0B-41B4-B842-A3984AFEE00D}"/>
+    <hyperlink ref="E130" r:id="rId108" xr:uid="{22245AE2-5105-4B93-805A-26AEF1C7F4F0}"/>
+    <hyperlink ref="E131" r:id="rId109" xr:uid="{EE66B3EB-FDBB-4E68-BF60-CBF32AF7005B}"/>
+    <hyperlink ref="E132" r:id="rId110" xr:uid="{547DFF52-657F-4F7E-BCC5-7290F3A40128}"/>
+    <hyperlink ref="E134" r:id="rId111" xr:uid="{28BA62A5-9ED5-4417-8A46-7D642FB27F37}"/>
+    <hyperlink ref="E136" r:id="rId112" xr:uid="{40A43ED4-7F27-43DD-9972-C327ED9D217D}"/>
+    <hyperlink ref="E138" r:id="rId113" xr:uid="{1B549417-65FA-4BD0-A1D3-F6BF6AEA149A}"/>
+    <hyperlink ref="E139" r:id="rId114" xr:uid="{FD551BAB-4D6B-4A41-813C-16FC11C73455}"/>
+    <hyperlink ref="E140" r:id="rId115" xr:uid="{30138E3D-D3EC-42BD-BF88-6D4C928C65C7}"/>
+    <hyperlink ref="E37" r:id="rId116" xr:uid="{A5CDB2B5-5AED-4A5D-AF71-07935705FBA7}"/>
+    <hyperlink ref="E141" r:id="rId117" xr:uid="{17FE1708-570D-4066-BC87-91FAF27DF35F}"/>
+    <hyperlink ref="E143" r:id="rId118" xr:uid="{5A823F4B-5956-48DD-B21C-627B577A525E}"/>
+    <hyperlink ref="E145" r:id="rId119" xr:uid="{F0175EE8-C275-45F5-AD39-C32442D88DF8}"/>
+    <hyperlink ref="E147" r:id="rId120" xr:uid="{A80F23B3-BE81-454F-B96E-DA3C826D4A23}"/>
+    <hyperlink ref="E148" r:id="rId121" xr:uid="{60641F0B-9F7B-426D-9477-5B4E5C347306}"/>
+    <hyperlink ref="E121" r:id="rId122" xr:uid="{FCE2DB61-0F23-4672-8FEF-BAB7B2C693B9}"/>
+    <hyperlink ref="E123" r:id="rId123" xr:uid="{BE4900E5-57F5-49FA-8EFB-932CA4F14A72}"/>
+    <hyperlink ref="E127" r:id="rId124" xr:uid="{FF2CD268-C97C-4165-BF3D-921FDD2E5236}"/>
+    <hyperlink ref="E129" r:id="rId125" xr:uid="{BEC730D9-C2AA-4732-8316-4261F6FEAF7F}"/>
+    <hyperlink ref="E133" r:id="rId126" xr:uid="{45170047-FC17-4B17-9FF3-D2BCA6B0D3AC}"/>
+    <hyperlink ref="E135" r:id="rId127" xr:uid="{4B0E2471-8C14-45CC-8D8A-E676AD9C3C76}"/>
+    <hyperlink ref="E137" r:id="rId128" xr:uid="{1DB169EA-29D8-4F4B-97F3-4EA42A75CB71}"/>
+    <hyperlink ref="E142" r:id="rId129" xr:uid="{158ECEB8-C2A4-4788-8572-BB482DF12A22}"/>
+    <hyperlink ref="E144" r:id="rId130" xr:uid="{03ACB313-DAAA-4BDF-BD57-0F739B0C770A}"/>
+    <hyperlink ref="E146" r:id="rId131" xr:uid="{2AE24B5D-7D36-49D2-A8E3-F5CE6994C014}"/>
+    <hyperlink ref="E3" r:id="rId132" xr:uid="{06F94887-83B7-4C36-A100-681A0CDA1E27}"/>
+    <hyperlink ref="E5" r:id="rId133" xr:uid="{50364981-DF96-45B4-80F0-9D36D7BAD7F7}"/>
+    <hyperlink ref="E7" r:id="rId134" xr:uid="{70EE6378-A898-4A41-86F7-70302DF4DF69}"/>
+    <hyperlink ref="E9" r:id="rId135" xr:uid="{A7E06F3D-4625-49CD-ABB4-6E3E1856E0E3}"/>
+    <hyperlink ref="E13" r:id="rId136" xr:uid="{96C9F07A-DBB5-4E85-A5B0-92F2A69ECD83}"/>
+    <hyperlink ref="E15" r:id="rId137" xr:uid="{99001492-BD89-42BB-B2C8-3FFEF107D357}"/>
+    <hyperlink ref="E17" r:id="rId138" xr:uid="{343B4F0E-4493-4878-9746-7D2DEAC0A0B8}"/>
+    <hyperlink ref="E19" r:id="rId139" xr:uid="{1C894637-B53F-47BB-940D-9931E2225468}"/>
+    <hyperlink ref="E23" r:id="rId140" xr:uid="{49FF455A-D50D-42A2-8839-C15441098878}"/>
+    <hyperlink ref="E25" r:id="rId141" xr:uid="{11ACA4FF-5C3A-48D6-A0D2-183947B74EC1}"/>
+    <hyperlink ref="E33" r:id="rId142" xr:uid="{D346F257-10EE-473B-99BB-32D7B8BB1A56}"/>
+    <hyperlink ref="E31" r:id="rId143" xr:uid="{9ED7CCD3-EF40-4CD7-AA2A-34B704DA9ECD}"/>
+    <hyperlink ref="E27" r:id="rId144" xr:uid="{F5A69F80-6AB3-4E8B-A3C0-AD361E812132}"/>
+    <hyperlink ref="E34" r:id="rId145" xr:uid="{24D8438C-FE4F-4637-92AE-237A46C131E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId146"/>
 </worksheet>
 </file>
--- a/tree/tree.xlsx
+++ b/tree/tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuke\Desktop\guest\1130826\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A8BBFD-12AC-46AF-BBA7-09FF30ECC274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CBFDA5-F47C-450C-82F1-F5C1B620B467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA16FEF3-4787-468B-94EE-76BE82BCE9D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="166">
   <si>
     <t>第一冊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -627,6 +627,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>12-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1 足球高手--康軒有GO補</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://wordwall.net/play/77104/831/669</t>
   </si>
   <si>
@@ -663,6 +671,14 @@
   </si>
   <si>
     <t>https://wordwall.net/play/77090/956/148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xtjh-yucc.github.io/math/081math/2-1/html5_football.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xtjh-yucc.github.io/math/071math/1-2/html5_football.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1052,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B8439-9079-4DF4-BB05-62730084EFF9}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1280,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1467,10 +1483,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>159</v>
+        <v>148</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1481,13 +1497,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>36</v>
+        <v>160</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1501,10 +1517,10 @@
         <v>43</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1518,10 +1534,10 @@
         <v>43</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1535,10 +1551,10 @@
         <v>43</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1552,10 +1568,10 @@
         <v>43</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1569,10 +1585,10 @@
         <v>43</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1586,10 +1602,10 @@
         <v>43</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1603,10 +1619,10 @@
         <v>43</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1617,13 +1633,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1634,13 +1650,13 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1654,10 +1670,10 @@
         <v>54</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1671,10 +1687,10 @@
         <v>54</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1688,10 +1704,10 @@
         <v>54</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1705,10 +1721,10 @@
         <v>54</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1722,10 +1738,10 @@
         <v>54</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1739,10 +1755,10 @@
         <v>54</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1756,32 +1772,32 @@
         <v>54</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1795,10 +1811,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1812,10 +1828,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1829,10 +1845,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1846,10 +1862,10 @@
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1863,13 +1879,13 @@
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1880,10 +1896,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>147</v>
+        <v>26</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1897,13 +1913,13 @@
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1911,13 +1927,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>156</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1928,13 +1944,13 @@
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1948,10 +1964,10 @@
         <v>3</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1965,10 +1981,10 @@
         <v>3</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1982,10 +1998,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1999,13 +2015,13 @@
         <v>3</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2016,27 +2032,27 @@
         <v>3</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2047,13 +2063,13 @@
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2067,10 +2083,10 @@
         <v>43</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2084,10 +2100,10 @@
         <v>43</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2101,10 +2117,10 @@
         <v>43</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2118,10 +2134,10 @@
         <v>43</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2135,10 +2151,10 @@
         <v>43</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2152,13 +2168,13 @@
         <v>43</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2169,13 +2185,13 @@
         <v>43</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2186,10 +2202,10 @@
         <v>43</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2197,16 +2213,16 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2214,16 +2230,16 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2237,10 +2253,10 @@
         <v>86</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2254,10 +2270,10 @@
         <v>86</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2271,10 +2287,10 @@
         <v>86</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2288,10 +2304,10 @@
         <v>86</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2305,10 +2321,10 @@
         <v>86</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2322,13 +2338,13 @@
         <v>86</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2339,24 +2355,58 @@
         <v>86</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>152</v>
+        <v>95</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2373,47 +2423,47 @@
     <hyperlink ref="E16" r:id="rId8" xr:uid="{94C8E539-F252-4D0F-A51E-783637A22268}"/>
     <hyperlink ref="E18" r:id="rId9" xr:uid="{4D066FA2-3217-4346-A73C-B62071585918}"/>
     <hyperlink ref="E20" r:id="rId10" xr:uid="{851B7892-8C74-4729-AA27-1893AF66592B}"/>
-    <hyperlink ref="E25" r:id="rId11" xr:uid="{1326EE2C-84A9-4DBD-95E6-69EC7E4CF665}"/>
+    <hyperlink ref="E26" r:id="rId11" xr:uid="{1326EE2C-84A9-4DBD-95E6-69EC7E4CF665}"/>
     <hyperlink ref="E22" r:id="rId12" xr:uid="{242C66EC-93CB-4704-A3C7-E5F52A62A2C2}"/>
     <hyperlink ref="E23" r:id="rId13" xr:uid="{2CB42F31-F756-4661-A727-69B2AF01E560}"/>
-    <hyperlink ref="E27" r:id="rId14" xr:uid="{1E2F087E-0A2B-4CE5-BE9D-852710A1DE5C}"/>
-    <hyperlink ref="E29" r:id="rId15" xr:uid="{E9E70D19-22E7-42F5-A1EE-4D011158CA7E}"/>
-    <hyperlink ref="E31" r:id="rId16" xr:uid="{0BCEFD85-E1A3-4036-AC53-3568DB4D1369}"/>
-    <hyperlink ref="E32" r:id="rId17" xr:uid="{15E6317A-4389-41A3-9EC4-5687851C8247}"/>
-    <hyperlink ref="E33" r:id="rId18" xr:uid="{72CCB03C-AEF8-48FC-AB8A-8BFEC065735D}"/>
-    <hyperlink ref="E35" r:id="rId19" xr:uid="{3B2D22EC-2846-4137-B7ED-FB4158659405}"/>
-    <hyperlink ref="E38" r:id="rId20" xr:uid="{3207C799-1CF5-4E2D-B796-360DAFACE1F9}"/>
-    <hyperlink ref="E39" r:id="rId21" xr:uid="{BEA7FA42-89E9-4019-BF5C-50400806E16A}"/>
-    <hyperlink ref="E43" r:id="rId22" xr:uid="{C8E2BFDD-C2A3-4061-B59E-73DE313E9A62}"/>
-    <hyperlink ref="E45" r:id="rId23" xr:uid="{541C7A59-5466-45D6-BBC9-8CF4F77AF937}"/>
-    <hyperlink ref="E47" r:id="rId24" xr:uid="{181BFE64-8390-4397-A37A-06A3818938AE}"/>
-    <hyperlink ref="E48" r:id="rId25" xr:uid="{DCE3315E-7734-49E5-A6CC-1E9E1E356B22}"/>
-    <hyperlink ref="E51" r:id="rId26" xr:uid="{4D9068C8-BF06-4A7F-A930-07DB6296101A}"/>
-    <hyperlink ref="E53" r:id="rId27" xr:uid="{2CAF93AE-9D0B-41B4-B842-A3984AFEE00D}"/>
-    <hyperlink ref="E55" r:id="rId28" xr:uid="{22245AE2-5105-4B93-805A-26AEF1C7F4F0}"/>
-    <hyperlink ref="E56" r:id="rId29" xr:uid="{EE66B3EB-FDBB-4E68-BF60-CBF32AF7005B}"/>
-    <hyperlink ref="E58" r:id="rId30" xr:uid="{547DFF52-657F-4F7E-BCC5-7290F3A40128}"/>
-    <hyperlink ref="E60" r:id="rId31" xr:uid="{28BA62A5-9ED5-4417-8A46-7D642FB27F37}"/>
-    <hyperlink ref="E62" r:id="rId32" xr:uid="{40A43ED4-7F27-43DD-9972-C327ED9D217D}"/>
-    <hyperlink ref="E64" r:id="rId33" xr:uid="{1B549417-65FA-4BD0-A1D3-F6BF6AEA149A}"/>
-    <hyperlink ref="E65" r:id="rId34" xr:uid="{FD551BAB-4D6B-4A41-813C-16FC11C73455}"/>
-    <hyperlink ref="E67" r:id="rId35" xr:uid="{30138E3D-D3EC-42BD-BF88-6D4C928C65C7}"/>
-    <hyperlink ref="E40" r:id="rId36" xr:uid="{A5CDB2B5-5AED-4A5D-AF71-07935705FBA7}"/>
-    <hyperlink ref="E68" r:id="rId37" xr:uid="{17FE1708-570D-4066-BC87-91FAF27DF35F}"/>
-    <hyperlink ref="E70" r:id="rId38" xr:uid="{5A823F4B-5956-48DD-B21C-627B577A525E}"/>
-    <hyperlink ref="E72" r:id="rId39" xr:uid="{F0175EE8-C275-45F5-AD39-C32442D88DF8}"/>
-    <hyperlink ref="E74" r:id="rId40" xr:uid="{A80F23B3-BE81-454F-B96E-DA3C826D4A23}"/>
-    <hyperlink ref="E75" r:id="rId41" xr:uid="{60641F0B-9F7B-426D-9477-5B4E5C347306}"/>
-    <hyperlink ref="E44" r:id="rId42" xr:uid="{FCE2DB61-0F23-4672-8FEF-BAB7B2C693B9}"/>
-    <hyperlink ref="E46" r:id="rId43" xr:uid="{BE4900E5-57F5-49FA-8EFB-932CA4F14A72}"/>
-    <hyperlink ref="E52" r:id="rId44" xr:uid="{FF2CD268-C97C-4165-BF3D-921FDD2E5236}"/>
-    <hyperlink ref="E54" r:id="rId45" xr:uid="{BEC730D9-C2AA-4732-8316-4261F6FEAF7F}"/>
-    <hyperlink ref="E59" r:id="rId46" xr:uid="{45170047-FC17-4B17-9FF3-D2BCA6B0D3AC}"/>
-    <hyperlink ref="E61" r:id="rId47" xr:uid="{4B0E2471-8C14-45CC-8D8A-E676AD9C3C76}"/>
-    <hyperlink ref="E63" r:id="rId48" xr:uid="{1DB169EA-29D8-4F4B-97F3-4EA42A75CB71}"/>
-    <hyperlink ref="E69" r:id="rId49" xr:uid="{158ECEB8-C2A4-4788-8572-BB482DF12A22}"/>
-    <hyperlink ref="E71" r:id="rId50" xr:uid="{03ACB313-DAAA-4BDF-BD57-0F739B0C770A}"/>
-    <hyperlink ref="E73" r:id="rId51" xr:uid="{2AE24B5D-7D36-49D2-A8E3-F5CE6994C014}"/>
+    <hyperlink ref="E28" r:id="rId14" xr:uid="{1E2F087E-0A2B-4CE5-BE9D-852710A1DE5C}"/>
+    <hyperlink ref="E30" r:id="rId15" xr:uid="{E9E70D19-22E7-42F5-A1EE-4D011158CA7E}"/>
+    <hyperlink ref="E32" r:id="rId16" xr:uid="{0BCEFD85-E1A3-4036-AC53-3568DB4D1369}"/>
+    <hyperlink ref="E33" r:id="rId17" xr:uid="{15E6317A-4389-41A3-9EC4-5687851C8247}"/>
+    <hyperlink ref="E34" r:id="rId18" xr:uid="{72CCB03C-AEF8-48FC-AB8A-8BFEC065735D}"/>
+    <hyperlink ref="E36" r:id="rId19" xr:uid="{3B2D22EC-2846-4137-B7ED-FB4158659405}"/>
+    <hyperlink ref="E39" r:id="rId20" xr:uid="{3207C799-1CF5-4E2D-B796-360DAFACE1F9}"/>
+    <hyperlink ref="E40" r:id="rId21" xr:uid="{BEA7FA42-89E9-4019-BF5C-50400806E16A}"/>
+    <hyperlink ref="E44" r:id="rId22" xr:uid="{C8E2BFDD-C2A3-4061-B59E-73DE313E9A62}"/>
+    <hyperlink ref="E46" r:id="rId23" xr:uid="{541C7A59-5466-45D6-BBC9-8CF4F77AF937}"/>
+    <hyperlink ref="E48" r:id="rId24" xr:uid="{181BFE64-8390-4397-A37A-06A3818938AE}"/>
+    <hyperlink ref="E49" r:id="rId25" xr:uid="{DCE3315E-7734-49E5-A6CC-1E9E1E356B22}"/>
+    <hyperlink ref="E52" r:id="rId26" xr:uid="{4D9068C8-BF06-4A7F-A930-07DB6296101A}"/>
+    <hyperlink ref="E54" r:id="rId27" xr:uid="{2CAF93AE-9D0B-41B4-B842-A3984AFEE00D}"/>
+    <hyperlink ref="E56" r:id="rId28" xr:uid="{22245AE2-5105-4B93-805A-26AEF1C7F4F0}"/>
+    <hyperlink ref="E57" r:id="rId29" xr:uid="{EE66B3EB-FDBB-4E68-BF60-CBF32AF7005B}"/>
+    <hyperlink ref="E59" r:id="rId30" xr:uid="{547DFF52-657F-4F7E-BCC5-7290F3A40128}"/>
+    <hyperlink ref="E61" r:id="rId31" xr:uid="{28BA62A5-9ED5-4417-8A46-7D642FB27F37}"/>
+    <hyperlink ref="E63" r:id="rId32" xr:uid="{40A43ED4-7F27-43DD-9972-C327ED9D217D}"/>
+    <hyperlink ref="E65" r:id="rId33" xr:uid="{1B549417-65FA-4BD0-A1D3-F6BF6AEA149A}"/>
+    <hyperlink ref="E66" r:id="rId34" xr:uid="{FD551BAB-4D6B-4A41-813C-16FC11C73455}"/>
+    <hyperlink ref="E68" r:id="rId35" xr:uid="{30138E3D-D3EC-42BD-BF88-6D4C928C65C7}"/>
+    <hyperlink ref="E41" r:id="rId36" xr:uid="{A5CDB2B5-5AED-4A5D-AF71-07935705FBA7}"/>
+    <hyperlink ref="E69" r:id="rId37" xr:uid="{17FE1708-570D-4066-BC87-91FAF27DF35F}"/>
+    <hyperlink ref="E71" r:id="rId38" xr:uid="{5A823F4B-5956-48DD-B21C-627B577A525E}"/>
+    <hyperlink ref="E73" r:id="rId39" xr:uid="{F0175EE8-C275-45F5-AD39-C32442D88DF8}"/>
+    <hyperlink ref="E75" r:id="rId40" xr:uid="{A80F23B3-BE81-454F-B96E-DA3C826D4A23}"/>
+    <hyperlink ref="E76" r:id="rId41" xr:uid="{60641F0B-9F7B-426D-9477-5B4E5C347306}"/>
+    <hyperlink ref="E45" r:id="rId42" xr:uid="{FCE2DB61-0F23-4672-8FEF-BAB7B2C693B9}"/>
+    <hyperlink ref="E47" r:id="rId43" xr:uid="{BE4900E5-57F5-49FA-8EFB-932CA4F14A72}"/>
+    <hyperlink ref="E53" r:id="rId44" xr:uid="{FF2CD268-C97C-4165-BF3D-921FDD2E5236}"/>
+    <hyperlink ref="E55" r:id="rId45" xr:uid="{BEC730D9-C2AA-4732-8316-4261F6FEAF7F}"/>
+    <hyperlink ref="E60" r:id="rId46" xr:uid="{45170047-FC17-4B17-9FF3-D2BCA6B0D3AC}"/>
+    <hyperlink ref="E62" r:id="rId47" xr:uid="{4B0E2471-8C14-45CC-8D8A-E676AD9C3C76}"/>
+    <hyperlink ref="E64" r:id="rId48" xr:uid="{1DB169EA-29D8-4F4B-97F3-4EA42A75CB71}"/>
+    <hyperlink ref="E70" r:id="rId49" xr:uid="{158ECEB8-C2A4-4788-8572-BB482DF12A22}"/>
+    <hyperlink ref="E72" r:id="rId50" xr:uid="{03ACB313-DAAA-4BDF-BD57-0F739B0C770A}"/>
+    <hyperlink ref="E74" r:id="rId51" xr:uid="{2AE24B5D-7D36-49D2-A8E3-F5CE6994C014}"/>
     <hyperlink ref="E3" r:id="rId52" xr:uid="{06F94887-83B7-4C36-A100-681A0CDA1E27}"/>
     <hyperlink ref="E5" r:id="rId53" xr:uid="{50364981-DF96-45B4-80F0-9D36D7BAD7F7}"/>
     <hyperlink ref="E7" r:id="rId54" xr:uid="{70EE6378-A898-4A41-86F7-70302DF4DF69}"/>
@@ -2422,22 +2472,24 @@
     <hyperlink ref="E17" r:id="rId57" xr:uid="{99001492-BD89-42BB-B2C8-3FFEF107D357}"/>
     <hyperlink ref="E19" r:id="rId58" xr:uid="{343B4F0E-4493-4878-9746-7D2DEAC0A0B8}"/>
     <hyperlink ref="E21" r:id="rId59" xr:uid="{1C894637-B53F-47BB-940D-9931E2225468}"/>
-    <hyperlink ref="E26" r:id="rId60" xr:uid="{49FF455A-D50D-42A2-8839-C15441098878}"/>
-    <hyperlink ref="E28" r:id="rId61" xr:uid="{11ACA4FF-5C3A-48D6-A0D2-183947B74EC1}"/>
-    <hyperlink ref="E36" r:id="rId62" xr:uid="{D346F257-10EE-473B-99BB-32D7B8BB1A56}"/>
-    <hyperlink ref="E34" r:id="rId63" xr:uid="{9ED7CCD3-EF40-4CD7-AA2A-34B704DA9ECD}"/>
-    <hyperlink ref="E30" r:id="rId64" xr:uid="{F5A69F80-6AB3-4E8B-A3C0-AD361E812132}"/>
-    <hyperlink ref="E37" r:id="rId65" xr:uid="{24D8438C-FE4F-4637-92AE-237A46C131E7}"/>
+    <hyperlink ref="E27" r:id="rId60" xr:uid="{49FF455A-D50D-42A2-8839-C15441098878}"/>
+    <hyperlink ref="E29" r:id="rId61" xr:uid="{11ACA4FF-5C3A-48D6-A0D2-183947B74EC1}"/>
+    <hyperlink ref="E37" r:id="rId62" xr:uid="{D346F257-10EE-473B-99BB-32D7B8BB1A56}"/>
+    <hyperlink ref="E35" r:id="rId63" xr:uid="{9ED7CCD3-EF40-4CD7-AA2A-34B704DA9ECD}"/>
+    <hyperlink ref="E31" r:id="rId64" xr:uid="{F5A69F80-6AB3-4E8B-A3C0-AD361E812132}"/>
+    <hyperlink ref="E38" r:id="rId65" xr:uid="{24D8438C-FE4F-4637-92AE-237A46C131E7}"/>
     <hyperlink ref="E12" r:id="rId66" xr:uid="{0468683F-9003-40CE-94CB-C2AD7B010AE2}"/>
-    <hyperlink ref="E49" r:id="rId67" xr:uid="{68C2DD1D-CB0E-4542-8305-005A5E334982}"/>
-    <hyperlink ref="E57" r:id="rId68" xr:uid="{654D70BC-BCAE-49DB-85B1-69F10FDD494D}"/>
-    <hyperlink ref="E66" r:id="rId69" xr:uid="{99A79E60-5CAD-467F-AFF9-C914C7608470}"/>
-    <hyperlink ref="E50" r:id="rId70" xr:uid="{F755055B-DFBF-4EE9-8495-5D1D9BFB7CCD}"/>
+    <hyperlink ref="E50" r:id="rId67" xr:uid="{68C2DD1D-CB0E-4542-8305-005A5E334982}"/>
+    <hyperlink ref="E58" r:id="rId68" xr:uid="{654D70BC-BCAE-49DB-85B1-69F10FDD494D}"/>
+    <hyperlink ref="E67" r:id="rId69" xr:uid="{99A79E60-5CAD-467F-AFF9-C914C7608470}"/>
+    <hyperlink ref="E51" r:id="rId70" xr:uid="{F755055B-DFBF-4EE9-8495-5D1D9BFB7CCD}"/>
     <hyperlink ref="E13" r:id="rId71" xr:uid="{DD3CD9F1-825B-45CD-866E-E0A649DC2D28}"/>
-    <hyperlink ref="E24" r:id="rId72" xr:uid="{725BDE53-9D92-4625-82B8-9FAA1C126AF0}"/>
-    <hyperlink ref="E41" r:id="rId73" xr:uid="{7AEF9F87-595A-4D01-A87D-91D7CBC21DF9}"/>
+    <hyperlink ref="E25" r:id="rId72" xr:uid="{725BDE53-9D92-4625-82B8-9FAA1C126AF0}"/>
+    <hyperlink ref="E42" r:id="rId73" xr:uid="{7AEF9F87-595A-4D01-A87D-91D7CBC21DF9}"/>
+    <hyperlink ref="E77" r:id="rId74" xr:uid="{0C5E67D9-DB6E-4135-A109-C60661FA67A5}"/>
+    <hyperlink ref="E24" r:id="rId75" xr:uid="{439E8935-A01A-45D7-9EA2-5CA36F399253}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId74"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId76"/>
 </worksheet>
 </file>
--- a/tree/tree.xlsx
+++ b/tree/tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuke\Desktop\guest\1130826\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CBFDA5-F47C-450C-82F1-F5C1B620B467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6D18E3-136C-450C-B1BB-E967A3DCC412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA16FEF3-4787-468B-94EE-76BE82BCE9D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="167">
   <si>
     <t>第一冊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -679,6 +679,10 @@
   </si>
   <si>
     <t>https://xtjh-yucc.github.io/math/071math/1-2/html5_football.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xtjh-yucc.github.io/math/071math/1-3/html5_football.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B8439-9079-4DF4-BB05-62730084EFF9}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1650,13 +1654,13 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1667,13 +1671,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1687,10 +1691,10 @@
         <v>54</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1704,10 +1708,10 @@
         <v>54</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1721,10 +1725,10 @@
         <v>54</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1738,10 +1742,10 @@
         <v>54</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1755,10 +1759,10 @@
         <v>54</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1772,10 +1776,10 @@
         <v>54</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1789,32 +1793,32 @@
         <v>54</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1828,10 +1832,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1845,10 +1849,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1862,10 +1866,10 @@
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1879,10 +1883,10 @@
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1896,13 +1900,13 @@
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1913,10 +1917,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>147</v>
+        <v>26</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1930,27 +1934,27 @@
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1961,13 +1965,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1981,10 +1985,10 @@
         <v>3</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1998,10 +2002,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2015,10 +2019,10 @@
         <v>3</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2032,13 +2036,13 @@
         <v>3</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2049,27 +2053,27 @@
         <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2080,13 +2084,13 @@
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2100,10 +2104,10 @@
         <v>43</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2117,10 +2121,10 @@
         <v>43</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2134,10 +2138,10 @@
         <v>43</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2151,10 +2155,10 @@
         <v>43</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2168,10 +2172,10 @@
         <v>43</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2185,13 +2189,13 @@
         <v>43</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2202,13 +2206,13 @@
         <v>43</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2219,10 +2223,10 @@
         <v>43</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2230,16 +2234,16 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2247,16 +2251,16 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2270,10 +2274,10 @@
         <v>86</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2287,10 +2291,10 @@
         <v>86</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2304,10 +2308,10 @@
         <v>86</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2321,10 +2325,10 @@
         <v>86</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2338,10 +2342,10 @@
         <v>86</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2355,10 +2359,10 @@
         <v>86</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2369,16 +2373,16 @@
         <v>88</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2386,27 +2390,44 @@
         <v>88</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2430,40 +2451,40 @@
     <hyperlink ref="E30" r:id="rId15" xr:uid="{E9E70D19-22E7-42F5-A1EE-4D011158CA7E}"/>
     <hyperlink ref="E32" r:id="rId16" xr:uid="{0BCEFD85-E1A3-4036-AC53-3568DB4D1369}"/>
     <hyperlink ref="E33" r:id="rId17" xr:uid="{15E6317A-4389-41A3-9EC4-5687851C8247}"/>
-    <hyperlink ref="E34" r:id="rId18" xr:uid="{72CCB03C-AEF8-48FC-AB8A-8BFEC065735D}"/>
-    <hyperlink ref="E36" r:id="rId19" xr:uid="{3B2D22EC-2846-4137-B7ED-FB4158659405}"/>
-    <hyperlink ref="E39" r:id="rId20" xr:uid="{3207C799-1CF5-4E2D-B796-360DAFACE1F9}"/>
-    <hyperlink ref="E40" r:id="rId21" xr:uid="{BEA7FA42-89E9-4019-BF5C-50400806E16A}"/>
-    <hyperlink ref="E44" r:id="rId22" xr:uid="{C8E2BFDD-C2A3-4061-B59E-73DE313E9A62}"/>
-    <hyperlink ref="E46" r:id="rId23" xr:uid="{541C7A59-5466-45D6-BBC9-8CF4F77AF937}"/>
-    <hyperlink ref="E48" r:id="rId24" xr:uid="{181BFE64-8390-4397-A37A-06A3818938AE}"/>
-    <hyperlink ref="E49" r:id="rId25" xr:uid="{DCE3315E-7734-49E5-A6CC-1E9E1E356B22}"/>
-    <hyperlink ref="E52" r:id="rId26" xr:uid="{4D9068C8-BF06-4A7F-A930-07DB6296101A}"/>
-    <hyperlink ref="E54" r:id="rId27" xr:uid="{2CAF93AE-9D0B-41B4-B842-A3984AFEE00D}"/>
-    <hyperlink ref="E56" r:id="rId28" xr:uid="{22245AE2-5105-4B93-805A-26AEF1C7F4F0}"/>
-    <hyperlink ref="E57" r:id="rId29" xr:uid="{EE66B3EB-FDBB-4E68-BF60-CBF32AF7005B}"/>
-    <hyperlink ref="E59" r:id="rId30" xr:uid="{547DFF52-657F-4F7E-BCC5-7290F3A40128}"/>
-    <hyperlink ref="E61" r:id="rId31" xr:uid="{28BA62A5-9ED5-4417-8A46-7D642FB27F37}"/>
-    <hyperlink ref="E63" r:id="rId32" xr:uid="{40A43ED4-7F27-43DD-9972-C327ED9D217D}"/>
-    <hyperlink ref="E65" r:id="rId33" xr:uid="{1B549417-65FA-4BD0-A1D3-F6BF6AEA149A}"/>
-    <hyperlink ref="E66" r:id="rId34" xr:uid="{FD551BAB-4D6B-4A41-813C-16FC11C73455}"/>
-    <hyperlink ref="E68" r:id="rId35" xr:uid="{30138E3D-D3EC-42BD-BF88-6D4C928C65C7}"/>
-    <hyperlink ref="E41" r:id="rId36" xr:uid="{A5CDB2B5-5AED-4A5D-AF71-07935705FBA7}"/>
-    <hyperlink ref="E69" r:id="rId37" xr:uid="{17FE1708-570D-4066-BC87-91FAF27DF35F}"/>
-    <hyperlink ref="E71" r:id="rId38" xr:uid="{5A823F4B-5956-48DD-B21C-627B577A525E}"/>
-    <hyperlink ref="E73" r:id="rId39" xr:uid="{F0175EE8-C275-45F5-AD39-C32442D88DF8}"/>
-    <hyperlink ref="E75" r:id="rId40" xr:uid="{A80F23B3-BE81-454F-B96E-DA3C826D4A23}"/>
-    <hyperlink ref="E76" r:id="rId41" xr:uid="{60641F0B-9F7B-426D-9477-5B4E5C347306}"/>
-    <hyperlink ref="E45" r:id="rId42" xr:uid="{FCE2DB61-0F23-4672-8FEF-BAB7B2C693B9}"/>
-    <hyperlink ref="E47" r:id="rId43" xr:uid="{BE4900E5-57F5-49FA-8EFB-932CA4F14A72}"/>
-    <hyperlink ref="E53" r:id="rId44" xr:uid="{FF2CD268-C97C-4165-BF3D-921FDD2E5236}"/>
-    <hyperlink ref="E55" r:id="rId45" xr:uid="{BEC730D9-C2AA-4732-8316-4261F6FEAF7F}"/>
-    <hyperlink ref="E60" r:id="rId46" xr:uid="{45170047-FC17-4B17-9FF3-D2BCA6B0D3AC}"/>
-    <hyperlink ref="E62" r:id="rId47" xr:uid="{4B0E2471-8C14-45CC-8D8A-E676AD9C3C76}"/>
-    <hyperlink ref="E64" r:id="rId48" xr:uid="{1DB169EA-29D8-4F4B-97F3-4EA42A75CB71}"/>
-    <hyperlink ref="E70" r:id="rId49" xr:uid="{158ECEB8-C2A4-4788-8572-BB482DF12A22}"/>
-    <hyperlink ref="E72" r:id="rId50" xr:uid="{03ACB313-DAAA-4BDF-BD57-0F739B0C770A}"/>
-    <hyperlink ref="E74" r:id="rId51" xr:uid="{2AE24B5D-7D36-49D2-A8E3-F5CE6994C014}"/>
+    <hyperlink ref="E35" r:id="rId18" xr:uid="{72CCB03C-AEF8-48FC-AB8A-8BFEC065735D}"/>
+    <hyperlink ref="E37" r:id="rId19" xr:uid="{3B2D22EC-2846-4137-B7ED-FB4158659405}"/>
+    <hyperlink ref="E40" r:id="rId20" xr:uid="{3207C799-1CF5-4E2D-B796-360DAFACE1F9}"/>
+    <hyperlink ref="E41" r:id="rId21" xr:uid="{BEA7FA42-89E9-4019-BF5C-50400806E16A}"/>
+    <hyperlink ref="E45" r:id="rId22" xr:uid="{C8E2BFDD-C2A3-4061-B59E-73DE313E9A62}"/>
+    <hyperlink ref="E47" r:id="rId23" xr:uid="{541C7A59-5466-45D6-BBC9-8CF4F77AF937}"/>
+    <hyperlink ref="E49" r:id="rId24" xr:uid="{181BFE64-8390-4397-A37A-06A3818938AE}"/>
+    <hyperlink ref="E50" r:id="rId25" xr:uid="{DCE3315E-7734-49E5-A6CC-1E9E1E356B22}"/>
+    <hyperlink ref="E53" r:id="rId26" xr:uid="{4D9068C8-BF06-4A7F-A930-07DB6296101A}"/>
+    <hyperlink ref="E55" r:id="rId27" xr:uid="{2CAF93AE-9D0B-41B4-B842-A3984AFEE00D}"/>
+    <hyperlink ref="E57" r:id="rId28" xr:uid="{22245AE2-5105-4B93-805A-26AEF1C7F4F0}"/>
+    <hyperlink ref="E58" r:id="rId29" xr:uid="{EE66B3EB-FDBB-4E68-BF60-CBF32AF7005B}"/>
+    <hyperlink ref="E60" r:id="rId30" xr:uid="{547DFF52-657F-4F7E-BCC5-7290F3A40128}"/>
+    <hyperlink ref="E62" r:id="rId31" xr:uid="{28BA62A5-9ED5-4417-8A46-7D642FB27F37}"/>
+    <hyperlink ref="E64" r:id="rId32" xr:uid="{40A43ED4-7F27-43DD-9972-C327ED9D217D}"/>
+    <hyperlink ref="E66" r:id="rId33" xr:uid="{1B549417-65FA-4BD0-A1D3-F6BF6AEA149A}"/>
+    <hyperlink ref="E67" r:id="rId34" xr:uid="{FD551BAB-4D6B-4A41-813C-16FC11C73455}"/>
+    <hyperlink ref="E69" r:id="rId35" xr:uid="{30138E3D-D3EC-42BD-BF88-6D4C928C65C7}"/>
+    <hyperlink ref="E42" r:id="rId36" xr:uid="{A5CDB2B5-5AED-4A5D-AF71-07935705FBA7}"/>
+    <hyperlink ref="E70" r:id="rId37" xr:uid="{17FE1708-570D-4066-BC87-91FAF27DF35F}"/>
+    <hyperlink ref="E72" r:id="rId38" xr:uid="{5A823F4B-5956-48DD-B21C-627B577A525E}"/>
+    <hyperlink ref="E74" r:id="rId39" xr:uid="{F0175EE8-C275-45F5-AD39-C32442D88DF8}"/>
+    <hyperlink ref="E76" r:id="rId40" xr:uid="{A80F23B3-BE81-454F-B96E-DA3C826D4A23}"/>
+    <hyperlink ref="E77" r:id="rId41" xr:uid="{60641F0B-9F7B-426D-9477-5B4E5C347306}"/>
+    <hyperlink ref="E46" r:id="rId42" xr:uid="{FCE2DB61-0F23-4672-8FEF-BAB7B2C693B9}"/>
+    <hyperlink ref="E48" r:id="rId43" xr:uid="{BE4900E5-57F5-49FA-8EFB-932CA4F14A72}"/>
+    <hyperlink ref="E54" r:id="rId44" xr:uid="{FF2CD268-C97C-4165-BF3D-921FDD2E5236}"/>
+    <hyperlink ref="E56" r:id="rId45" xr:uid="{BEC730D9-C2AA-4732-8316-4261F6FEAF7F}"/>
+    <hyperlink ref="E61" r:id="rId46" xr:uid="{45170047-FC17-4B17-9FF3-D2BCA6B0D3AC}"/>
+    <hyperlink ref="E63" r:id="rId47" xr:uid="{4B0E2471-8C14-45CC-8D8A-E676AD9C3C76}"/>
+    <hyperlink ref="E65" r:id="rId48" xr:uid="{1DB169EA-29D8-4F4B-97F3-4EA42A75CB71}"/>
+    <hyperlink ref="E71" r:id="rId49" xr:uid="{158ECEB8-C2A4-4788-8572-BB482DF12A22}"/>
+    <hyperlink ref="E73" r:id="rId50" xr:uid="{03ACB313-DAAA-4BDF-BD57-0F739B0C770A}"/>
+    <hyperlink ref="E75" r:id="rId51" xr:uid="{2AE24B5D-7D36-49D2-A8E3-F5CE6994C014}"/>
     <hyperlink ref="E3" r:id="rId52" xr:uid="{06F94887-83B7-4C36-A100-681A0CDA1E27}"/>
     <hyperlink ref="E5" r:id="rId53" xr:uid="{50364981-DF96-45B4-80F0-9D36D7BAD7F7}"/>
     <hyperlink ref="E7" r:id="rId54" xr:uid="{70EE6378-A898-4A41-86F7-70302DF4DF69}"/>
@@ -2474,22 +2495,23 @@
     <hyperlink ref="E21" r:id="rId59" xr:uid="{1C894637-B53F-47BB-940D-9931E2225468}"/>
     <hyperlink ref="E27" r:id="rId60" xr:uid="{49FF455A-D50D-42A2-8839-C15441098878}"/>
     <hyperlink ref="E29" r:id="rId61" xr:uid="{11ACA4FF-5C3A-48D6-A0D2-183947B74EC1}"/>
-    <hyperlink ref="E37" r:id="rId62" xr:uid="{D346F257-10EE-473B-99BB-32D7B8BB1A56}"/>
-    <hyperlink ref="E35" r:id="rId63" xr:uid="{9ED7CCD3-EF40-4CD7-AA2A-34B704DA9ECD}"/>
+    <hyperlink ref="E38" r:id="rId62" xr:uid="{D346F257-10EE-473B-99BB-32D7B8BB1A56}"/>
+    <hyperlink ref="E36" r:id="rId63" xr:uid="{9ED7CCD3-EF40-4CD7-AA2A-34B704DA9ECD}"/>
     <hyperlink ref="E31" r:id="rId64" xr:uid="{F5A69F80-6AB3-4E8B-A3C0-AD361E812132}"/>
-    <hyperlink ref="E38" r:id="rId65" xr:uid="{24D8438C-FE4F-4637-92AE-237A46C131E7}"/>
+    <hyperlink ref="E39" r:id="rId65" xr:uid="{24D8438C-FE4F-4637-92AE-237A46C131E7}"/>
     <hyperlink ref="E12" r:id="rId66" xr:uid="{0468683F-9003-40CE-94CB-C2AD7B010AE2}"/>
-    <hyperlink ref="E50" r:id="rId67" xr:uid="{68C2DD1D-CB0E-4542-8305-005A5E334982}"/>
-    <hyperlink ref="E58" r:id="rId68" xr:uid="{654D70BC-BCAE-49DB-85B1-69F10FDD494D}"/>
-    <hyperlink ref="E67" r:id="rId69" xr:uid="{99A79E60-5CAD-467F-AFF9-C914C7608470}"/>
-    <hyperlink ref="E51" r:id="rId70" xr:uid="{F755055B-DFBF-4EE9-8495-5D1D9BFB7CCD}"/>
+    <hyperlink ref="E51" r:id="rId67" xr:uid="{68C2DD1D-CB0E-4542-8305-005A5E334982}"/>
+    <hyperlink ref="E59" r:id="rId68" xr:uid="{654D70BC-BCAE-49DB-85B1-69F10FDD494D}"/>
+    <hyperlink ref="E68" r:id="rId69" xr:uid="{99A79E60-5CAD-467F-AFF9-C914C7608470}"/>
+    <hyperlink ref="E52" r:id="rId70" xr:uid="{F755055B-DFBF-4EE9-8495-5D1D9BFB7CCD}"/>
     <hyperlink ref="E13" r:id="rId71" xr:uid="{DD3CD9F1-825B-45CD-866E-E0A649DC2D28}"/>
     <hyperlink ref="E25" r:id="rId72" xr:uid="{725BDE53-9D92-4625-82B8-9FAA1C126AF0}"/>
-    <hyperlink ref="E42" r:id="rId73" xr:uid="{7AEF9F87-595A-4D01-A87D-91D7CBC21DF9}"/>
-    <hyperlink ref="E77" r:id="rId74" xr:uid="{0C5E67D9-DB6E-4135-A109-C60661FA67A5}"/>
+    <hyperlink ref="E43" r:id="rId73" xr:uid="{7AEF9F87-595A-4D01-A87D-91D7CBC21DF9}"/>
+    <hyperlink ref="E78" r:id="rId74" xr:uid="{0C5E67D9-DB6E-4135-A109-C60661FA67A5}"/>
     <hyperlink ref="E24" r:id="rId75" xr:uid="{439E8935-A01A-45D7-9EA2-5CA36F399253}"/>
+    <hyperlink ref="E34" r:id="rId76" xr:uid="{E5033BD1-CB13-4F70-988F-029D139A0147}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId76"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
 </worksheet>
 </file>
--- a/tree/tree.xlsx
+++ b/tree/tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuke\Desktop\guest\1130826\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6D18E3-136C-450C-B1BB-E967A3DCC412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1342E64-1BB4-4FDC-BA95-06451EE922D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA16FEF3-4787-468B-94EE-76BE82BCE9D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="169">
   <si>
     <t>第一冊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,6 +683,14 @@
   </si>
   <si>
     <t>https://xtjh-yucc.github.io/math/071math/1-3/html5_football.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4 足球高手--康軒有GO補</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xtjh-yucc.github.io/math/071math/1-4/html5_football.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B8439-9079-4DF4-BB05-62730084EFF9}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1816,26 +1824,26 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1849,10 +1857,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1866,10 +1874,10 @@
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1883,10 +1891,10 @@
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1900,10 +1908,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1917,13 +1925,13 @@
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1934,10 +1942,10 @@
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>147</v>
+        <v>26</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1951,27 +1959,27 @@
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1982,13 +1990,13 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2002,10 +2010,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2019,10 +2027,10 @@
         <v>3</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2036,10 +2044,10 @@
         <v>3</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2053,13 +2061,13 @@
         <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2070,27 +2078,27 @@
         <v>3</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2101,13 +2109,13 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2121,10 +2129,10 @@
         <v>43</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2138,10 +2146,10 @@
         <v>43</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2155,10 +2163,10 @@
         <v>43</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2172,10 +2180,10 @@
         <v>43</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2189,10 +2197,10 @@
         <v>43</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2206,13 +2214,13 @@
         <v>43</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2223,13 +2231,13 @@
         <v>43</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2240,10 +2248,10 @@
         <v>43</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2251,16 +2259,16 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2268,16 +2276,16 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2291,10 +2299,10 @@
         <v>86</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2308,10 +2316,10 @@
         <v>86</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2325,10 +2333,10 @@
         <v>86</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2342,10 +2350,10 @@
         <v>86</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2359,10 +2367,10 @@
         <v>86</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2376,10 +2384,10 @@
         <v>86</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2390,16 +2398,16 @@
         <v>88</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2407,27 +2415,44 @@
         <v>88</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2455,36 +2480,36 @@
     <hyperlink ref="E37" r:id="rId19" xr:uid="{3B2D22EC-2846-4137-B7ED-FB4158659405}"/>
     <hyperlink ref="E40" r:id="rId20" xr:uid="{3207C799-1CF5-4E2D-B796-360DAFACE1F9}"/>
     <hyperlink ref="E41" r:id="rId21" xr:uid="{BEA7FA42-89E9-4019-BF5C-50400806E16A}"/>
-    <hyperlink ref="E45" r:id="rId22" xr:uid="{C8E2BFDD-C2A3-4061-B59E-73DE313E9A62}"/>
-    <hyperlink ref="E47" r:id="rId23" xr:uid="{541C7A59-5466-45D6-BBC9-8CF4F77AF937}"/>
-    <hyperlink ref="E49" r:id="rId24" xr:uid="{181BFE64-8390-4397-A37A-06A3818938AE}"/>
-    <hyperlink ref="E50" r:id="rId25" xr:uid="{DCE3315E-7734-49E5-A6CC-1E9E1E356B22}"/>
-    <hyperlink ref="E53" r:id="rId26" xr:uid="{4D9068C8-BF06-4A7F-A930-07DB6296101A}"/>
-    <hyperlink ref="E55" r:id="rId27" xr:uid="{2CAF93AE-9D0B-41B4-B842-A3984AFEE00D}"/>
-    <hyperlink ref="E57" r:id="rId28" xr:uid="{22245AE2-5105-4B93-805A-26AEF1C7F4F0}"/>
-    <hyperlink ref="E58" r:id="rId29" xr:uid="{EE66B3EB-FDBB-4E68-BF60-CBF32AF7005B}"/>
-    <hyperlink ref="E60" r:id="rId30" xr:uid="{547DFF52-657F-4F7E-BCC5-7290F3A40128}"/>
-    <hyperlink ref="E62" r:id="rId31" xr:uid="{28BA62A5-9ED5-4417-8A46-7D642FB27F37}"/>
-    <hyperlink ref="E64" r:id="rId32" xr:uid="{40A43ED4-7F27-43DD-9972-C327ED9D217D}"/>
-    <hyperlink ref="E66" r:id="rId33" xr:uid="{1B549417-65FA-4BD0-A1D3-F6BF6AEA149A}"/>
-    <hyperlink ref="E67" r:id="rId34" xr:uid="{FD551BAB-4D6B-4A41-813C-16FC11C73455}"/>
-    <hyperlink ref="E69" r:id="rId35" xr:uid="{30138E3D-D3EC-42BD-BF88-6D4C928C65C7}"/>
+    <hyperlink ref="E46" r:id="rId22" xr:uid="{C8E2BFDD-C2A3-4061-B59E-73DE313E9A62}"/>
+    <hyperlink ref="E48" r:id="rId23" xr:uid="{541C7A59-5466-45D6-BBC9-8CF4F77AF937}"/>
+    <hyperlink ref="E50" r:id="rId24" xr:uid="{181BFE64-8390-4397-A37A-06A3818938AE}"/>
+    <hyperlink ref="E51" r:id="rId25" xr:uid="{DCE3315E-7734-49E5-A6CC-1E9E1E356B22}"/>
+    <hyperlink ref="E54" r:id="rId26" xr:uid="{4D9068C8-BF06-4A7F-A930-07DB6296101A}"/>
+    <hyperlink ref="E56" r:id="rId27" xr:uid="{2CAF93AE-9D0B-41B4-B842-A3984AFEE00D}"/>
+    <hyperlink ref="E58" r:id="rId28" xr:uid="{22245AE2-5105-4B93-805A-26AEF1C7F4F0}"/>
+    <hyperlink ref="E59" r:id="rId29" xr:uid="{EE66B3EB-FDBB-4E68-BF60-CBF32AF7005B}"/>
+    <hyperlink ref="E61" r:id="rId30" xr:uid="{547DFF52-657F-4F7E-BCC5-7290F3A40128}"/>
+    <hyperlink ref="E63" r:id="rId31" xr:uid="{28BA62A5-9ED5-4417-8A46-7D642FB27F37}"/>
+    <hyperlink ref="E65" r:id="rId32" xr:uid="{40A43ED4-7F27-43DD-9972-C327ED9D217D}"/>
+    <hyperlink ref="E67" r:id="rId33" xr:uid="{1B549417-65FA-4BD0-A1D3-F6BF6AEA149A}"/>
+    <hyperlink ref="E68" r:id="rId34" xr:uid="{FD551BAB-4D6B-4A41-813C-16FC11C73455}"/>
+    <hyperlink ref="E70" r:id="rId35" xr:uid="{30138E3D-D3EC-42BD-BF88-6D4C928C65C7}"/>
     <hyperlink ref="E42" r:id="rId36" xr:uid="{A5CDB2B5-5AED-4A5D-AF71-07935705FBA7}"/>
-    <hyperlink ref="E70" r:id="rId37" xr:uid="{17FE1708-570D-4066-BC87-91FAF27DF35F}"/>
-    <hyperlink ref="E72" r:id="rId38" xr:uid="{5A823F4B-5956-48DD-B21C-627B577A525E}"/>
-    <hyperlink ref="E74" r:id="rId39" xr:uid="{F0175EE8-C275-45F5-AD39-C32442D88DF8}"/>
-    <hyperlink ref="E76" r:id="rId40" xr:uid="{A80F23B3-BE81-454F-B96E-DA3C826D4A23}"/>
-    <hyperlink ref="E77" r:id="rId41" xr:uid="{60641F0B-9F7B-426D-9477-5B4E5C347306}"/>
-    <hyperlink ref="E46" r:id="rId42" xr:uid="{FCE2DB61-0F23-4672-8FEF-BAB7B2C693B9}"/>
-    <hyperlink ref="E48" r:id="rId43" xr:uid="{BE4900E5-57F5-49FA-8EFB-932CA4F14A72}"/>
-    <hyperlink ref="E54" r:id="rId44" xr:uid="{FF2CD268-C97C-4165-BF3D-921FDD2E5236}"/>
-    <hyperlink ref="E56" r:id="rId45" xr:uid="{BEC730D9-C2AA-4732-8316-4261F6FEAF7F}"/>
-    <hyperlink ref="E61" r:id="rId46" xr:uid="{45170047-FC17-4B17-9FF3-D2BCA6B0D3AC}"/>
-    <hyperlink ref="E63" r:id="rId47" xr:uid="{4B0E2471-8C14-45CC-8D8A-E676AD9C3C76}"/>
-    <hyperlink ref="E65" r:id="rId48" xr:uid="{1DB169EA-29D8-4F4B-97F3-4EA42A75CB71}"/>
-    <hyperlink ref="E71" r:id="rId49" xr:uid="{158ECEB8-C2A4-4788-8572-BB482DF12A22}"/>
-    <hyperlink ref="E73" r:id="rId50" xr:uid="{03ACB313-DAAA-4BDF-BD57-0F739B0C770A}"/>
-    <hyperlink ref="E75" r:id="rId51" xr:uid="{2AE24B5D-7D36-49D2-A8E3-F5CE6994C014}"/>
+    <hyperlink ref="E71" r:id="rId37" xr:uid="{17FE1708-570D-4066-BC87-91FAF27DF35F}"/>
+    <hyperlink ref="E73" r:id="rId38" xr:uid="{5A823F4B-5956-48DD-B21C-627B577A525E}"/>
+    <hyperlink ref="E75" r:id="rId39" xr:uid="{F0175EE8-C275-45F5-AD39-C32442D88DF8}"/>
+    <hyperlink ref="E77" r:id="rId40" xr:uid="{A80F23B3-BE81-454F-B96E-DA3C826D4A23}"/>
+    <hyperlink ref="E78" r:id="rId41" xr:uid="{60641F0B-9F7B-426D-9477-5B4E5C347306}"/>
+    <hyperlink ref="E47" r:id="rId42" xr:uid="{FCE2DB61-0F23-4672-8FEF-BAB7B2C693B9}"/>
+    <hyperlink ref="E49" r:id="rId43" xr:uid="{BE4900E5-57F5-49FA-8EFB-932CA4F14A72}"/>
+    <hyperlink ref="E55" r:id="rId44" xr:uid="{FF2CD268-C97C-4165-BF3D-921FDD2E5236}"/>
+    <hyperlink ref="E57" r:id="rId45" xr:uid="{BEC730D9-C2AA-4732-8316-4261F6FEAF7F}"/>
+    <hyperlink ref="E62" r:id="rId46" xr:uid="{45170047-FC17-4B17-9FF3-D2BCA6B0D3AC}"/>
+    <hyperlink ref="E64" r:id="rId47" xr:uid="{4B0E2471-8C14-45CC-8D8A-E676AD9C3C76}"/>
+    <hyperlink ref="E66" r:id="rId48" xr:uid="{1DB169EA-29D8-4F4B-97F3-4EA42A75CB71}"/>
+    <hyperlink ref="E72" r:id="rId49" xr:uid="{158ECEB8-C2A4-4788-8572-BB482DF12A22}"/>
+    <hyperlink ref="E74" r:id="rId50" xr:uid="{03ACB313-DAAA-4BDF-BD57-0F739B0C770A}"/>
+    <hyperlink ref="E76" r:id="rId51" xr:uid="{2AE24B5D-7D36-49D2-A8E3-F5CE6994C014}"/>
     <hyperlink ref="E3" r:id="rId52" xr:uid="{06F94887-83B7-4C36-A100-681A0CDA1E27}"/>
     <hyperlink ref="E5" r:id="rId53" xr:uid="{50364981-DF96-45B4-80F0-9D36D7BAD7F7}"/>
     <hyperlink ref="E7" r:id="rId54" xr:uid="{70EE6378-A898-4A41-86F7-70302DF4DF69}"/>
@@ -2500,18 +2525,19 @@
     <hyperlink ref="E31" r:id="rId64" xr:uid="{F5A69F80-6AB3-4E8B-A3C0-AD361E812132}"/>
     <hyperlink ref="E39" r:id="rId65" xr:uid="{24D8438C-FE4F-4637-92AE-237A46C131E7}"/>
     <hyperlink ref="E12" r:id="rId66" xr:uid="{0468683F-9003-40CE-94CB-C2AD7B010AE2}"/>
-    <hyperlink ref="E51" r:id="rId67" xr:uid="{68C2DD1D-CB0E-4542-8305-005A5E334982}"/>
-    <hyperlink ref="E59" r:id="rId68" xr:uid="{654D70BC-BCAE-49DB-85B1-69F10FDD494D}"/>
-    <hyperlink ref="E68" r:id="rId69" xr:uid="{99A79E60-5CAD-467F-AFF9-C914C7608470}"/>
-    <hyperlink ref="E52" r:id="rId70" xr:uid="{F755055B-DFBF-4EE9-8495-5D1D9BFB7CCD}"/>
+    <hyperlink ref="E52" r:id="rId67" xr:uid="{68C2DD1D-CB0E-4542-8305-005A5E334982}"/>
+    <hyperlink ref="E60" r:id="rId68" xr:uid="{654D70BC-BCAE-49DB-85B1-69F10FDD494D}"/>
+    <hyperlink ref="E69" r:id="rId69" xr:uid="{99A79E60-5CAD-467F-AFF9-C914C7608470}"/>
+    <hyperlink ref="E53" r:id="rId70" xr:uid="{F755055B-DFBF-4EE9-8495-5D1D9BFB7CCD}"/>
     <hyperlink ref="E13" r:id="rId71" xr:uid="{DD3CD9F1-825B-45CD-866E-E0A649DC2D28}"/>
     <hyperlink ref="E25" r:id="rId72" xr:uid="{725BDE53-9D92-4625-82B8-9FAA1C126AF0}"/>
     <hyperlink ref="E43" r:id="rId73" xr:uid="{7AEF9F87-595A-4D01-A87D-91D7CBC21DF9}"/>
-    <hyperlink ref="E78" r:id="rId74" xr:uid="{0C5E67D9-DB6E-4135-A109-C60661FA67A5}"/>
+    <hyperlink ref="E79" r:id="rId74" xr:uid="{0C5E67D9-DB6E-4135-A109-C60661FA67A5}"/>
     <hyperlink ref="E24" r:id="rId75" xr:uid="{439E8935-A01A-45D7-9EA2-5CA36F399253}"/>
     <hyperlink ref="E34" r:id="rId76" xr:uid="{E5033BD1-CB13-4F70-988F-029D139A0147}"/>
+    <hyperlink ref="E44" r:id="rId77" xr:uid="{F279E869-822D-4C92-B8A8-98AC847D618E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
--- a/tree/tree.xlsx
+++ b/tree/tree.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuke\Desktop\guest\1130826\tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\113-1\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1342E64-1BB4-4FDC-BA95-06451EE922D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94BB349-7716-4444-87D1-C6CD99E1F417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA16FEF3-4787-468B-94EE-76BE82BCE9D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="200">
   <si>
     <t>第一冊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -691,6 +691,128 @@
   </si>
   <si>
     <t>https://xtjh-yucc.github.io/math/071math/1-4/html5_football.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUQVdONzVWOEZaNE8xMjBKMTBSUUUyTU1HWS4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實力評量1-1負數與數線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUQkRNQU8xWk1NSzFDOUROU1hHSjJQNTlaQi4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實力評量 1-2 整數的加減</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUNVY2T1lDNFlTNE45ODlXREsxRVo5OVJZMi4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實力評量 1-3 整數的乘除與四則運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUODI0Tkw2TDZKSExWRTdDUUFKNVMwTFc3Qy4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實力評量 1-4 指數記法與科學記號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUM0UxQ0RYWUFXT0xWUENOOTlCNk82MkowWS4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次段考課本習作複習卷-2</t>
+  </si>
+  <si>
+    <t>第一次段考課本習作複習卷-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUMExLNk5KN1UwTTZIVVU0NkhOVjAwNFE1Vy4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次段考課本習作複習卷-1</t>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUOUFZMkg5QVg4T1g2QTNWVlNYWURMM01NQi4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實力評量 1-1乘法公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUOEJISlBTT0taTzlQMFFVNzA1OEtBVkVVTy4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實力評量 1-2 多項式與其加減運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUNEdaOFZQTUlGM09DTVY4SUlYTzQ4V1M4NC4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實力評量 1-3 多項式的乘除運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUN0NDTjA2M1k5N0lXMjdTOFU2SExSSFNLOS4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實力評量 2-1 平方根與近似值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUNEpaSFFFMVgwSDVGRzVJUlNRTEgxUVRLQi4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第一次段考課本習作複習卷-1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUQkxIWlFORUhZWEhDV0RTWkQ0WDRGM1RHNS4u</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1080,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B8439-9079-4DF4-BB05-62730084EFF9}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1314,21 +1436,21 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>172</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1339,13 +1461,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1359,10 +1481,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1376,10 +1498,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1393,10 +1515,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1410,10 +1532,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1427,10 +1549,10 @@
         <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1444,10 +1566,10 @@
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1461,10 +1583,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1478,10 +1600,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1495,10 +1617,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1512,10 +1634,10 @@
         <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>161</v>
+        <v>148</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1526,30 +1648,30 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>130</v>
+        <v>175</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1563,10 +1685,10 @@
         <v>43</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1580,10 +1702,10 @@
         <v>43</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1597,10 +1719,10 @@
         <v>43</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1614,10 +1736,10 @@
         <v>43</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1631,10 +1753,10 @@
         <v>43</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1648,10 +1770,10 @@
         <v>43</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1665,10 +1787,10 @@
         <v>43</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1679,13 +1801,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1696,13 +1818,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1710,16 +1832,16 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1730,13 +1852,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1750,10 +1872,10 @@
         <v>54</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1767,10 +1889,10 @@
         <v>54</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1784,10 +1906,10 @@
         <v>54</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1801,10 +1923,10 @@
         <v>54</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1818,10 +1940,10 @@
         <v>54</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>163</v>
+        <v>57</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1835,120 +1957,120 @@
         <v>54</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1959,13 +2081,13 @@
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1976,10 +2098,10 @@
         <v>2</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>157</v>
+        <v>97</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1990,13 +2112,13 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2007,13 +2129,13 @@
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2024,13 +2146,13 @@
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2041,16 +2163,16 @@
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2058,16 +2180,16 @@
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2075,30 +2197,30 @@
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2109,13 +2231,13 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2126,13 +2248,13 @@
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2143,13 +2265,13 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2160,13 +2282,13 @@
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2177,13 +2299,13 @@
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2194,16 +2316,16 @@
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2211,33 +2333,33 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2245,13 +2367,13 @@
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>151</v>
+        <v>73</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2265,10 +2387,10 @@
         <v>43</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2276,16 +2398,16 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2293,16 +2415,16 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2310,16 +2432,16 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2327,16 +2449,16 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2344,16 +2466,16 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2361,33 +2483,33 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>92</v>
+        <v>150</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2395,16 +2517,16 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2412,47 +2534,251 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D80" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="90" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2465,79 +2791,91 @@
     <hyperlink ref="E8" r:id="rId4" xr:uid="{F5FE5235-8B90-4E68-9C2B-BF277273AFFC}"/>
     <hyperlink ref="E10" r:id="rId5" xr:uid="{A6BA6C8E-1DA7-4BE1-ABC4-55AE627E048D}"/>
     <hyperlink ref="E11" r:id="rId6" xr:uid="{3A15301E-D7DF-4914-997E-2D1B5B29BA5C}"/>
-    <hyperlink ref="E14" r:id="rId7" xr:uid="{10EA1FC3-5879-4084-8B79-7596CB4DE3E0}"/>
-    <hyperlink ref="E16" r:id="rId8" xr:uid="{94C8E539-F252-4D0F-A51E-783637A22268}"/>
-    <hyperlink ref="E18" r:id="rId9" xr:uid="{4D066FA2-3217-4346-A73C-B62071585918}"/>
-    <hyperlink ref="E20" r:id="rId10" xr:uid="{851B7892-8C74-4729-AA27-1893AF66592B}"/>
-    <hyperlink ref="E26" r:id="rId11" xr:uid="{1326EE2C-84A9-4DBD-95E6-69EC7E4CF665}"/>
-    <hyperlink ref="E22" r:id="rId12" xr:uid="{242C66EC-93CB-4704-A3C7-E5F52A62A2C2}"/>
-    <hyperlink ref="E23" r:id="rId13" xr:uid="{2CB42F31-F756-4661-A727-69B2AF01E560}"/>
-    <hyperlink ref="E28" r:id="rId14" xr:uid="{1E2F087E-0A2B-4CE5-BE9D-852710A1DE5C}"/>
-    <hyperlink ref="E30" r:id="rId15" xr:uid="{E9E70D19-22E7-42F5-A1EE-4D011158CA7E}"/>
-    <hyperlink ref="E32" r:id="rId16" xr:uid="{0BCEFD85-E1A3-4036-AC53-3568DB4D1369}"/>
-    <hyperlink ref="E33" r:id="rId17" xr:uid="{15E6317A-4389-41A3-9EC4-5687851C8247}"/>
-    <hyperlink ref="E35" r:id="rId18" xr:uid="{72CCB03C-AEF8-48FC-AB8A-8BFEC065735D}"/>
-    <hyperlink ref="E37" r:id="rId19" xr:uid="{3B2D22EC-2846-4137-B7ED-FB4158659405}"/>
-    <hyperlink ref="E40" r:id="rId20" xr:uid="{3207C799-1CF5-4E2D-B796-360DAFACE1F9}"/>
-    <hyperlink ref="E41" r:id="rId21" xr:uid="{BEA7FA42-89E9-4019-BF5C-50400806E16A}"/>
-    <hyperlink ref="E46" r:id="rId22" xr:uid="{C8E2BFDD-C2A3-4061-B59E-73DE313E9A62}"/>
-    <hyperlink ref="E48" r:id="rId23" xr:uid="{541C7A59-5466-45D6-BBC9-8CF4F77AF937}"/>
-    <hyperlink ref="E50" r:id="rId24" xr:uid="{181BFE64-8390-4397-A37A-06A3818938AE}"/>
-    <hyperlink ref="E51" r:id="rId25" xr:uid="{DCE3315E-7734-49E5-A6CC-1E9E1E356B22}"/>
-    <hyperlink ref="E54" r:id="rId26" xr:uid="{4D9068C8-BF06-4A7F-A930-07DB6296101A}"/>
-    <hyperlink ref="E56" r:id="rId27" xr:uid="{2CAF93AE-9D0B-41B4-B842-A3984AFEE00D}"/>
-    <hyperlink ref="E58" r:id="rId28" xr:uid="{22245AE2-5105-4B93-805A-26AEF1C7F4F0}"/>
-    <hyperlink ref="E59" r:id="rId29" xr:uid="{EE66B3EB-FDBB-4E68-BF60-CBF32AF7005B}"/>
-    <hyperlink ref="E61" r:id="rId30" xr:uid="{547DFF52-657F-4F7E-BCC5-7290F3A40128}"/>
-    <hyperlink ref="E63" r:id="rId31" xr:uid="{28BA62A5-9ED5-4417-8A46-7D642FB27F37}"/>
-    <hyperlink ref="E65" r:id="rId32" xr:uid="{40A43ED4-7F27-43DD-9972-C327ED9D217D}"/>
-    <hyperlink ref="E67" r:id="rId33" xr:uid="{1B549417-65FA-4BD0-A1D3-F6BF6AEA149A}"/>
-    <hyperlink ref="E68" r:id="rId34" xr:uid="{FD551BAB-4D6B-4A41-813C-16FC11C73455}"/>
-    <hyperlink ref="E70" r:id="rId35" xr:uid="{30138E3D-D3EC-42BD-BF88-6D4C928C65C7}"/>
-    <hyperlink ref="E42" r:id="rId36" xr:uid="{A5CDB2B5-5AED-4A5D-AF71-07935705FBA7}"/>
-    <hyperlink ref="E71" r:id="rId37" xr:uid="{17FE1708-570D-4066-BC87-91FAF27DF35F}"/>
-    <hyperlink ref="E73" r:id="rId38" xr:uid="{5A823F4B-5956-48DD-B21C-627B577A525E}"/>
-    <hyperlink ref="E75" r:id="rId39" xr:uid="{F0175EE8-C275-45F5-AD39-C32442D88DF8}"/>
-    <hyperlink ref="E77" r:id="rId40" xr:uid="{A80F23B3-BE81-454F-B96E-DA3C826D4A23}"/>
-    <hyperlink ref="E78" r:id="rId41" xr:uid="{60641F0B-9F7B-426D-9477-5B4E5C347306}"/>
-    <hyperlink ref="E47" r:id="rId42" xr:uid="{FCE2DB61-0F23-4672-8FEF-BAB7B2C693B9}"/>
-    <hyperlink ref="E49" r:id="rId43" xr:uid="{BE4900E5-57F5-49FA-8EFB-932CA4F14A72}"/>
-    <hyperlink ref="E55" r:id="rId44" xr:uid="{FF2CD268-C97C-4165-BF3D-921FDD2E5236}"/>
-    <hyperlink ref="E57" r:id="rId45" xr:uid="{BEC730D9-C2AA-4732-8316-4261F6FEAF7F}"/>
-    <hyperlink ref="E62" r:id="rId46" xr:uid="{45170047-FC17-4B17-9FF3-D2BCA6B0D3AC}"/>
-    <hyperlink ref="E64" r:id="rId47" xr:uid="{4B0E2471-8C14-45CC-8D8A-E676AD9C3C76}"/>
-    <hyperlink ref="E66" r:id="rId48" xr:uid="{1DB169EA-29D8-4F4B-97F3-4EA42A75CB71}"/>
-    <hyperlink ref="E72" r:id="rId49" xr:uid="{158ECEB8-C2A4-4788-8572-BB482DF12A22}"/>
-    <hyperlink ref="E74" r:id="rId50" xr:uid="{03ACB313-DAAA-4BDF-BD57-0F739B0C770A}"/>
-    <hyperlink ref="E76" r:id="rId51" xr:uid="{2AE24B5D-7D36-49D2-A8E3-F5CE6994C014}"/>
+    <hyperlink ref="E15" r:id="rId7" xr:uid="{10EA1FC3-5879-4084-8B79-7596CB4DE3E0}"/>
+    <hyperlink ref="E17" r:id="rId8" xr:uid="{94C8E539-F252-4D0F-A51E-783637A22268}"/>
+    <hyperlink ref="E19" r:id="rId9" xr:uid="{4D066FA2-3217-4346-A73C-B62071585918}"/>
+    <hyperlink ref="E21" r:id="rId10" xr:uid="{851B7892-8C74-4729-AA27-1893AF66592B}"/>
+    <hyperlink ref="E28" r:id="rId11" xr:uid="{1326EE2C-84A9-4DBD-95E6-69EC7E4CF665}"/>
+    <hyperlink ref="E23" r:id="rId12" xr:uid="{242C66EC-93CB-4704-A3C7-E5F52A62A2C2}"/>
+    <hyperlink ref="E24" r:id="rId13" xr:uid="{2CB42F31-F756-4661-A727-69B2AF01E560}"/>
+    <hyperlink ref="E30" r:id="rId14" xr:uid="{1E2F087E-0A2B-4CE5-BE9D-852710A1DE5C}"/>
+    <hyperlink ref="E32" r:id="rId15" xr:uid="{E9E70D19-22E7-42F5-A1EE-4D011158CA7E}"/>
+    <hyperlink ref="E34" r:id="rId16" xr:uid="{0BCEFD85-E1A3-4036-AC53-3568DB4D1369}"/>
+    <hyperlink ref="E35" r:id="rId17" xr:uid="{15E6317A-4389-41A3-9EC4-5687851C8247}"/>
+    <hyperlink ref="E38" r:id="rId18" xr:uid="{72CCB03C-AEF8-48FC-AB8A-8BFEC065735D}"/>
+    <hyperlink ref="E40" r:id="rId19" xr:uid="{3B2D22EC-2846-4137-B7ED-FB4158659405}"/>
+    <hyperlink ref="E43" r:id="rId20" xr:uid="{3207C799-1CF5-4E2D-B796-360DAFACE1F9}"/>
+    <hyperlink ref="E44" r:id="rId21" xr:uid="{BEA7FA42-89E9-4019-BF5C-50400806E16A}"/>
+    <hyperlink ref="E52" r:id="rId22" xr:uid="{C8E2BFDD-C2A3-4061-B59E-73DE313E9A62}"/>
+    <hyperlink ref="E54" r:id="rId23" xr:uid="{541C7A59-5466-45D6-BBC9-8CF4F77AF937}"/>
+    <hyperlink ref="E56" r:id="rId24" xr:uid="{181BFE64-8390-4397-A37A-06A3818938AE}"/>
+    <hyperlink ref="E57" r:id="rId25" xr:uid="{DCE3315E-7734-49E5-A6CC-1E9E1E356B22}"/>
+    <hyperlink ref="E61" r:id="rId26" xr:uid="{4D9068C8-BF06-4A7F-A930-07DB6296101A}"/>
+    <hyperlink ref="E63" r:id="rId27" xr:uid="{2CAF93AE-9D0B-41B4-B842-A3984AFEE00D}"/>
+    <hyperlink ref="E65" r:id="rId28" xr:uid="{22245AE2-5105-4B93-805A-26AEF1C7F4F0}"/>
+    <hyperlink ref="E66" r:id="rId29" xr:uid="{EE66B3EB-FDBB-4E68-BF60-CBF32AF7005B}"/>
+    <hyperlink ref="E69" r:id="rId30" xr:uid="{547DFF52-657F-4F7E-BCC5-7290F3A40128}"/>
+    <hyperlink ref="E71" r:id="rId31" xr:uid="{28BA62A5-9ED5-4417-8A46-7D642FB27F37}"/>
+    <hyperlink ref="E73" r:id="rId32" xr:uid="{40A43ED4-7F27-43DD-9972-C327ED9D217D}"/>
+    <hyperlink ref="E75" r:id="rId33" xr:uid="{1B549417-65FA-4BD0-A1D3-F6BF6AEA149A}"/>
+    <hyperlink ref="E76" r:id="rId34" xr:uid="{FD551BAB-4D6B-4A41-813C-16FC11C73455}"/>
+    <hyperlink ref="E78" r:id="rId35" xr:uid="{30138E3D-D3EC-42BD-BF88-6D4C928C65C7}"/>
+    <hyperlink ref="E45" r:id="rId36" xr:uid="{A5CDB2B5-5AED-4A5D-AF71-07935705FBA7}"/>
+    <hyperlink ref="E80" r:id="rId37" xr:uid="{17FE1708-570D-4066-BC87-91FAF27DF35F}"/>
+    <hyperlink ref="E82" r:id="rId38" xr:uid="{5A823F4B-5956-48DD-B21C-627B577A525E}"/>
+    <hyperlink ref="E84" r:id="rId39" xr:uid="{F0175EE8-C275-45F5-AD39-C32442D88DF8}"/>
+    <hyperlink ref="E86" r:id="rId40" xr:uid="{A80F23B3-BE81-454F-B96E-DA3C826D4A23}"/>
+    <hyperlink ref="E87" r:id="rId41" xr:uid="{60641F0B-9F7B-426D-9477-5B4E5C347306}"/>
+    <hyperlink ref="E53" r:id="rId42" xr:uid="{FCE2DB61-0F23-4672-8FEF-BAB7B2C693B9}"/>
+    <hyperlink ref="E55" r:id="rId43" xr:uid="{BE4900E5-57F5-49FA-8EFB-932CA4F14A72}"/>
+    <hyperlink ref="E62" r:id="rId44" xr:uid="{FF2CD268-C97C-4165-BF3D-921FDD2E5236}"/>
+    <hyperlink ref="E64" r:id="rId45" xr:uid="{BEC730D9-C2AA-4732-8316-4261F6FEAF7F}"/>
+    <hyperlink ref="E70" r:id="rId46" xr:uid="{45170047-FC17-4B17-9FF3-D2BCA6B0D3AC}"/>
+    <hyperlink ref="E72" r:id="rId47" xr:uid="{4B0E2471-8C14-45CC-8D8A-E676AD9C3C76}"/>
+    <hyperlink ref="E74" r:id="rId48" xr:uid="{1DB169EA-29D8-4F4B-97F3-4EA42A75CB71}"/>
+    <hyperlink ref="E81" r:id="rId49" xr:uid="{158ECEB8-C2A4-4788-8572-BB482DF12A22}"/>
+    <hyperlink ref="E83" r:id="rId50" xr:uid="{03ACB313-DAAA-4BDF-BD57-0F739B0C770A}"/>
+    <hyperlink ref="E85" r:id="rId51" xr:uid="{2AE24B5D-7D36-49D2-A8E3-F5CE6994C014}"/>
     <hyperlink ref="E3" r:id="rId52" xr:uid="{06F94887-83B7-4C36-A100-681A0CDA1E27}"/>
     <hyperlink ref="E5" r:id="rId53" xr:uid="{50364981-DF96-45B4-80F0-9D36D7BAD7F7}"/>
     <hyperlink ref="E7" r:id="rId54" xr:uid="{70EE6378-A898-4A41-86F7-70302DF4DF69}"/>
     <hyperlink ref="E9" r:id="rId55" xr:uid="{A7E06F3D-4625-49CD-ABB4-6E3E1856E0E3}"/>
-    <hyperlink ref="E15" r:id="rId56" xr:uid="{96C9F07A-DBB5-4E85-A5B0-92F2A69ECD83}"/>
-    <hyperlink ref="E17" r:id="rId57" xr:uid="{99001492-BD89-42BB-B2C8-3FFEF107D357}"/>
-    <hyperlink ref="E19" r:id="rId58" xr:uid="{343B4F0E-4493-4878-9746-7D2DEAC0A0B8}"/>
-    <hyperlink ref="E21" r:id="rId59" xr:uid="{1C894637-B53F-47BB-940D-9931E2225468}"/>
-    <hyperlink ref="E27" r:id="rId60" xr:uid="{49FF455A-D50D-42A2-8839-C15441098878}"/>
-    <hyperlink ref="E29" r:id="rId61" xr:uid="{11ACA4FF-5C3A-48D6-A0D2-183947B74EC1}"/>
-    <hyperlink ref="E38" r:id="rId62" xr:uid="{D346F257-10EE-473B-99BB-32D7B8BB1A56}"/>
-    <hyperlink ref="E36" r:id="rId63" xr:uid="{9ED7CCD3-EF40-4CD7-AA2A-34B704DA9ECD}"/>
-    <hyperlink ref="E31" r:id="rId64" xr:uid="{F5A69F80-6AB3-4E8B-A3C0-AD361E812132}"/>
-    <hyperlink ref="E39" r:id="rId65" xr:uid="{24D8438C-FE4F-4637-92AE-237A46C131E7}"/>
+    <hyperlink ref="E16" r:id="rId56" xr:uid="{96C9F07A-DBB5-4E85-A5B0-92F2A69ECD83}"/>
+    <hyperlink ref="E18" r:id="rId57" xr:uid="{99001492-BD89-42BB-B2C8-3FFEF107D357}"/>
+    <hyperlink ref="E20" r:id="rId58" xr:uid="{343B4F0E-4493-4878-9746-7D2DEAC0A0B8}"/>
+    <hyperlink ref="E22" r:id="rId59" xr:uid="{1C894637-B53F-47BB-940D-9931E2225468}"/>
+    <hyperlink ref="E29" r:id="rId60" xr:uid="{49FF455A-D50D-42A2-8839-C15441098878}"/>
+    <hyperlink ref="E31" r:id="rId61" xr:uid="{11ACA4FF-5C3A-48D6-A0D2-183947B74EC1}"/>
+    <hyperlink ref="E41" r:id="rId62" xr:uid="{D346F257-10EE-473B-99BB-32D7B8BB1A56}"/>
+    <hyperlink ref="E39" r:id="rId63" xr:uid="{9ED7CCD3-EF40-4CD7-AA2A-34B704DA9ECD}"/>
+    <hyperlink ref="E33" r:id="rId64" xr:uid="{F5A69F80-6AB3-4E8B-A3C0-AD361E812132}"/>
+    <hyperlink ref="E42" r:id="rId65" xr:uid="{24D8438C-FE4F-4637-92AE-237A46C131E7}"/>
     <hyperlink ref="E12" r:id="rId66" xr:uid="{0468683F-9003-40CE-94CB-C2AD7B010AE2}"/>
-    <hyperlink ref="E52" r:id="rId67" xr:uid="{68C2DD1D-CB0E-4542-8305-005A5E334982}"/>
-    <hyperlink ref="E60" r:id="rId68" xr:uid="{654D70BC-BCAE-49DB-85B1-69F10FDD494D}"/>
-    <hyperlink ref="E69" r:id="rId69" xr:uid="{99A79E60-5CAD-467F-AFF9-C914C7608470}"/>
-    <hyperlink ref="E53" r:id="rId70" xr:uid="{F755055B-DFBF-4EE9-8495-5D1D9BFB7CCD}"/>
+    <hyperlink ref="E58" r:id="rId67" xr:uid="{68C2DD1D-CB0E-4542-8305-005A5E334982}"/>
+    <hyperlink ref="E67" r:id="rId68" xr:uid="{654D70BC-BCAE-49DB-85B1-69F10FDD494D}"/>
+    <hyperlink ref="E77" r:id="rId69" xr:uid="{99A79E60-5CAD-467F-AFF9-C914C7608470}"/>
+    <hyperlink ref="E59" r:id="rId70" xr:uid="{F755055B-DFBF-4EE9-8495-5D1D9BFB7CCD}"/>
     <hyperlink ref="E13" r:id="rId71" xr:uid="{DD3CD9F1-825B-45CD-866E-E0A649DC2D28}"/>
-    <hyperlink ref="E25" r:id="rId72" xr:uid="{725BDE53-9D92-4625-82B8-9FAA1C126AF0}"/>
-    <hyperlink ref="E43" r:id="rId73" xr:uid="{7AEF9F87-595A-4D01-A87D-91D7CBC21DF9}"/>
-    <hyperlink ref="E79" r:id="rId74" xr:uid="{0C5E67D9-DB6E-4135-A109-C60661FA67A5}"/>
-    <hyperlink ref="E24" r:id="rId75" xr:uid="{439E8935-A01A-45D7-9EA2-5CA36F399253}"/>
-    <hyperlink ref="E34" r:id="rId76" xr:uid="{E5033BD1-CB13-4F70-988F-029D139A0147}"/>
-    <hyperlink ref="E44" r:id="rId77" xr:uid="{F279E869-822D-4C92-B8A8-98AC847D618E}"/>
+    <hyperlink ref="E26" r:id="rId72" xr:uid="{725BDE53-9D92-4625-82B8-9FAA1C126AF0}"/>
+    <hyperlink ref="E46" r:id="rId73" xr:uid="{7AEF9F87-595A-4D01-A87D-91D7CBC21DF9}"/>
+    <hyperlink ref="E88" r:id="rId74" xr:uid="{0C5E67D9-DB6E-4135-A109-C60661FA67A5}"/>
+    <hyperlink ref="E25" r:id="rId75" xr:uid="{439E8935-A01A-45D7-9EA2-5CA36F399253}"/>
+    <hyperlink ref="E36" r:id="rId76" xr:uid="{E5033BD1-CB13-4F70-988F-029D139A0147}"/>
+    <hyperlink ref="E47" r:id="rId77" xr:uid="{F279E869-822D-4C92-B8A8-98AC847D618E}"/>
+    <hyperlink ref="E14" r:id="rId78" xr:uid="{8E02AA29-7A92-4424-9613-829ADEE181A8}"/>
+    <hyperlink ref="E27" r:id="rId79" xr:uid="{32271819-E45E-4CD5-917E-7116A34DB5CD}"/>
+    <hyperlink ref="E37" r:id="rId80" xr:uid="{0ADBA754-33DC-4A8E-9E89-2AFC75EEFF3D}"/>
+    <hyperlink ref="E48" r:id="rId81" xr:uid="{0ADD4EFA-2AD9-4032-9201-AC107CF24D67}"/>
+    <hyperlink ref="E50" r:id="rId82" xr:uid="{6A25DB3C-BF40-4EE0-9BE3-D8EE9416E70B}"/>
+    <hyperlink ref="E49" r:id="rId83" xr:uid="{9F9637BA-F5BB-4C3E-985F-A98B2433AE4C}"/>
+    <hyperlink ref="E60" r:id="rId84" xr:uid="{DC455A1F-DDC3-4E01-8F3C-FF22B1471400}"/>
+    <hyperlink ref="E68" r:id="rId85" xr:uid="{4817D7DF-651A-48E0-8C50-8C469CF0FD88}"/>
+    <hyperlink ref="E79" r:id="rId86" xr:uid="{7CA4E1C1-A622-44A0-9D31-E6295F59197A}"/>
+    <hyperlink ref="E90" r:id="rId87" xr:uid="{BFD9FF67-077B-4895-AAE2-1B2FA49F119A}"/>
+    <hyperlink ref="E91" r:id="rId88" xr:uid="{F36710D4-B3D1-4808-8155-5C4D00E7937F}"/>
+    <hyperlink ref="E92" r:id="rId89" xr:uid="{9BE4A31F-C492-42E5-BF85-D95FF51A9B09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId90"/>
 </worksheet>
 </file>
--- a/tree/tree.xlsx
+++ b/tree/tree.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\113-1\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94BB349-7716-4444-87D1-C6CD99E1F417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAD6FA1-CBFB-41C9-8D27-FB94C3337348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA16FEF3-4787-468B-94EE-76BE82BCE9D9}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="206">
   <si>
     <t>第一冊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -813,6 +814,30 @@
   </si>
   <si>
     <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUQkxIWlFORUhZWEhDV0RTWkQ0WDRGM1RHNS4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUNDhXR0dSWlIzRFE1M1VJNFhTSjFLVzNEVS4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUNzRBNFZGRFFJUlRQRkhSNlZQODVPNUJPSS4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUNjhWSzhXRlVKUVhWMVM3RUxRVEE5V1g0NS4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次段考名師猜題卷-1  (一般)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次段考名師猜題卷-2  (偏難)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUREJUSkhPNDM4RUVaS0lXWEMyTlBPRzVZMS4u</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1202,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B8439-9079-4DF4-BB05-62730084EFF9}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2065,43 +2090,43 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2115,10 +2140,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2132,10 +2157,10 @@
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2149,10 +2174,10 @@
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2166,13 +2191,13 @@
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2183,13 +2208,13 @@
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2200,61 +2225,61 @@
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
         <v>170</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2265,13 +2290,13 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2285,10 +2310,10 @@
         <v>3</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2302,10 +2327,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2319,13 +2344,13 @@
         <v>3</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2336,61 +2361,61 @@
         <v>3</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="70" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
         <v>170</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2401,13 +2426,13 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2421,10 +2446,10 @@
         <v>43</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2438,10 +2463,10 @@
         <v>43</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2455,10 +2480,10 @@
         <v>43</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2472,10 +2497,10 @@
         <v>43</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2489,13 +2514,13 @@
         <v>43</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2506,10 +2531,10 @@
         <v>43</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>151</v>
+        <v>48</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2523,27 +2548,27 @@
         <v>43</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>191</v>
+        <v>150</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2551,16 +2576,16 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2568,16 +2593,16 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2585,16 +2610,16 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2608,10 +2633,10 @@
         <v>86</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2625,10 +2650,10 @@
         <v>86</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2642,10 +2667,10 @@
         <v>86</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2659,10 +2684,10 @@
         <v>86</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2676,10 +2701,10 @@
         <v>86</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2690,16 +2715,16 @@
         <v>88</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2710,44 +2735,44 @@
         <v>86</v>
       </c>
       <c r="D89" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E91" s="4" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" t="s">
-        <v>194</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" t="s">
-        <v>194</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2761,24 +2786,92 @@
         <v>195</v>
       </c>
       <c r="D92" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="95" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2806,36 +2899,36 @@
     <hyperlink ref="E40" r:id="rId19" xr:uid="{3B2D22EC-2846-4137-B7ED-FB4158659405}"/>
     <hyperlink ref="E43" r:id="rId20" xr:uid="{3207C799-1CF5-4E2D-B796-360DAFACE1F9}"/>
     <hyperlink ref="E44" r:id="rId21" xr:uid="{BEA7FA42-89E9-4019-BF5C-50400806E16A}"/>
-    <hyperlink ref="E52" r:id="rId22" xr:uid="{C8E2BFDD-C2A3-4061-B59E-73DE313E9A62}"/>
-    <hyperlink ref="E54" r:id="rId23" xr:uid="{541C7A59-5466-45D6-BBC9-8CF4F77AF937}"/>
-    <hyperlink ref="E56" r:id="rId24" xr:uid="{181BFE64-8390-4397-A37A-06A3818938AE}"/>
-    <hyperlink ref="E57" r:id="rId25" xr:uid="{DCE3315E-7734-49E5-A6CC-1E9E1E356B22}"/>
-    <hyperlink ref="E61" r:id="rId26" xr:uid="{4D9068C8-BF06-4A7F-A930-07DB6296101A}"/>
-    <hyperlink ref="E63" r:id="rId27" xr:uid="{2CAF93AE-9D0B-41B4-B842-A3984AFEE00D}"/>
-    <hyperlink ref="E65" r:id="rId28" xr:uid="{22245AE2-5105-4B93-805A-26AEF1C7F4F0}"/>
-    <hyperlink ref="E66" r:id="rId29" xr:uid="{EE66B3EB-FDBB-4E68-BF60-CBF32AF7005B}"/>
-    <hyperlink ref="E69" r:id="rId30" xr:uid="{547DFF52-657F-4F7E-BCC5-7290F3A40128}"/>
-    <hyperlink ref="E71" r:id="rId31" xr:uid="{28BA62A5-9ED5-4417-8A46-7D642FB27F37}"/>
-    <hyperlink ref="E73" r:id="rId32" xr:uid="{40A43ED4-7F27-43DD-9972-C327ED9D217D}"/>
-    <hyperlink ref="E75" r:id="rId33" xr:uid="{1B549417-65FA-4BD0-A1D3-F6BF6AEA149A}"/>
-    <hyperlink ref="E76" r:id="rId34" xr:uid="{FD551BAB-4D6B-4A41-813C-16FC11C73455}"/>
-    <hyperlink ref="E78" r:id="rId35" xr:uid="{30138E3D-D3EC-42BD-BF88-6D4C928C65C7}"/>
+    <hyperlink ref="E54" r:id="rId22" xr:uid="{C8E2BFDD-C2A3-4061-B59E-73DE313E9A62}"/>
+    <hyperlink ref="E56" r:id="rId23" xr:uid="{541C7A59-5466-45D6-BBC9-8CF4F77AF937}"/>
+    <hyperlink ref="E58" r:id="rId24" xr:uid="{181BFE64-8390-4397-A37A-06A3818938AE}"/>
+    <hyperlink ref="E59" r:id="rId25" xr:uid="{DCE3315E-7734-49E5-A6CC-1E9E1E356B22}"/>
+    <hyperlink ref="E63" r:id="rId26" xr:uid="{4D9068C8-BF06-4A7F-A930-07DB6296101A}"/>
+    <hyperlink ref="E65" r:id="rId27" xr:uid="{2CAF93AE-9D0B-41B4-B842-A3984AFEE00D}"/>
+    <hyperlink ref="E67" r:id="rId28" xr:uid="{22245AE2-5105-4B93-805A-26AEF1C7F4F0}"/>
+    <hyperlink ref="E68" r:id="rId29" xr:uid="{EE66B3EB-FDBB-4E68-BF60-CBF32AF7005B}"/>
+    <hyperlink ref="E71" r:id="rId30" xr:uid="{547DFF52-657F-4F7E-BCC5-7290F3A40128}"/>
+    <hyperlink ref="E73" r:id="rId31" xr:uid="{28BA62A5-9ED5-4417-8A46-7D642FB27F37}"/>
+    <hyperlink ref="E75" r:id="rId32" xr:uid="{40A43ED4-7F27-43DD-9972-C327ED9D217D}"/>
+    <hyperlink ref="E77" r:id="rId33" xr:uid="{1B549417-65FA-4BD0-A1D3-F6BF6AEA149A}"/>
+    <hyperlink ref="E78" r:id="rId34" xr:uid="{FD551BAB-4D6B-4A41-813C-16FC11C73455}"/>
+    <hyperlink ref="E80" r:id="rId35" xr:uid="{30138E3D-D3EC-42BD-BF88-6D4C928C65C7}"/>
     <hyperlink ref="E45" r:id="rId36" xr:uid="{A5CDB2B5-5AED-4A5D-AF71-07935705FBA7}"/>
-    <hyperlink ref="E80" r:id="rId37" xr:uid="{17FE1708-570D-4066-BC87-91FAF27DF35F}"/>
-    <hyperlink ref="E82" r:id="rId38" xr:uid="{5A823F4B-5956-48DD-B21C-627B577A525E}"/>
-    <hyperlink ref="E84" r:id="rId39" xr:uid="{F0175EE8-C275-45F5-AD39-C32442D88DF8}"/>
-    <hyperlink ref="E86" r:id="rId40" xr:uid="{A80F23B3-BE81-454F-B96E-DA3C826D4A23}"/>
-    <hyperlink ref="E87" r:id="rId41" xr:uid="{60641F0B-9F7B-426D-9477-5B4E5C347306}"/>
-    <hyperlink ref="E53" r:id="rId42" xr:uid="{FCE2DB61-0F23-4672-8FEF-BAB7B2C693B9}"/>
-    <hyperlink ref="E55" r:id="rId43" xr:uid="{BE4900E5-57F5-49FA-8EFB-932CA4F14A72}"/>
-    <hyperlink ref="E62" r:id="rId44" xr:uid="{FF2CD268-C97C-4165-BF3D-921FDD2E5236}"/>
-    <hyperlink ref="E64" r:id="rId45" xr:uid="{BEC730D9-C2AA-4732-8316-4261F6FEAF7F}"/>
-    <hyperlink ref="E70" r:id="rId46" xr:uid="{45170047-FC17-4B17-9FF3-D2BCA6B0D3AC}"/>
-    <hyperlink ref="E72" r:id="rId47" xr:uid="{4B0E2471-8C14-45CC-8D8A-E676AD9C3C76}"/>
-    <hyperlink ref="E74" r:id="rId48" xr:uid="{1DB169EA-29D8-4F4B-97F3-4EA42A75CB71}"/>
-    <hyperlink ref="E81" r:id="rId49" xr:uid="{158ECEB8-C2A4-4788-8572-BB482DF12A22}"/>
-    <hyperlink ref="E83" r:id="rId50" xr:uid="{03ACB313-DAAA-4BDF-BD57-0F739B0C770A}"/>
-    <hyperlink ref="E85" r:id="rId51" xr:uid="{2AE24B5D-7D36-49D2-A8E3-F5CE6994C014}"/>
+    <hyperlink ref="E82" r:id="rId37" xr:uid="{17FE1708-570D-4066-BC87-91FAF27DF35F}"/>
+    <hyperlink ref="E84" r:id="rId38" xr:uid="{5A823F4B-5956-48DD-B21C-627B577A525E}"/>
+    <hyperlink ref="E86" r:id="rId39" xr:uid="{F0175EE8-C275-45F5-AD39-C32442D88DF8}"/>
+    <hyperlink ref="E88" r:id="rId40" xr:uid="{A80F23B3-BE81-454F-B96E-DA3C826D4A23}"/>
+    <hyperlink ref="E89" r:id="rId41" xr:uid="{60641F0B-9F7B-426D-9477-5B4E5C347306}"/>
+    <hyperlink ref="E55" r:id="rId42" xr:uid="{FCE2DB61-0F23-4672-8FEF-BAB7B2C693B9}"/>
+    <hyperlink ref="E57" r:id="rId43" xr:uid="{BE4900E5-57F5-49FA-8EFB-932CA4F14A72}"/>
+    <hyperlink ref="E64" r:id="rId44" xr:uid="{FF2CD268-C97C-4165-BF3D-921FDD2E5236}"/>
+    <hyperlink ref="E66" r:id="rId45" xr:uid="{BEC730D9-C2AA-4732-8316-4261F6FEAF7F}"/>
+    <hyperlink ref="E72" r:id="rId46" xr:uid="{45170047-FC17-4B17-9FF3-D2BCA6B0D3AC}"/>
+    <hyperlink ref="E74" r:id="rId47" xr:uid="{4B0E2471-8C14-45CC-8D8A-E676AD9C3C76}"/>
+    <hyperlink ref="E76" r:id="rId48" xr:uid="{1DB169EA-29D8-4F4B-97F3-4EA42A75CB71}"/>
+    <hyperlink ref="E83" r:id="rId49" xr:uid="{158ECEB8-C2A4-4788-8572-BB482DF12A22}"/>
+    <hyperlink ref="E85" r:id="rId50" xr:uid="{03ACB313-DAAA-4BDF-BD57-0F739B0C770A}"/>
+    <hyperlink ref="E87" r:id="rId51" xr:uid="{2AE24B5D-7D36-49D2-A8E3-F5CE6994C014}"/>
     <hyperlink ref="E3" r:id="rId52" xr:uid="{06F94887-83B7-4C36-A100-681A0CDA1E27}"/>
     <hyperlink ref="E5" r:id="rId53" xr:uid="{50364981-DF96-45B4-80F0-9D36D7BAD7F7}"/>
     <hyperlink ref="E7" r:id="rId54" xr:uid="{70EE6378-A898-4A41-86F7-70302DF4DF69}"/>
@@ -2851,14 +2944,14 @@
     <hyperlink ref="E33" r:id="rId64" xr:uid="{F5A69F80-6AB3-4E8B-A3C0-AD361E812132}"/>
     <hyperlink ref="E42" r:id="rId65" xr:uid="{24D8438C-FE4F-4637-92AE-237A46C131E7}"/>
     <hyperlink ref="E12" r:id="rId66" xr:uid="{0468683F-9003-40CE-94CB-C2AD7B010AE2}"/>
-    <hyperlink ref="E58" r:id="rId67" xr:uid="{68C2DD1D-CB0E-4542-8305-005A5E334982}"/>
-    <hyperlink ref="E67" r:id="rId68" xr:uid="{654D70BC-BCAE-49DB-85B1-69F10FDD494D}"/>
-    <hyperlink ref="E77" r:id="rId69" xr:uid="{99A79E60-5CAD-467F-AFF9-C914C7608470}"/>
-    <hyperlink ref="E59" r:id="rId70" xr:uid="{F755055B-DFBF-4EE9-8495-5D1D9BFB7CCD}"/>
+    <hyperlink ref="E60" r:id="rId67" xr:uid="{68C2DD1D-CB0E-4542-8305-005A5E334982}"/>
+    <hyperlink ref="E69" r:id="rId68" xr:uid="{654D70BC-BCAE-49DB-85B1-69F10FDD494D}"/>
+    <hyperlink ref="E79" r:id="rId69" xr:uid="{99A79E60-5CAD-467F-AFF9-C914C7608470}"/>
+    <hyperlink ref="E61" r:id="rId70" xr:uid="{F755055B-DFBF-4EE9-8495-5D1D9BFB7CCD}"/>
     <hyperlink ref="E13" r:id="rId71" xr:uid="{DD3CD9F1-825B-45CD-866E-E0A649DC2D28}"/>
     <hyperlink ref="E26" r:id="rId72" xr:uid="{725BDE53-9D92-4625-82B8-9FAA1C126AF0}"/>
     <hyperlink ref="E46" r:id="rId73" xr:uid="{7AEF9F87-595A-4D01-A87D-91D7CBC21DF9}"/>
-    <hyperlink ref="E88" r:id="rId74" xr:uid="{0C5E67D9-DB6E-4135-A109-C60661FA67A5}"/>
+    <hyperlink ref="E90" r:id="rId74" xr:uid="{0C5E67D9-DB6E-4135-A109-C60661FA67A5}"/>
     <hyperlink ref="E25" r:id="rId75" xr:uid="{439E8935-A01A-45D7-9EA2-5CA36F399253}"/>
     <hyperlink ref="E36" r:id="rId76" xr:uid="{E5033BD1-CB13-4F70-988F-029D139A0147}"/>
     <hyperlink ref="E47" r:id="rId77" xr:uid="{F279E869-822D-4C92-B8A8-98AC847D618E}"/>
@@ -2868,14 +2961,18 @@
     <hyperlink ref="E48" r:id="rId81" xr:uid="{0ADD4EFA-2AD9-4032-9201-AC107CF24D67}"/>
     <hyperlink ref="E50" r:id="rId82" xr:uid="{6A25DB3C-BF40-4EE0-9BE3-D8EE9416E70B}"/>
     <hyperlink ref="E49" r:id="rId83" xr:uid="{9F9637BA-F5BB-4C3E-985F-A98B2433AE4C}"/>
-    <hyperlink ref="E60" r:id="rId84" xr:uid="{DC455A1F-DDC3-4E01-8F3C-FF22B1471400}"/>
-    <hyperlink ref="E68" r:id="rId85" xr:uid="{4817D7DF-651A-48E0-8C50-8C469CF0FD88}"/>
-    <hyperlink ref="E79" r:id="rId86" xr:uid="{7CA4E1C1-A622-44A0-9D31-E6295F59197A}"/>
-    <hyperlink ref="E90" r:id="rId87" xr:uid="{BFD9FF67-077B-4895-AAE2-1B2FA49F119A}"/>
-    <hyperlink ref="E91" r:id="rId88" xr:uid="{F36710D4-B3D1-4808-8155-5C4D00E7937F}"/>
-    <hyperlink ref="E92" r:id="rId89" xr:uid="{9BE4A31F-C492-42E5-BF85-D95FF51A9B09}"/>
+    <hyperlink ref="E62" r:id="rId84" xr:uid="{DC455A1F-DDC3-4E01-8F3C-FF22B1471400}"/>
+    <hyperlink ref="E70" r:id="rId85" xr:uid="{4817D7DF-651A-48E0-8C50-8C469CF0FD88}"/>
+    <hyperlink ref="E81" r:id="rId86" xr:uid="{7CA4E1C1-A622-44A0-9D31-E6295F59197A}"/>
+    <hyperlink ref="E92" r:id="rId87" xr:uid="{BFD9FF67-077B-4895-AAE2-1B2FA49F119A}"/>
+    <hyperlink ref="E93" r:id="rId88" xr:uid="{F36710D4-B3D1-4808-8155-5C4D00E7937F}"/>
+    <hyperlink ref="E94" r:id="rId89" xr:uid="{9BE4A31F-C492-42E5-BF85-D95FF51A9B09}"/>
+    <hyperlink ref="E51" r:id="rId90" xr:uid="{E62FBBC2-8F64-47D7-9CAE-010151754ABF}"/>
+    <hyperlink ref="E52" r:id="rId91" xr:uid="{712A972F-1CEB-4DAD-A29B-E3AE82718C1E}"/>
+    <hyperlink ref="E95" r:id="rId92" xr:uid="{6DD73277-38AD-4105-84D3-FC579F0D49C6}"/>
+    <hyperlink ref="E96" r:id="rId93" xr:uid="{80F13F83-5709-4D7D-A11A-0A14626C3545}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId90"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId94"/>
 </worksheet>
 </file>
--- a/tree/tree.xlsx
+++ b/tree/tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\113-1\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAD6FA1-CBFB-41C9-8D27-FB94C3337348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C312579A-5FF1-45A1-96AC-2E49BB4B68EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA16FEF3-4787-468B-94EE-76BE82BCE9D9}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="208">
   <si>
     <t>第一冊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -838,6 +837,14 @@
   </si>
   <si>
     <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUREJUSkhPNDM4RUVaS0lXWEMyTlBPRzVZMS4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66fab9144f5370f6ac3fe280/interactive-image-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次段考學習地圖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1227,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B8439-9079-4DF4-BB05-62730084EFF9}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2124,26 +2131,26 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2157,10 +2164,10 @@
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2174,10 +2181,10 @@
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2191,10 +2198,10 @@
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2208,10 +2215,10 @@
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2225,13 +2232,13 @@
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2242,10 +2249,10 @@
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>147</v>
+        <v>26</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2259,44 +2266,44 @@
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
         <v>170</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2307,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2327,10 +2334,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2344,10 +2351,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2361,10 +2368,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2378,13 +2385,13 @@
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2395,44 +2402,44 @@
         <v>3</v>
       </c>
       <c r="D69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="71" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2443,13 +2450,13 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2463,10 +2470,10 @@
         <v>43</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2480,10 +2487,10 @@
         <v>43</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2497,10 +2504,10 @@
         <v>43</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2514,10 +2521,10 @@
         <v>43</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2531,10 +2538,10 @@
         <v>43</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2548,13 +2555,13 @@
         <v>43</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2565,13 +2572,13 @@
         <v>43</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2582,10 +2589,10 @@
         <v>43</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2593,16 +2600,16 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2610,16 +2617,16 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2627,16 +2634,16 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2650,10 +2657,10 @@
         <v>86</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2667,10 +2674,10 @@
         <v>86</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2684,10 +2691,10 @@
         <v>86</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2701,10 +2708,10 @@
         <v>86</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2718,10 +2725,10 @@
         <v>86</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2735,10 +2742,10 @@
         <v>86</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2749,16 +2756,16 @@
         <v>88</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2766,30 +2773,30 @@
         <v>88</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E92" s="4" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" t="s">
-        <v>194</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2803,10 +2810,10 @@
         <v>195</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2820,10 +2827,10 @@
         <v>195</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2837,10 +2844,10 @@
         <v>195</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2848,30 +2855,47 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E97" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2899,36 +2923,36 @@
     <hyperlink ref="E40" r:id="rId19" xr:uid="{3B2D22EC-2846-4137-B7ED-FB4158659405}"/>
     <hyperlink ref="E43" r:id="rId20" xr:uid="{3207C799-1CF5-4E2D-B796-360DAFACE1F9}"/>
     <hyperlink ref="E44" r:id="rId21" xr:uid="{BEA7FA42-89E9-4019-BF5C-50400806E16A}"/>
-    <hyperlink ref="E54" r:id="rId22" xr:uid="{C8E2BFDD-C2A3-4061-B59E-73DE313E9A62}"/>
-    <hyperlink ref="E56" r:id="rId23" xr:uid="{541C7A59-5466-45D6-BBC9-8CF4F77AF937}"/>
-    <hyperlink ref="E58" r:id="rId24" xr:uid="{181BFE64-8390-4397-A37A-06A3818938AE}"/>
-    <hyperlink ref="E59" r:id="rId25" xr:uid="{DCE3315E-7734-49E5-A6CC-1E9E1E356B22}"/>
-    <hyperlink ref="E63" r:id="rId26" xr:uid="{4D9068C8-BF06-4A7F-A930-07DB6296101A}"/>
-    <hyperlink ref="E65" r:id="rId27" xr:uid="{2CAF93AE-9D0B-41B4-B842-A3984AFEE00D}"/>
-    <hyperlink ref="E67" r:id="rId28" xr:uid="{22245AE2-5105-4B93-805A-26AEF1C7F4F0}"/>
-    <hyperlink ref="E68" r:id="rId29" xr:uid="{EE66B3EB-FDBB-4E68-BF60-CBF32AF7005B}"/>
-    <hyperlink ref="E71" r:id="rId30" xr:uid="{547DFF52-657F-4F7E-BCC5-7290F3A40128}"/>
-    <hyperlink ref="E73" r:id="rId31" xr:uid="{28BA62A5-9ED5-4417-8A46-7D642FB27F37}"/>
-    <hyperlink ref="E75" r:id="rId32" xr:uid="{40A43ED4-7F27-43DD-9972-C327ED9D217D}"/>
-    <hyperlink ref="E77" r:id="rId33" xr:uid="{1B549417-65FA-4BD0-A1D3-F6BF6AEA149A}"/>
-    <hyperlink ref="E78" r:id="rId34" xr:uid="{FD551BAB-4D6B-4A41-813C-16FC11C73455}"/>
-    <hyperlink ref="E80" r:id="rId35" xr:uid="{30138E3D-D3EC-42BD-BF88-6D4C928C65C7}"/>
+    <hyperlink ref="E55" r:id="rId22" xr:uid="{C8E2BFDD-C2A3-4061-B59E-73DE313E9A62}"/>
+    <hyperlink ref="E57" r:id="rId23" xr:uid="{541C7A59-5466-45D6-BBC9-8CF4F77AF937}"/>
+    <hyperlink ref="E59" r:id="rId24" xr:uid="{181BFE64-8390-4397-A37A-06A3818938AE}"/>
+    <hyperlink ref="E60" r:id="rId25" xr:uid="{DCE3315E-7734-49E5-A6CC-1E9E1E356B22}"/>
+    <hyperlink ref="E64" r:id="rId26" xr:uid="{4D9068C8-BF06-4A7F-A930-07DB6296101A}"/>
+    <hyperlink ref="E66" r:id="rId27" xr:uid="{2CAF93AE-9D0B-41B4-B842-A3984AFEE00D}"/>
+    <hyperlink ref="E68" r:id="rId28" xr:uid="{22245AE2-5105-4B93-805A-26AEF1C7F4F0}"/>
+    <hyperlink ref="E69" r:id="rId29" xr:uid="{EE66B3EB-FDBB-4E68-BF60-CBF32AF7005B}"/>
+    <hyperlink ref="E72" r:id="rId30" xr:uid="{547DFF52-657F-4F7E-BCC5-7290F3A40128}"/>
+    <hyperlink ref="E74" r:id="rId31" xr:uid="{28BA62A5-9ED5-4417-8A46-7D642FB27F37}"/>
+    <hyperlink ref="E76" r:id="rId32" xr:uid="{40A43ED4-7F27-43DD-9972-C327ED9D217D}"/>
+    <hyperlink ref="E78" r:id="rId33" xr:uid="{1B549417-65FA-4BD0-A1D3-F6BF6AEA149A}"/>
+    <hyperlink ref="E79" r:id="rId34" xr:uid="{FD551BAB-4D6B-4A41-813C-16FC11C73455}"/>
+    <hyperlink ref="E81" r:id="rId35" xr:uid="{30138E3D-D3EC-42BD-BF88-6D4C928C65C7}"/>
     <hyperlink ref="E45" r:id="rId36" xr:uid="{A5CDB2B5-5AED-4A5D-AF71-07935705FBA7}"/>
-    <hyperlink ref="E82" r:id="rId37" xr:uid="{17FE1708-570D-4066-BC87-91FAF27DF35F}"/>
-    <hyperlink ref="E84" r:id="rId38" xr:uid="{5A823F4B-5956-48DD-B21C-627B577A525E}"/>
-    <hyperlink ref="E86" r:id="rId39" xr:uid="{F0175EE8-C275-45F5-AD39-C32442D88DF8}"/>
-    <hyperlink ref="E88" r:id="rId40" xr:uid="{A80F23B3-BE81-454F-B96E-DA3C826D4A23}"/>
-    <hyperlink ref="E89" r:id="rId41" xr:uid="{60641F0B-9F7B-426D-9477-5B4E5C347306}"/>
-    <hyperlink ref="E55" r:id="rId42" xr:uid="{FCE2DB61-0F23-4672-8FEF-BAB7B2C693B9}"/>
-    <hyperlink ref="E57" r:id="rId43" xr:uid="{BE4900E5-57F5-49FA-8EFB-932CA4F14A72}"/>
-    <hyperlink ref="E64" r:id="rId44" xr:uid="{FF2CD268-C97C-4165-BF3D-921FDD2E5236}"/>
-    <hyperlink ref="E66" r:id="rId45" xr:uid="{BEC730D9-C2AA-4732-8316-4261F6FEAF7F}"/>
-    <hyperlink ref="E72" r:id="rId46" xr:uid="{45170047-FC17-4B17-9FF3-D2BCA6B0D3AC}"/>
-    <hyperlink ref="E74" r:id="rId47" xr:uid="{4B0E2471-8C14-45CC-8D8A-E676AD9C3C76}"/>
-    <hyperlink ref="E76" r:id="rId48" xr:uid="{1DB169EA-29D8-4F4B-97F3-4EA42A75CB71}"/>
-    <hyperlink ref="E83" r:id="rId49" xr:uid="{158ECEB8-C2A4-4788-8572-BB482DF12A22}"/>
-    <hyperlink ref="E85" r:id="rId50" xr:uid="{03ACB313-DAAA-4BDF-BD57-0F739B0C770A}"/>
-    <hyperlink ref="E87" r:id="rId51" xr:uid="{2AE24B5D-7D36-49D2-A8E3-F5CE6994C014}"/>
+    <hyperlink ref="E83" r:id="rId37" xr:uid="{17FE1708-570D-4066-BC87-91FAF27DF35F}"/>
+    <hyperlink ref="E85" r:id="rId38" xr:uid="{5A823F4B-5956-48DD-B21C-627B577A525E}"/>
+    <hyperlink ref="E87" r:id="rId39" xr:uid="{F0175EE8-C275-45F5-AD39-C32442D88DF8}"/>
+    <hyperlink ref="E89" r:id="rId40" xr:uid="{A80F23B3-BE81-454F-B96E-DA3C826D4A23}"/>
+    <hyperlink ref="E90" r:id="rId41" xr:uid="{60641F0B-9F7B-426D-9477-5B4E5C347306}"/>
+    <hyperlink ref="E56" r:id="rId42" xr:uid="{FCE2DB61-0F23-4672-8FEF-BAB7B2C693B9}"/>
+    <hyperlink ref="E58" r:id="rId43" xr:uid="{BE4900E5-57F5-49FA-8EFB-932CA4F14A72}"/>
+    <hyperlink ref="E65" r:id="rId44" xr:uid="{FF2CD268-C97C-4165-BF3D-921FDD2E5236}"/>
+    <hyperlink ref="E67" r:id="rId45" xr:uid="{BEC730D9-C2AA-4732-8316-4261F6FEAF7F}"/>
+    <hyperlink ref="E73" r:id="rId46" xr:uid="{45170047-FC17-4B17-9FF3-D2BCA6B0D3AC}"/>
+    <hyperlink ref="E75" r:id="rId47" xr:uid="{4B0E2471-8C14-45CC-8D8A-E676AD9C3C76}"/>
+    <hyperlink ref="E77" r:id="rId48" xr:uid="{1DB169EA-29D8-4F4B-97F3-4EA42A75CB71}"/>
+    <hyperlink ref="E84" r:id="rId49" xr:uid="{158ECEB8-C2A4-4788-8572-BB482DF12A22}"/>
+    <hyperlink ref="E86" r:id="rId50" xr:uid="{03ACB313-DAAA-4BDF-BD57-0F739B0C770A}"/>
+    <hyperlink ref="E88" r:id="rId51" xr:uid="{2AE24B5D-7D36-49D2-A8E3-F5CE6994C014}"/>
     <hyperlink ref="E3" r:id="rId52" xr:uid="{06F94887-83B7-4C36-A100-681A0CDA1E27}"/>
     <hyperlink ref="E5" r:id="rId53" xr:uid="{50364981-DF96-45B4-80F0-9D36D7BAD7F7}"/>
     <hyperlink ref="E7" r:id="rId54" xr:uid="{70EE6378-A898-4A41-86F7-70302DF4DF69}"/>
@@ -2944,14 +2968,14 @@
     <hyperlink ref="E33" r:id="rId64" xr:uid="{F5A69F80-6AB3-4E8B-A3C0-AD361E812132}"/>
     <hyperlink ref="E42" r:id="rId65" xr:uid="{24D8438C-FE4F-4637-92AE-237A46C131E7}"/>
     <hyperlink ref="E12" r:id="rId66" xr:uid="{0468683F-9003-40CE-94CB-C2AD7B010AE2}"/>
-    <hyperlink ref="E60" r:id="rId67" xr:uid="{68C2DD1D-CB0E-4542-8305-005A5E334982}"/>
-    <hyperlink ref="E69" r:id="rId68" xr:uid="{654D70BC-BCAE-49DB-85B1-69F10FDD494D}"/>
-    <hyperlink ref="E79" r:id="rId69" xr:uid="{99A79E60-5CAD-467F-AFF9-C914C7608470}"/>
-    <hyperlink ref="E61" r:id="rId70" xr:uid="{F755055B-DFBF-4EE9-8495-5D1D9BFB7CCD}"/>
+    <hyperlink ref="E61" r:id="rId67" xr:uid="{68C2DD1D-CB0E-4542-8305-005A5E334982}"/>
+    <hyperlink ref="E70" r:id="rId68" xr:uid="{654D70BC-BCAE-49DB-85B1-69F10FDD494D}"/>
+    <hyperlink ref="E80" r:id="rId69" xr:uid="{99A79E60-5CAD-467F-AFF9-C914C7608470}"/>
+    <hyperlink ref="E62" r:id="rId70" xr:uid="{F755055B-DFBF-4EE9-8495-5D1D9BFB7CCD}"/>
     <hyperlink ref="E13" r:id="rId71" xr:uid="{DD3CD9F1-825B-45CD-866E-E0A649DC2D28}"/>
     <hyperlink ref="E26" r:id="rId72" xr:uid="{725BDE53-9D92-4625-82B8-9FAA1C126AF0}"/>
     <hyperlink ref="E46" r:id="rId73" xr:uid="{7AEF9F87-595A-4D01-A87D-91D7CBC21DF9}"/>
-    <hyperlink ref="E90" r:id="rId74" xr:uid="{0C5E67D9-DB6E-4135-A109-C60661FA67A5}"/>
+    <hyperlink ref="E91" r:id="rId74" xr:uid="{0C5E67D9-DB6E-4135-A109-C60661FA67A5}"/>
     <hyperlink ref="E25" r:id="rId75" xr:uid="{439E8935-A01A-45D7-9EA2-5CA36F399253}"/>
     <hyperlink ref="E36" r:id="rId76" xr:uid="{E5033BD1-CB13-4F70-988F-029D139A0147}"/>
     <hyperlink ref="E47" r:id="rId77" xr:uid="{F279E869-822D-4C92-B8A8-98AC847D618E}"/>
@@ -2961,18 +2985,19 @@
     <hyperlink ref="E48" r:id="rId81" xr:uid="{0ADD4EFA-2AD9-4032-9201-AC107CF24D67}"/>
     <hyperlink ref="E50" r:id="rId82" xr:uid="{6A25DB3C-BF40-4EE0-9BE3-D8EE9416E70B}"/>
     <hyperlink ref="E49" r:id="rId83" xr:uid="{9F9637BA-F5BB-4C3E-985F-A98B2433AE4C}"/>
-    <hyperlink ref="E62" r:id="rId84" xr:uid="{DC455A1F-DDC3-4E01-8F3C-FF22B1471400}"/>
-    <hyperlink ref="E70" r:id="rId85" xr:uid="{4817D7DF-651A-48E0-8C50-8C469CF0FD88}"/>
-    <hyperlink ref="E81" r:id="rId86" xr:uid="{7CA4E1C1-A622-44A0-9D31-E6295F59197A}"/>
-    <hyperlink ref="E92" r:id="rId87" xr:uid="{BFD9FF67-077B-4895-AAE2-1B2FA49F119A}"/>
-    <hyperlink ref="E93" r:id="rId88" xr:uid="{F36710D4-B3D1-4808-8155-5C4D00E7937F}"/>
-    <hyperlink ref="E94" r:id="rId89" xr:uid="{9BE4A31F-C492-42E5-BF85-D95FF51A9B09}"/>
+    <hyperlink ref="E63" r:id="rId84" xr:uid="{DC455A1F-DDC3-4E01-8F3C-FF22B1471400}"/>
+    <hyperlink ref="E71" r:id="rId85" xr:uid="{4817D7DF-651A-48E0-8C50-8C469CF0FD88}"/>
+    <hyperlink ref="E82" r:id="rId86" xr:uid="{7CA4E1C1-A622-44A0-9D31-E6295F59197A}"/>
+    <hyperlink ref="E93" r:id="rId87" xr:uid="{BFD9FF67-077B-4895-AAE2-1B2FA49F119A}"/>
+    <hyperlink ref="E94" r:id="rId88" xr:uid="{F36710D4-B3D1-4808-8155-5C4D00E7937F}"/>
+    <hyperlink ref="E95" r:id="rId89" xr:uid="{9BE4A31F-C492-42E5-BF85-D95FF51A9B09}"/>
     <hyperlink ref="E51" r:id="rId90" xr:uid="{E62FBBC2-8F64-47D7-9CAE-010151754ABF}"/>
     <hyperlink ref="E52" r:id="rId91" xr:uid="{712A972F-1CEB-4DAD-A29B-E3AE82718C1E}"/>
-    <hyperlink ref="E95" r:id="rId92" xr:uid="{6DD73277-38AD-4105-84D3-FC579F0D49C6}"/>
-    <hyperlink ref="E96" r:id="rId93" xr:uid="{80F13F83-5709-4D7D-A11A-0A14626C3545}"/>
+    <hyperlink ref="E96" r:id="rId92" xr:uid="{6DD73277-38AD-4105-84D3-FC579F0D49C6}"/>
+    <hyperlink ref="E97" r:id="rId93" xr:uid="{80F13F83-5709-4D7D-A11A-0A14626C3545}"/>
+    <hyperlink ref="E53" r:id="rId94" xr:uid="{7FC6C1F9-1DA8-4A53-A072-1887A827FD5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId94"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId95"/>
 </worksheet>
 </file>
--- a/tree/tree.xlsx
+++ b/tree/tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\113-1\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C312579A-5FF1-45A1-96AC-2E49BB4B68EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36359A8-2702-4F40-AF88-9838C44F2F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA16FEF3-4787-468B-94EE-76BE82BCE9D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="212">
   <si>
     <t>第一冊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -845,6 +845,21 @@
   </si>
   <si>
     <t>第一次段考學習地圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/66fb65b190b137864526e500/interactive-image-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次段考學習影片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xtjh-yucc.github.io/math/YouTube 管理程式/YouTube 管理程式01.html</t>
+  </si>
+  <si>
+    <t>https://xtjh-yucc.github.io/math/YouTube 管理程式/YouTube 管理程式01.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1234,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B8439-9079-4DF4-BB05-62730084EFF9}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2148,26 +2163,26 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2181,10 +2196,10 @@
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2198,10 +2213,10 @@
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2215,10 +2230,10 @@
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2232,10 +2247,10 @@
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2249,13 +2264,13 @@
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -2266,10 +2281,10 @@
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>147</v>
+        <v>26</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2283,44 +2298,44 @@
         <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
         <v>170</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2331,13 +2346,13 @@
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2351,10 +2366,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2368,10 +2383,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2385,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2402,13 +2417,13 @@
         <v>3</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2419,44 +2434,44 @@
         <v>3</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="72" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
         <v>170</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2467,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2487,10 +2502,10 @@
         <v>43</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2504,10 +2519,10 @@
         <v>43</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2521,10 +2536,10 @@
         <v>43</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2538,10 +2553,10 @@
         <v>43</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2555,10 +2570,10 @@
         <v>43</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2572,13 +2587,13 @@
         <v>43</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2589,13 +2604,13 @@
         <v>43</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2606,10 +2621,10 @@
         <v>43</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2617,16 +2632,16 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2634,16 +2649,16 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2651,16 +2666,16 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2674,10 +2689,10 @@
         <v>86</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2691,10 +2706,10 @@
         <v>86</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2708,10 +2723,10 @@
         <v>86</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2725,10 +2740,10 @@
         <v>86</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2742,10 +2757,10 @@
         <v>86</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2759,10 +2774,10 @@
         <v>86</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2773,16 +2788,16 @@
         <v>88</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -2790,30 +2805,30 @@
         <v>88</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E93" s="4" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93" t="s">
-        <v>194</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2827,10 +2842,10 @@
         <v>195</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2844,10 +2859,10 @@
         <v>195</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2861,10 +2876,10 @@
         <v>195</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2872,30 +2887,81 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="99" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2923,36 +2989,36 @@
     <hyperlink ref="E40" r:id="rId19" xr:uid="{3B2D22EC-2846-4137-B7ED-FB4158659405}"/>
     <hyperlink ref="E43" r:id="rId20" xr:uid="{3207C799-1CF5-4E2D-B796-360DAFACE1F9}"/>
     <hyperlink ref="E44" r:id="rId21" xr:uid="{BEA7FA42-89E9-4019-BF5C-50400806E16A}"/>
-    <hyperlink ref="E55" r:id="rId22" xr:uid="{C8E2BFDD-C2A3-4061-B59E-73DE313E9A62}"/>
-    <hyperlink ref="E57" r:id="rId23" xr:uid="{541C7A59-5466-45D6-BBC9-8CF4F77AF937}"/>
-    <hyperlink ref="E59" r:id="rId24" xr:uid="{181BFE64-8390-4397-A37A-06A3818938AE}"/>
-    <hyperlink ref="E60" r:id="rId25" xr:uid="{DCE3315E-7734-49E5-A6CC-1E9E1E356B22}"/>
-    <hyperlink ref="E64" r:id="rId26" xr:uid="{4D9068C8-BF06-4A7F-A930-07DB6296101A}"/>
-    <hyperlink ref="E66" r:id="rId27" xr:uid="{2CAF93AE-9D0B-41B4-B842-A3984AFEE00D}"/>
-    <hyperlink ref="E68" r:id="rId28" xr:uid="{22245AE2-5105-4B93-805A-26AEF1C7F4F0}"/>
-    <hyperlink ref="E69" r:id="rId29" xr:uid="{EE66B3EB-FDBB-4E68-BF60-CBF32AF7005B}"/>
-    <hyperlink ref="E72" r:id="rId30" xr:uid="{547DFF52-657F-4F7E-BCC5-7290F3A40128}"/>
-    <hyperlink ref="E74" r:id="rId31" xr:uid="{28BA62A5-9ED5-4417-8A46-7D642FB27F37}"/>
-    <hyperlink ref="E76" r:id="rId32" xr:uid="{40A43ED4-7F27-43DD-9972-C327ED9D217D}"/>
-    <hyperlink ref="E78" r:id="rId33" xr:uid="{1B549417-65FA-4BD0-A1D3-F6BF6AEA149A}"/>
-    <hyperlink ref="E79" r:id="rId34" xr:uid="{FD551BAB-4D6B-4A41-813C-16FC11C73455}"/>
-    <hyperlink ref="E81" r:id="rId35" xr:uid="{30138E3D-D3EC-42BD-BF88-6D4C928C65C7}"/>
+    <hyperlink ref="E56" r:id="rId22" xr:uid="{C8E2BFDD-C2A3-4061-B59E-73DE313E9A62}"/>
+    <hyperlink ref="E58" r:id="rId23" xr:uid="{541C7A59-5466-45D6-BBC9-8CF4F77AF937}"/>
+    <hyperlink ref="E60" r:id="rId24" xr:uid="{181BFE64-8390-4397-A37A-06A3818938AE}"/>
+    <hyperlink ref="E61" r:id="rId25" xr:uid="{DCE3315E-7734-49E5-A6CC-1E9E1E356B22}"/>
+    <hyperlink ref="E65" r:id="rId26" xr:uid="{4D9068C8-BF06-4A7F-A930-07DB6296101A}"/>
+    <hyperlink ref="E67" r:id="rId27" xr:uid="{2CAF93AE-9D0B-41B4-B842-A3984AFEE00D}"/>
+    <hyperlink ref="E69" r:id="rId28" xr:uid="{22245AE2-5105-4B93-805A-26AEF1C7F4F0}"/>
+    <hyperlink ref="E70" r:id="rId29" xr:uid="{EE66B3EB-FDBB-4E68-BF60-CBF32AF7005B}"/>
+    <hyperlink ref="E73" r:id="rId30" xr:uid="{547DFF52-657F-4F7E-BCC5-7290F3A40128}"/>
+    <hyperlink ref="E75" r:id="rId31" xr:uid="{28BA62A5-9ED5-4417-8A46-7D642FB27F37}"/>
+    <hyperlink ref="E77" r:id="rId32" xr:uid="{40A43ED4-7F27-43DD-9972-C327ED9D217D}"/>
+    <hyperlink ref="E79" r:id="rId33" xr:uid="{1B549417-65FA-4BD0-A1D3-F6BF6AEA149A}"/>
+    <hyperlink ref="E80" r:id="rId34" xr:uid="{FD551BAB-4D6B-4A41-813C-16FC11C73455}"/>
+    <hyperlink ref="E82" r:id="rId35" xr:uid="{30138E3D-D3EC-42BD-BF88-6D4C928C65C7}"/>
     <hyperlink ref="E45" r:id="rId36" xr:uid="{A5CDB2B5-5AED-4A5D-AF71-07935705FBA7}"/>
-    <hyperlink ref="E83" r:id="rId37" xr:uid="{17FE1708-570D-4066-BC87-91FAF27DF35F}"/>
-    <hyperlink ref="E85" r:id="rId38" xr:uid="{5A823F4B-5956-48DD-B21C-627B577A525E}"/>
-    <hyperlink ref="E87" r:id="rId39" xr:uid="{F0175EE8-C275-45F5-AD39-C32442D88DF8}"/>
-    <hyperlink ref="E89" r:id="rId40" xr:uid="{A80F23B3-BE81-454F-B96E-DA3C826D4A23}"/>
-    <hyperlink ref="E90" r:id="rId41" xr:uid="{60641F0B-9F7B-426D-9477-5B4E5C347306}"/>
-    <hyperlink ref="E56" r:id="rId42" xr:uid="{FCE2DB61-0F23-4672-8FEF-BAB7B2C693B9}"/>
-    <hyperlink ref="E58" r:id="rId43" xr:uid="{BE4900E5-57F5-49FA-8EFB-932CA4F14A72}"/>
-    <hyperlink ref="E65" r:id="rId44" xr:uid="{FF2CD268-C97C-4165-BF3D-921FDD2E5236}"/>
-    <hyperlink ref="E67" r:id="rId45" xr:uid="{BEC730D9-C2AA-4732-8316-4261F6FEAF7F}"/>
-    <hyperlink ref="E73" r:id="rId46" xr:uid="{45170047-FC17-4B17-9FF3-D2BCA6B0D3AC}"/>
-    <hyperlink ref="E75" r:id="rId47" xr:uid="{4B0E2471-8C14-45CC-8D8A-E676AD9C3C76}"/>
-    <hyperlink ref="E77" r:id="rId48" xr:uid="{1DB169EA-29D8-4F4B-97F3-4EA42A75CB71}"/>
-    <hyperlink ref="E84" r:id="rId49" xr:uid="{158ECEB8-C2A4-4788-8572-BB482DF12A22}"/>
-    <hyperlink ref="E86" r:id="rId50" xr:uid="{03ACB313-DAAA-4BDF-BD57-0F739B0C770A}"/>
-    <hyperlink ref="E88" r:id="rId51" xr:uid="{2AE24B5D-7D36-49D2-A8E3-F5CE6994C014}"/>
+    <hyperlink ref="E84" r:id="rId37" xr:uid="{17FE1708-570D-4066-BC87-91FAF27DF35F}"/>
+    <hyperlink ref="E86" r:id="rId38" xr:uid="{5A823F4B-5956-48DD-B21C-627B577A525E}"/>
+    <hyperlink ref="E88" r:id="rId39" xr:uid="{F0175EE8-C275-45F5-AD39-C32442D88DF8}"/>
+    <hyperlink ref="E90" r:id="rId40" xr:uid="{A80F23B3-BE81-454F-B96E-DA3C826D4A23}"/>
+    <hyperlink ref="E91" r:id="rId41" xr:uid="{60641F0B-9F7B-426D-9477-5B4E5C347306}"/>
+    <hyperlink ref="E57" r:id="rId42" xr:uid="{FCE2DB61-0F23-4672-8FEF-BAB7B2C693B9}"/>
+    <hyperlink ref="E59" r:id="rId43" xr:uid="{BE4900E5-57F5-49FA-8EFB-932CA4F14A72}"/>
+    <hyperlink ref="E66" r:id="rId44" xr:uid="{FF2CD268-C97C-4165-BF3D-921FDD2E5236}"/>
+    <hyperlink ref="E68" r:id="rId45" xr:uid="{BEC730D9-C2AA-4732-8316-4261F6FEAF7F}"/>
+    <hyperlink ref="E74" r:id="rId46" xr:uid="{45170047-FC17-4B17-9FF3-D2BCA6B0D3AC}"/>
+    <hyperlink ref="E76" r:id="rId47" xr:uid="{4B0E2471-8C14-45CC-8D8A-E676AD9C3C76}"/>
+    <hyperlink ref="E78" r:id="rId48" xr:uid="{1DB169EA-29D8-4F4B-97F3-4EA42A75CB71}"/>
+    <hyperlink ref="E85" r:id="rId49" xr:uid="{158ECEB8-C2A4-4788-8572-BB482DF12A22}"/>
+    <hyperlink ref="E87" r:id="rId50" xr:uid="{03ACB313-DAAA-4BDF-BD57-0F739B0C770A}"/>
+    <hyperlink ref="E89" r:id="rId51" xr:uid="{2AE24B5D-7D36-49D2-A8E3-F5CE6994C014}"/>
     <hyperlink ref="E3" r:id="rId52" xr:uid="{06F94887-83B7-4C36-A100-681A0CDA1E27}"/>
     <hyperlink ref="E5" r:id="rId53" xr:uid="{50364981-DF96-45B4-80F0-9D36D7BAD7F7}"/>
     <hyperlink ref="E7" r:id="rId54" xr:uid="{70EE6378-A898-4A41-86F7-70302DF4DF69}"/>
@@ -2968,14 +3034,14 @@
     <hyperlink ref="E33" r:id="rId64" xr:uid="{F5A69F80-6AB3-4E8B-A3C0-AD361E812132}"/>
     <hyperlink ref="E42" r:id="rId65" xr:uid="{24D8438C-FE4F-4637-92AE-237A46C131E7}"/>
     <hyperlink ref="E12" r:id="rId66" xr:uid="{0468683F-9003-40CE-94CB-C2AD7B010AE2}"/>
-    <hyperlink ref="E61" r:id="rId67" xr:uid="{68C2DD1D-CB0E-4542-8305-005A5E334982}"/>
-    <hyperlink ref="E70" r:id="rId68" xr:uid="{654D70BC-BCAE-49DB-85B1-69F10FDD494D}"/>
-    <hyperlink ref="E80" r:id="rId69" xr:uid="{99A79E60-5CAD-467F-AFF9-C914C7608470}"/>
-    <hyperlink ref="E62" r:id="rId70" xr:uid="{F755055B-DFBF-4EE9-8495-5D1D9BFB7CCD}"/>
+    <hyperlink ref="E62" r:id="rId67" xr:uid="{68C2DD1D-CB0E-4542-8305-005A5E334982}"/>
+    <hyperlink ref="E71" r:id="rId68" xr:uid="{654D70BC-BCAE-49DB-85B1-69F10FDD494D}"/>
+    <hyperlink ref="E81" r:id="rId69" xr:uid="{99A79E60-5CAD-467F-AFF9-C914C7608470}"/>
+    <hyperlink ref="E63" r:id="rId70" xr:uid="{F755055B-DFBF-4EE9-8495-5D1D9BFB7CCD}"/>
     <hyperlink ref="E13" r:id="rId71" xr:uid="{DD3CD9F1-825B-45CD-866E-E0A649DC2D28}"/>
     <hyperlink ref="E26" r:id="rId72" xr:uid="{725BDE53-9D92-4625-82B8-9FAA1C126AF0}"/>
     <hyperlink ref="E46" r:id="rId73" xr:uid="{7AEF9F87-595A-4D01-A87D-91D7CBC21DF9}"/>
-    <hyperlink ref="E91" r:id="rId74" xr:uid="{0C5E67D9-DB6E-4135-A109-C60661FA67A5}"/>
+    <hyperlink ref="E92" r:id="rId74" xr:uid="{0C5E67D9-DB6E-4135-A109-C60661FA67A5}"/>
     <hyperlink ref="E25" r:id="rId75" xr:uid="{439E8935-A01A-45D7-9EA2-5CA36F399253}"/>
     <hyperlink ref="E36" r:id="rId76" xr:uid="{E5033BD1-CB13-4F70-988F-029D139A0147}"/>
     <hyperlink ref="E47" r:id="rId77" xr:uid="{F279E869-822D-4C92-B8A8-98AC847D618E}"/>
@@ -2985,19 +3051,21 @@
     <hyperlink ref="E48" r:id="rId81" xr:uid="{0ADD4EFA-2AD9-4032-9201-AC107CF24D67}"/>
     <hyperlink ref="E50" r:id="rId82" xr:uid="{6A25DB3C-BF40-4EE0-9BE3-D8EE9416E70B}"/>
     <hyperlink ref="E49" r:id="rId83" xr:uid="{9F9637BA-F5BB-4C3E-985F-A98B2433AE4C}"/>
-    <hyperlink ref="E63" r:id="rId84" xr:uid="{DC455A1F-DDC3-4E01-8F3C-FF22B1471400}"/>
-    <hyperlink ref="E71" r:id="rId85" xr:uid="{4817D7DF-651A-48E0-8C50-8C469CF0FD88}"/>
-    <hyperlink ref="E82" r:id="rId86" xr:uid="{7CA4E1C1-A622-44A0-9D31-E6295F59197A}"/>
-    <hyperlink ref="E93" r:id="rId87" xr:uid="{BFD9FF67-077B-4895-AAE2-1B2FA49F119A}"/>
-    <hyperlink ref="E94" r:id="rId88" xr:uid="{F36710D4-B3D1-4808-8155-5C4D00E7937F}"/>
-    <hyperlink ref="E95" r:id="rId89" xr:uid="{9BE4A31F-C492-42E5-BF85-D95FF51A9B09}"/>
+    <hyperlink ref="E64" r:id="rId84" xr:uid="{DC455A1F-DDC3-4E01-8F3C-FF22B1471400}"/>
+    <hyperlink ref="E72" r:id="rId85" xr:uid="{4817D7DF-651A-48E0-8C50-8C469CF0FD88}"/>
+    <hyperlink ref="E83" r:id="rId86" xr:uid="{7CA4E1C1-A622-44A0-9D31-E6295F59197A}"/>
+    <hyperlink ref="E94" r:id="rId87" xr:uid="{BFD9FF67-077B-4895-AAE2-1B2FA49F119A}"/>
+    <hyperlink ref="E95" r:id="rId88" xr:uid="{F36710D4-B3D1-4808-8155-5C4D00E7937F}"/>
+    <hyperlink ref="E96" r:id="rId89" xr:uid="{9BE4A31F-C492-42E5-BF85-D95FF51A9B09}"/>
     <hyperlink ref="E51" r:id="rId90" xr:uid="{E62FBBC2-8F64-47D7-9CAE-010151754ABF}"/>
     <hyperlink ref="E52" r:id="rId91" xr:uid="{712A972F-1CEB-4DAD-A29B-E3AE82718C1E}"/>
-    <hyperlink ref="E96" r:id="rId92" xr:uid="{6DD73277-38AD-4105-84D3-FC579F0D49C6}"/>
-    <hyperlink ref="E97" r:id="rId93" xr:uid="{80F13F83-5709-4D7D-A11A-0A14626C3545}"/>
+    <hyperlink ref="E97" r:id="rId92" xr:uid="{6DD73277-38AD-4105-84D3-FC579F0D49C6}"/>
+    <hyperlink ref="E98" r:id="rId93" xr:uid="{80F13F83-5709-4D7D-A11A-0A14626C3545}"/>
     <hyperlink ref="E53" r:id="rId94" xr:uid="{7FC6C1F9-1DA8-4A53-A072-1887A827FD5B}"/>
+    <hyperlink ref="E99" r:id="rId95" xr:uid="{35A8584C-99EF-480E-98D9-7BF408C19CB4}"/>
+    <hyperlink ref="E100" r:id="rId96" xr:uid="{42F535A1-D763-4FA7-A8B5-2CF6FE42CF4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId95"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId97"/>
 </worksheet>
 </file>
--- a/tree/tree.xlsx
+++ b/tree/tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\113-1\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36359A8-2702-4F40-AF88-9838C44F2F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D3322F-DD84-491C-994A-88FC4BCBE756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA16FEF3-4787-468B-94EE-76BE82BCE9D9}"/>
   </bookViews>
@@ -859,7 +859,7 @@
     <t>https://xtjh-yucc.github.io/math/YouTube 管理程式/YouTube 管理程式01.html</t>
   </si>
   <si>
-    <t>https://xtjh-yucc.github.io/math/YouTube 管理程式/YouTube 管理程式01.html</t>
+    <t>https://xtjh-yucc.github.io/math/YouTube 管理程式081/YouTube 管理程式01.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B8439-9079-4DF4-BB05-62730084EFF9}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/tree/tree.xlsx
+++ b/tree/tree.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\113-1\tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\113-1\tree03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D3322F-DD84-491C-994A-88FC4BCBE756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31EFC94-B1F9-47AB-8DEA-23E3119C661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA16FEF3-4787-468B-94EE-76BE82BCE9D9}"/>
   </bookViews>

--- a/tree/tree.xlsx
+++ b/tree/tree.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\113-1\tree03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\113-1\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31EFC94-B1F9-47AB-8DEA-23E3119C661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9BB828-C794-4A5A-A304-38822BA0BD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA16FEF3-4787-468B-94EE-76BE82BCE9D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="228">
   <si>
     <t>第一冊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -857,9 +857,64 @@
   </si>
   <si>
     <t>https://xtjh-yucc.github.io/math/YouTube 管理程式/YouTube 管理程式01.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://xtjh-yucc.github.io/math/YouTube 管理程式081/YouTube 管理程式01.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUNUozTU9OVkFHMFhCNEUwUUZMWlg5WVZGMS4u</t>
+  </si>
+  <si>
+    <t>BEST卷 1-1 乘法公式</t>
+  </si>
+  <si>
+    <t>BEST卷 1-2 多項式與其加減運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUREZYRUo0VTNOVlhUWTVRMDQzMlRVTEVZTi4u</t>
+  </si>
+  <si>
+    <t>BEST卷 1-3 多項式的乘除運算</t>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUOEROVkg1TzBLUFczT1FRNTgwTDJBOEpBOS4u</t>
+  </si>
+  <si>
+    <t>BEST卷 2-1 平方根與近似值</t>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUOEIyTkJQTUhCQVZQRDZaQTlLVUdMVEZQNC4u</t>
+  </si>
+  <si>
+    <t>BEST卷 1-1 負數與數線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEST卷 1-2 整數的加減</t>
+  </si>
+  <si>
+    <t>BEST卷 1-3 整數的乘除與四則運算</t>
+  </si>
+  <si>
+    <t>BEST卷 1-4 指數記法與科學記號</t>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUQ05TMTcyRjhNRkJCOVNNNllSMDZBUjlSTi4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUM0ZORksyS1pLMDEySldPSEIxRTZIMjRGWi4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VURUZZMllOMEQ3VTlWUUtPNFM3QkxBUERJNy4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUQVEyUU5XUDBOVFdPTEUwR0Q1SVU2NzQ2WS4u</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1249,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B8439-9079-4DF4-BB05-62730084EFF9}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1500,7 +1555,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1508,13 +1563,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>220</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1525,13 +1580,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1545,10 +1600,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1562,10 +1617,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1579,10 +1634,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1596,10 +1651,10 @@
         <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1613,10 +1668,10 @@
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1630,10 +1685,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1647,10 +1702,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1664,10 +1719,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1681,10 +1736,10 @@
         <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1698,47 +1753,47 @@
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1746,13 +1801,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>130</v>
+        <v>221</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1766,10 +1821,10 @@
         <v>43</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1783,10 +1838,10 @@
         <v>43</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1800,10 +1855,10 @@
         <v>43</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1817,10 +1872,10 @@
         <v>43</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1834,10 +1889,10 @@
         <v>43</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1851,10 +1906,10 @@
         <v>43</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1868,10 +1923,10 @@
         <v>43</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1879,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1899,13 +1954,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1913,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1933,13 +1988,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1950,13 +2005,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1970,10 +2025,10 @@
         <v>54</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1987,10 +2042,10 @@
         <v>54</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2004,10 +2059,10 @@
         <v>54</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2021,10 +2076,10 @@
         <v>54</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2038,10 +2093,10 @@
         <v>54</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>163</v>
+        <v>57</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2055,10 +2110,10 @@
         <v>54</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2066,16 +2121,16 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2083,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2100,16 +2155,16 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2123,10 +2178,10 @@
         <v>180</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2134,16 +2189,16 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2151,16 +2206,16 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2168,89 +2223,89 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D57" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2264,10 +2319,10 @@
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2281,13 +2336,13 @@
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -2298,13 +2353,13 @@
         <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2315,27 +2370,27 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>187</v>
+        <v>24</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2346,16 +2401,16 @@
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2363,16 +2418,16 @@
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2380,33 +2435,33 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2414,13 +2469,13 @@
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>70</v>
+        <v>213</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2431,16 +2486,16 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2451,27 +2506,27 @@
         <v>3</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>174</v>
+        <v>3</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>189</v>
+        <v>69</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2482,13 +2537,13 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2499,13 +2554,13 @@
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2516,16 +2571,16 @@
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2533,33 +2588,33 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2567,13 +2622,13 @@
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>214</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2584,13 +2639,13 @@
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2604,13 +2659,13 @@
         <v>43</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2621,10 +2676,10 @@
         <v>43</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>151</v>
+        <v>75</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2638,10 +2693,10 @@
         <v>43</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2649,16 +2704,16 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>191</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2666,16 +2721,16 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2683,16 +2738,16 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2700,33 +2755,33 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>110</v>
+        <v>150</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2734,16 +2789,16 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2751,16 +2806,16 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2768,16 +2823,16 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2785,16 +2840,16 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2805,16 +2860,16 @@
         <v>88</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2825,81 +2880,81 @@
         <v>86</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2910,13 +2965,13 @@
         <v>86</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -2924,16 +2979,16 @@
         <v>88</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -2944,24 +2999,160 @@
         <v>86</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>88</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>88</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E108" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2974,98 +3165,103 @@
     <hyperlink ref="E8" r:id="rId4" xr:uid="{F5FE5235-8B90-4E68-9C2B-BF277273AFFC}"/>
     <hyperlink ref="E10" r:id="rId5" xr:uid="{A6BA6C8E-1DA7-4BE1-ABC4-55AE627E048D}"/>
     <hyperlink ref="E11" r:id="rId6" xr:uid="{3A15301E-D7DF-4914-997E-2D1B5B29BA5C}"/>
-    <hyperlink ref="E15" r:id="rId7" xr:uid="{10EA1FC3-5879-4084-8B79-7596CB4DE3E0}"/>
-    <hyperlink ref="E17" r:id="rId8" xr:uid="{94C8E539-F252-4D0F-A51E-783637A22268}"/>
-    <hyperlink ref="E19" r:id="rId9" xr:uid="{4D066FA2-3217-4346-A73C-B62071585918}"/>
-    <hyperlink ref="E21" r:id="rId10" xr:uid="{851B7892-8C74-4729-AA27-1893AF66592B}"/>
-    <hyperlink ref="E28" r:id="rId11" xr:uid="{1326EE2C-84A9-4DBD-95E6-69EC7E4CF665}"/>
-    <hyperlink ref="E23" r:id="rId12" xr:uid="{242C66EC-93CB-4704-A3C7-E5F52A62A2C2}"/>
-    <hyperlink ref="E24" r:id="rId13" xr:uid="{2CB42F31-F756-4661-A727-69B2AF01E560}"/>
-    <hyperlink ref="E30" r:id="rId14" xr:uid="{1E2F087E-0A2B-4CE5-BE9D-852710A1DE5C}"/>
-    <hyperlink ref="E32" r:id="rId15" xr:uid="{E9E70D19-22E7-42F5-A1EE-4D011158CA7E}"/>
-    <hyperlink ref="E34" r:id="rId16" xr:uid="{0BCEFD85-E1A3-4036-AC53-3568DB4D1369}"/>
-    <hyperlink ref="E35" r:id="rId17" xr:uid="{15E6317A-4389-41A3-9EC4-5687851C8247}"/>
-    <hyperlink ref="E38" r:id="rId18" xr:uid="{72CCB03C-AEF8-48FC-AB8A-8BFEC065735D}"/>
-    <hyperlink ref="E40" r:id="rId19" xr:uid="{3B2D22EC-2846-4137-B7ED-FB4158659405}"/>
-    <hyperlink ref="E43" r:id="rId20" xr:uid="{3207C799-1CF5-4E2D-B796-360DAFACE1F9}"/>
-    <hyperlink ref="E44" r:id="rId21" xr:uid="{BEA7FA42-89E9-4019-BF5C-50400806E16A}"/>
-    <hyperlink ref="E56" r:id="rId22" xr:uid="{C8E2BFDD-C2A3-4061-B59E-73DE313E9A62}"/>
-    <hyperlink ref="E58" r:id="rId23" xr:uid="{541C7A59-5466-45D6-BBC9-8CF4F77AF937}"/>
-    <hyperlink ref="E60" r:id="rId24" xr:uid="{181BFE64-8390-4397-A37A-06A3818938AE}"/>
-    <hyperlink ref="E61" r:id="rId25" xr:uid="{DCE3315E-7734-49E5-A6CC-1E9E1E356B22}"/>
-    <hyperlink ref="E65" r:id="rId26" xr:uid="{4D9068C8-BF06-4A7F-A930-07DB6296101A}"/>
-    <hyperlink ref="E67" r:id="rId27" xr:uid="{2CAF93AE-9D0B-41B4-B842-A3984AFEE00D}"/>
-    <hyperlink ref="E69" r:id="rId28" xr:uid="{22245AE2-5105-4B93-805A-26AEF1C7F4F0}"/>
-    <hyperlink ref="E70" r:id="rId29" xr:uid="{EE66B3EB-FDBB-4E68-BF60-CBF32AF7005B}"/>
-    <hyperlink ref="E73" r:id="rId30" xr:uid="{547DFF52-657F-4F7E-BCC5-7290F3A40128}"/>
-    <hyperlink ref="E75" r:id="rId31" xr:uid="{28BA62A5-9ED5-4417-8A46-7D642FB27F37}"/>
-    <hyperlink ref="E77" r:id="rId32" xr:uid="{40A43ED4-7F27-43DD-9972-C327ED9D217D}"/>
-    <hyperlink ref="E79" r:id="rId33" xr:uid="{1B549417-65FA-4BD0-A1D3-F6BF6AEA149A}"/>
-    <hyperlink ref="E80" r:id="rId34" xr:uid="{FD551BAB-4D6B-4A41-813C-16FC11C73455}"/>
-    <hyperlink ref="E82" r:id="rId35" xr:uid="{30138E3D-D3EC-42BD-BF88-6D4C928C65C7}"/>
-    <hyperlink ref="E45" r:id="rId36" xr:uid="{A5CDB2B5-5AED-4A5D-AF71-07935705FBA7}"/>
-    <hyperlink ref="E84" r:id="rId37" xr:uid="{17FE1708-570D-4066-BC87-91FAF27DF35F}"/>
-    <hyperlink ref="E86" r:id="rId38" xr:uid="{5A823F4B-5956-48DD-B21C-627B577A525E}"/>
-    <hyperlink ref="E88" r:id="rId39" xr:uid="{F0175EE8-C275-45F5-AD39-C32442D88DF8}"/>
-    <hyperlink ref="E90" r:id="rId40" xr:uid="{A80F23B3-BE81-454F-B96E-DA3C826D4A23}"/>
-    <hyperlink ref="E91" r:id="rId41" xr:uid="{60641F0B-9F7B-426D-9477-5B4E5C347306}"/>
-    <hyperlink ref="E57" r:id="rId42" xr:uid="{FCE2DB61-0F23-4672-8FEF-BAB7B2C693B9}"/>
-    <hyperlink ref="E59" r:id="rId43" xr:uid="{BE4900E5-57F5-49FA-8EFB-932CA4F14A72}"/>
-    <hyperlink ref="E66" r:id="rId44" xr:uid="{FF2CD268-C97C-4165-BF3D-921FDD2E5236}"/>
-    <hyperlink ref="E68" r:id="rId45" xr:uid="{BEC730D9-C2AA-4732-8316-4261F6FEAF7F}"/>
-    <hyperlink ref="E74" r:id="rId46" xr:uid="{45170047-FC17-4B17-9FF3-D2BCA6B0D3AC}"/>
-    <hyperlink ref="E76" r:id="rId47" xr:uid="{4B0E2471-8C14-45CC-8D8A-E676AD9C3C76}"/>
-    <hyperlink ref="E78" r:id="rId48" xr:uid="{1DB169EA-29D8-4F4B-97F3-4EA42A75CB71}"/>
-    <hyperlink ref="E85" r:id="rId49" xr:uid="{158ECEB8-C2A4-4788-8572-BB482DF12A22}"/>
-    <hyperlink ref="E87" r:id="rId50" xr:uid="{03ACB313-DAAA-4BDF-BD57-0F739B0C770A}"/>
-    <hyperlink ref="E89" r:id="rId51" xr:uid="{2AE24B5D-7D36-49D2-A8E3-F5CE6994C014}"/>
+    <hyperlink ref="E16" r:id="rId7" xr:uid="{10EA1FC3-5879-4084-8B79-7596CB4DE3E0}"/>
+    <hyperlink ref="E18" r:id="rId8" xr:uid="{94C8E539-F252-4D0F-A51E-783637A22268}"/>
+    <hyperlink ref="E20" r:id="rId9" xr:uid="{4D066FA2-3217-4346-A73C-B62071585918}"/>
+    <hyperlink ref="E22" r:id="rId10" xr:uid="{851B7892-8C74-4729-AA27-1893AF66592B}"/>
+    <hyperlink ref="E30" r:id="rId11" xr:uid="{1326EE2C-84A9-4DBD-95E6-69EC7E4CF665}"/>
+    <hyperlink ref="E24" r:id="rId12" xr:uid="{242C66EC-93CB-4704-A3C7-E5F52A62A2C2}"/>
+    <hyperlink ref="E25" r:id="rId13" xr:uid="{2CB42F31-F756-4661-A727-69B2AF01E560}"/>
+    <hyperlink ref="E32" r:id="rId14" xr:uid="{1E2F087E-0A2B-4CE5-BE9D-852710A1DE5C}"/>
+    <hyperlink ref="E34" r:id="rId15" xr:uid="{E9E70D19-22E7-42F5-A1EE-4D011158CA7E}"/>
+    <hyperlink ref="E36" r:id="rId16" xr:uid="{0BCEFD85-E1A3-4036-AC53-3568DB4D1369}"/>
+    <hyperlink ref="E37" r:id="rId17" xr:uid="{15E6317A-4389-41A3-9EC4-5687851C8247}"/>
+    <hyperlink ref="E41" r:id="rId18" xr:uid="{72CCB03C-AEF8-48FC-AB8A-8BFEC065735D}"/>
+    <hyperlink ref="E43" r:id="rId19" xr:uid="{3B2D22EC-2846-4137-B7ED-FB4158659405}"/>
+    <hyperlink ref="E46" r:id="rId20" xr:uid="{3207C799-1CF5-4E2D-B796-360DAFACE1F9}"/>
+    <hyperlink ref="E47" r:id="rId21" xr:uid="{BEA7FA42-89E9-4019-BF5C-50400806E16A}"/>
+    <hyperlink ref="E60" r:id="rId22" xr:uid="{C8E2BFDD-C2A3-4061-B59E-73DE313E9A62}"/>
+    <hyperlink ref="E62" r:id="rId23" xr:uid="{541C7A59-5466-45D6-BBC9-8CF4F77AF937}"/>
+    <hyperlink ref="E64" r:id="rId24" xr:uid="{181BFE64-8390-4397-A37A-06A3818938AE}"/>
+    <hyperlink ref="E65" r:id="rId25" xr:uid="{DCE3315E-7734-49E5-A6CC-1E9E1E356B22}"/>
+    <hyperlink ref="E70" r:id="rId26" xr:uid="{4D9068C8-BF06-4A7F-A930-07DB6296101A}"/>
+    <hyperlink ref="E72" r:id="rId27" xr:uid="{2CAF93AE-9D0B-41B4-B842-A3984AFEE00D}"/>
+    <hyperlink ref="E74" r:id="rId28" xr:uid="{22245AE2-5105-4B93-805A-26AEF1C7F4F0}"/>
+    <hyperlink ref="E75" r:id="rId29" xr:uid="{EE66B3EB-FDBB-4E68-BF60-CBF32AF7005B}"/>
+    <hyperlink ref="E79" r:id="rId30" xr:uid="{547DFF52-657F-4F7E-BCC5-7290F3A40128}"/>
+    <hyperlink ref="E81" r:id="rId31" xr:uid="{28BA62A5-9ED5-4417-8A46-7D642FB27F37}"/>
+    <hyperlink ref="E83" r:id="rId32" xr:uid="{40A43ED4-7F27-43DD-9972-C327ED9D217D}"/>
+    <hyperlink ref="E85" r:id="rId33" xr:uid="{1B549417-65FA-4BD0-A1D3-F6BF6AEA149A}"/>
+    <hyperlink ref="E86" r:id="rId34" xr:uid="{FD551BAB-4D6B-4A41-813C-16FC11C73455}"/>
+    <hyperlink ref="E88" r:id="rId35" xr:uid="{30138E3D-D3EC-42BD-BF88-6D4C928C65C7}"/>
+    <hyperlink ref="E48" r:id="rId36" xr:uid="{A5CDB2B5-5AED-4A5D-AF71-07935705FBA7}"/>
+    <hyperlink ref="E91" r:id="rId37" xr:uid="{17FE1708-570D-4066-BC87-91FAF27DF35F}"/>
+    <hyperlink ref="E93" r:id="rId38" xr:uid="{5A823F4B-5956-48DD-B21C-627B577A525E}"/>
+    <hyperlink ref="E95" r:id="rId39" xr:uid="{F0175EE8-C275-45F5-AD39-C32442D88DF8}"/>
+    <hyperlink ref="E97" r:id="rId40" xr:uid="{A80F23B3-BE81-454F-B96E-DA3C826D4A23}"/>
+    <hyperlink ref="E98" r:id="rId41" xr:uid="{60641F0B-9F7B-426D-9477-5B4E5C347306}"/>
+    <hyperlink ref="E61" r:id="rId42" xr:uid="{FCE2DB61-0F23-4672-8FEF-BAB7B2C693B9}"/>
+    <hyperlink ref="E63" r:id="rId43" xr:uid="{BE4900E5-57F5-49FA-8EFB-932CA4F14A72}"/>
+    <hyperlink ref="E71" r:id="rId44" xr:uid="{FF2CD268-C97C-4165-BF3D-921FDD2E5236}"/>
+    <hyperlink ref="E73" r:id="rId45" xr:uid="{BEC730D9-C2AA-4732-8316-4261F6FEAF7F}"/>
+    <hyperlink ref="E80" r:id="rId46" xr:uid="{45170047-FC17-4B17-9FF3-D2BCA6B0D3AC}"/>
+    <hyperlink ref="E82" r:id="rId47" xr:uid="{4B0E2471-8C14-45CC-8D8A-E676AD9C3C76}"/>
+    <hyperlink ref="E84" r:id="rId48" xr:uid="{1DB169EA-29D8-4F4B-97F3-4EA42A75CB71}"/>
+    <hyperlink ref="E92" r:id="rId49" xr:uid="{158ECEB8-C2A4-4788-8572-BB482DF12A22}"/>
+    <hyperlink ref="E94" r:id="rId50" xr:uid="{03ACB313-DAAA-4BDF-BD57-0F739B0C770A}"/>
+    <hyperlink ref="E96" r:id="rId51" xr:uid="{2AE24B5D-7D36-49D2-A8E3-F5CE6994C014}"/>
     <hyperlink ref="E3" r:id="rId52" xr:uid="{06F94887-83B7-4C36-A100-681A0CDA1E27}"/>
     <hyperlink ref="E5" r:id="rId53" xr:uid="{50364981-DF96-45B4-80F0-9D36D7BAD7F7}"/>
     <hyperlink ref="E7" r:id="rId54" xr:uid="{70EE6378-A898-4A41-86F7-70302DF4DF69}"/>
     <hyperlink ref="E9" r:id="rId55" xr:uid="{A7E06F3D-4625-49CD-ABB4-6E3E1856E0E3}"/>
-    <hyperlink ref="E16" r:id="rId56" xr:uid="{96C9F07A-DBB5-4E85-A5B0-92F2A69ECD83}"/>
-    <hyperlink ref="E18" r:id="rId57" xr:uid="{99001492-BD89-42BB-B2C8-3FFEF107D357}"/>
-    <hyperlink ref="E20" r:id="rId58" xr:uid="{343B4F0E-4493-4878-9746-7D2DEAC0A0B8}"/>
-    <hyperlink ref="E22" r:id="rId59" xr:uid="{1C894637-B53F-47BB-940D-9931E2225468}"/>
-    <hyperlink ref="E29" r:id="rId60" xr:uid="{49FF455A-D50D-42A2-8839-C15441098878}"/>
-    <hyperlink ref="E31" r:id="rId61" xr:uid="{11ACA4FF-5C3A-48D6-A0D2-183947B74EC1}"/>
-    <hyperlink ref="E41" r:id="rId62" xr:uid="{D346F257-10EE-473B-99BB-32D7B8BB1A56}"/>
-    <hyperlink ref="E39" r:id="rId63" xr:uid="{9ED7CCD3-EF40-4CD7-AA2A-34B704DA9ECD}"/>
-    <hyperlink ref="E33" r:id="rId64" xr:uid="{F5A69F80-6AB3-4E8B-A3C0-AD361E812132}"/>
-    <hyperlink ref="E42" r:id="rId65" xr:uid="{24D8438C-FE4F-4637-92AE-237A46C131E7}"/>
+    <hyperlink ref="E17" r:id="rId56" xr:uid="{96C9F07A-DBB5-4E85-A5B0-92F2A69ECD83}"/>
+    <hyperlink ref="E19" r:id="rId57" xr:uid="{99001492-BD89-42BB-B2C8-3FFEF107D357}"/>
+    <hyperlink ref="E21" r:id="rId58" xr:uid="{343B4F0E-4493-4878-9746-7D2DEAC0A0B8}"/>
+    <hyperlink ref="E23" r:id="rId59" xr:uid="{1C894637-B53F-47BB-940D-9931E2225468}"/>
+    <hyperlink ref="E31" r:id="rId60" xr:uid="{49FF455A-D50D-42A2-8839-C15441098878}"/>
+    <hyperlink ref="E33" r:id="rId61" xr:uid="{11ACA4FF-5C3A-48D6-A0D2-183947B74EC1}"/>
+    <hyperlink ref="E44" r:id="rId62" xr:uid="{D346F257-10EE-473B-99BB-32D7B8BB1A56}"/>
+    <hyperlink ref="E42" r:id="rId63" xr:uid="{9ED7CCD3-EF40-4CD7-AA2A-34B704DA9ECD}"/>
+    <hyperlink ref="E35" r:id="rId64" xr:uid="{F5A69F80-6AB3-4E8B-A3C0-AD361E812132}"/>
+    <hyperlink ref="E45" r:id="rId65" xr:uid="{24D8438C-FE4F-4637-92AE-237A46C131E7}"/>
     <hyperlink ref="E12" r:id="rId66" xr:uid="{0468683F-9003-40CE-94CB-C2AD7B010AE2}"/>
-    <hyperlink ref="E62" r:id="rId67" xr:uid="{68C2DD1D-CB0E-4542-8305-005A5E334982}"/>
-    <hyperlink ref="E71" r:id="rId68" xr:uid="{654D70BC-BCAE-49DB-85B1-69F10FDD494D}"/>
-    <hyperlink ref="E81" r:id="rId69" xr:uid="{99A79E60-5CAD-467F-AFF9-C914C7608470}"/>
-    <hyperlink ref="E63" r:id="rId70" xr:uid="{F755055B-DFBF-4EE9-8495-5D1D9BFB7CCD}"/>
+    <hyperlink ref="E66" r:id="rId67" xr:uid="{68C2DD1D-CB0E-4542-8305-005A5E334982}"/>
+    <hyperlink ref="E76" r:id="rId68" xr:uid="{654D70BC-BCAE-49DB-85B1-69F10FDD494D}"/>
+    <hyperlink ref="E87" r:id="rId69" xr:uid="{99A79E60-5CAD-467F-AFF9-C914C7608470}"/>
+    <hyperlink ref="E67" r:id="rId70" xr:uid="{F755055B-DFBF-4EE9-8495-5D1D9BFB7CCD}"/>
     <hyperlink ref="E13" r:id="rId71" xr:uid="{DD3CD9F1-825B-45CD-866E-E0A649DC2D28}"/>
-    <hyperlink ref="E26" r:id="rId72" xr:uid="{725BDE53-9D92-4625-82B8-9FAA1C126AF0}"/>
-    <hyperlink ref="E46" r:id="rId73" xr:uid="{7AEF9F87-595A-4D01-A87D-91D7CBC21DF9}"/>
-    <hyperlink ref="E92" r:id="rId74" xr:uid="{0C5E67D9-DB6E-4135-A109-C60661FA67A5}"/>
-    <hyperlink ref="E25" r:id="rId75" xr:uid="{439E8935-A01A-45D7-9EA2-5CA36F399253}"/>
-    <hyperlink ref="E36" r:id="rId76" xr:uid="{E5033BD1-CB13-4F70-988F-029D139A0147}"/>
-    <hyperlink ref="E47" r:id="rId77" xr:uid="{F279E869-822D-4C92-B8A8-98AC847D618E}"/>
+    <hyperlink ref="E27" r:id="rId72" xr:uid="{725BDE53-9D92-4625-82B8-9FAA1C126AF0}"/>
+    <hyperlink ref="E49" r:id="rId73" xr:uid="{7AEF9F87-595A-4D01-A87D-91D7CBC21DF9}"/>
+    <hyperlink ref="E99" r:id="rId74" xr:uid="{0C5E67D9-DB6E-4135-A109-C60661FA67A5}"/>
+    <hyperlink ref="E26" r:id="rId75" xr:uid="{439E8935-A01A-45D7-9EA2-5CA36F399253}"/>
+    <hyperlink ref="E38" r:id="rId76" xr:uid="{E5033BD1-CB13-4F70-988F-029D139A0147}"/>
+    <hyperlink ref="E50" r:id="rId77" xr:uid="{F279E869-822D-4C92-B8A8-98AC847D618E}"/>
     <hyperlink ref="E14" r:id="rId78" xr:uid="{8E02AA29-7A92-4424-9613-829ADEE181A8}"/>
-    <hyperlink ref="E27" r:id="rId79" xr:uid="{32271819-E45E-4CD5-917E-7116A34DB5CD}"/>
-    <hyperlink ref="E37" r:id="rId80" xr:uid="{0ADBA754-33DC-4A8E-9E89-2AFC75EEFF3D}"/>
-    <hyperlink ref="E48" r:id="rId81" xr:uid="{0ADD4EFA-2AD9-4032-9201-AC107CF24D67}"/>
-    <hyperlink ref="E50" r:id="rId82" xr:uid="{6A25DB3C-BF40-4EE0-9BE3-D8EE9416E70B}"/>
-    <hyperlink ref="E49" r:id="rId83" xr:uid="{9F9637BA-F5BB-4C3E-985F-A98B2433AE4C}"/>
-    <hyperlink ref="E64" r:id="rId84" xr:uid="{DC455A1F-DDC3-4E01-8F3C-FF22B1471400}"/>
-    <hyperlink ref="E72" r:id="rId85" xr:uid="{4817D7DF-651A-48E0-8C50-8C469CF0FD88}"/>
-    <hyperlink ref="E83" r:id="rId86" xr:uid="{7CA4E1C1-A622-44A0-9D31-E6295F59197A}"/>
-    <hyperlink ref="E94" r:id="rId87" xr:uid="{BFD9FF67-077B-4895-AAE2-1B2FA49F119A}"/>
-    <hyperlink ref="E95" r:id="rId88" xr:uid="{F36710D4-B3D1-4808-8155-5C4D00E7937F}"/>
-    <hyperlink ref="E96" r:id="rId89" xr:uid="{9BE4A31F-C492-42E5-BF85-D95FF51A9B09}"/>
-    <hyperlink ref="E51" r:id="rId90" xr:uid="{E62FBBC2-8F64-47D7-9CAE-010151754ABF}"/>
-    <hyperlink ref="E52" r:id="rId91" xr:uid="{712A972F-1CEB-4DAD-A29B-E3AE82718C1E}"/>
-    <hyperlink ref="E97" r:id="rId92" xr:uid="{6DD73277-38AD-4105-84D3-FC579F0D49C6}"/>
-    <hyperlink ref="E98" r:id="rId93" xr:uid="{80F13F83-5709-4D7D-A11A-0A14626C3545}"/>
-    <hyperlink ref="E53" r:id="rId94" xr:uid="{7FC6C1F9-1DA8-4A53-A072-1887A827FD5B}"/>
-    <hyperlink ref="E99" r:id="rId95" xr:uid="{35A8584C-99EF-480E-98D9-7BF408C19CB4}"/>
-    <hyperlink ref="E100" r:id="rId96" xr:uid="{42F535A1-D763-4FA7-A8B5-2CF6FE42CF4D}"/>
+    <hyperlink ref="E28" r:id="rId79" xr:uid="{32271819-E45E-4CD5-917E-7116A34DB5CD}"/>
+    <hyperlink ref="E39" r:id="rId80" xr:uid="{0ADBA754-33DC-4A8E-9E89-2AFC75EEFF3D}"/>
+    <hyperlink ref="E51" r:id="rId81" xr:uid="{0ADD4EFA-2AD9-4032-9201-AC107CF24D67}"/>
+    <hyperlink ref="E54" r:id="rId82" xr:uid="{6A25DB3C-BF40-4EE0-9BE3-D8EE9416E70B}"/>
+    <hyperlink ref="E53" r:id="rId83" xr:uid="{9F9637BA-F5BB-4C3E-985F-A98B2433AE4C}"/>
+    <hyperlink ref="E68" r:id="rId84" xr:uid="{DC455A1F-DDC3-4E01-8F3C-FF22B1471400}"/>
+    <hyperlink ref="E77" r:id="rId85" xr:uid="{4817D7DF-651A-48E0-8C50-8C469CF0FD88}"/>
+    <hyperlink ref="E89" r:id="rId86" xr:uid="{7CA4E1C1-A622-44A0-9D31-E6295F59197A}"/>
+    <hyperlink ref="E101" r:id="rId87" xr:uid="{BFD9FF67-077B-4895-AAE2-1B2FA49F119A}"/>
+    <hyperlink ref="E103" r:id="rId88" xr:uid="{F36710D4-B3D1-4808-8155-5C4D00E7937F}"/>
+    <hyperlink ref="E104" r:id="rId89" xr:uid="{9BE4A31F-C492-42E5-BF85-D95FF51A9B09}"/>
+    <hyperlink ref="E55" r:id="rId90" xr:uid="{E62FBBC2-8F64-47D7-9CAE-010151754ABF}"/>
+    <hyperlink ref="E56" r:id="rId91" xr:uid="{712A972F-1CEB-4DAD-A29B-E3AE82718C1E}"/>
+    <hyperlink ref="E105" r:id="rId92" xr:uid="{6DD73277-38AD-4105-84D3-FC579F0D49C6}"/>
+    <hyperlink ref="E106" r:id="rId93" xr:uid="{80F13F83-5709-4D7D-A11A-0A14626C3545}"/>
+    <hyperlink ref="E57" r:id="rId94" xr:uid="{7FC6C1F9-1DA8-4A53-A072-1887A827FD5B}"/>
+    <hyperlink ref="E107" r:id="rId95" xr:uid="{35A8584C-99EF-480E-98D9-7BF408C19CB4}"/>
+    <hyperlink ref="E108" r:id="rId96" xr:uid="{42F535A1-D763-4FA7-A8B5-2CF6FE42CF4D}"/>
+    <hyperlink ref="E58" r:id="rId97" xr:uid="{E90072AA-8E3B-40DE-819F-196ECB608981}"/>
+    <hyperlink ref="E52" r:id="rId98" xr:uid="{5D36BD49-851A-4BB3-BD58-D2A880AF53D2}"/>
+    <hyperlink ref="E40" r:id="rId99" xr:uid="{2B04F8AE-8F7F-4775-9E56-E7DF2EE29814}"/>
+    <hyperlink ref="E29" r:id="rId100" xr:uid="{3A02EAF4-A2E1-4E99-84CF-A6A82417B094}"/>
+    <hyperlink ref="E15" r:id="rId101" xr:uid="{2D6E8101-17A7-48E7-947F-AAD3D0948B00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId97"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId102"/>
 </worksheet>
 </file>
--- a/tree/tree.xlsx
+++ b/tree/tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\113-1\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9BB828-C794-4A5A-A304-38822BA0BD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61C6946-A26A-45B9-84F2-33F32A0FA825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA16FEF3-4787-468B-94EE-76BE82BCE9D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="324">
   <si>
     <t>第一冊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -627,10 +627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2-1 足球高手--康軒有GO補</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -915,6 +911,366 @@
   </si>
   <si>
     <t>https://forms.office.com/Pages/ResponsePage.aspx?id=pPmYSt7iAEGJjJXNxSczizc_BW4H4z5CrLlzINqz-2VUQVEyUU5XUDBOVFdPTEUwR0Q1SVU2NzQ2WS4u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/6703f5b25347d49be37b62a2/interactive-content-2-2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH3</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>主題1 根式運算的基本性質</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61297/771/191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/670b721e353c874ce97c9588/interactive-content-quiz-2-2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ   2-2 主題1 根式運算的基本性質</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/670a8552524dfed76e01818e/guide-2-2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題2 根式的四則運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/670b5c90844fe3427e0bfb9a/interactive-content-2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2 自我評量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://appsntpcedutw-my.sharepoint.com/:p:/g/personal/aa0487_apps_ntpc_edu_tw/EaIRnAvqE_1GqfvtdqWvzO8B_tu3hgGSnZHeWjRE81qA1Q?e=8egBms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2 習作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xtjh-yucc.github.io/math/081math/2-2/html5_football.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2 足球高手--康軒有GO補</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61298/824/402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--2-2-3 化為最簡根式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--2-2-1A---a√b ×c---判斷下列計算是否正確</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61299/921/317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--2-2-4 利用分母有理化化為最簡根式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61299/821/567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--2-2-5 判斷同類方根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61299/733/757</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--2-2-6 根式的加減運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61299/674/384</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--2-2-7 根式的加減運算2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61299/584/230</t>
+  </si>
+  <si>
+    <t>WORDWALL-2-2-8 根式的四則運算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61299/492/609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL-2-2-9 分母有理化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://appsntpcedutw-my.sharepoint.com/:p:/g/personal/aa0487_apps_ntpc_edu_tw/Eb8vHedKkLBJu7VCtbbfJJ4B0G_GVpM32SQavvRLRSfLiA?e=FY4jpZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3 畢氏定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQUIZ 主題1 發現畢氏定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://view.genially.com/67166b0fc13a4ebd9f12ad5e/interactive-content-qquiz-2-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>習作 2-3 畢氏定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://appsntpcedutw-my.sharepoint.com/:p:/g/personal/aa0487_apps_ntpc_edu_tw/Ec5NRONEpTpGtG6GvqrccaUB9rO7e8sK-QNs9tWBeWFqeg?e=hJXy3J</t>
+  </si>
+  <si>
+    <t>https://appsntpcedutw-my.sharepoint.com/:p:/g/personal/aa0487_apps_ntpc_edu_tw/EYlt4LhCIfZNr5K9wcEZQtkB4MgyEpJ5oZKkwHGsnJZt7A?e=19mvnj</t>
+  </si>
+  <si>
+    <t>https://xtjh-yucc.github.io/math/html5_basketball_81-2-3/html5_basketball.html</t>
+  </si>
+  <si>
+    <t>2-2 籃球高手--康軒有GO補</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61297/865/356</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61299/288/861</t>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61299/188/208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61299/131/430</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61303/048/315</t>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61299/068/954</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61302/957/431</t>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61302/877/423</t>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61298/925/942</t>
+  </si>
+  <si>
+    <t>https://appsntpcedutw-my.sharepoint.com/:p:/g/personal/aa0487_apps_ntpc_edu_tw/EfL2YGyEfA1MnVzYiNwOe28B5Cafs1upQT7d36IIUa-FjA?e=LlvOe4</t>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1 利用提公因式與乘​法公式做因式分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://appsntpcedutw-my.sharepoint.com/:p:/g/personal/aa0487_apps_ntpc_edu_tw/EdERJ2IU7EZLuSfx6nUgNtoBZluHmewAg4s_irn4yglBnw?e=qVY6t9</t>
+  </si>
+  <si>
+    <t>習作 3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xtjh-yucc.github.io/math/html5_basketball_81-3-1/html5_basketball.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1 籃球高手--康軒有GO補</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61298/036/665</t>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61300/787/209</t>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61300/712/695</t>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61300/584/820</t>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61300/518/546</t>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61300/460/314</t>
+  </si>
+  <si>
+    <t>https://appsntpcedutw-my.sharepoint.com/:p:/g/personal/aa0487_apps_ntpc_edu_tw/Ec2h8gaorWtMpZeHSNIT028BOOPB4jqT2kxlhfRkGxBw1Q?e=hF337D</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>CH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2 利用十字交乘法​做因式分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://appsntpcedutw-my.sharepoint.com/:p:/g/personal/aa0487_apps_ntpc_edu_tw/EWxDv58VYRtCnDzpM3EPmf4BlxOfWofcwP7ASyyfyg1Jew?e=ehsjbd</t>
+  </si>
+  <si>
+    <t>習作3-2 利用十字交乘法做因式分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>習作 第3章 綜合練習​</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://appsntpcedutw-my.sharepoint.com/:p:/g/personal/aa0487_apps_ntpc_edu_tw/EWPjEIX3iuJDpM3F1ynIak0BYtiQ6qr0CLDhc5dGiowlzA?e=kZ0EOL</t>
+  </si>
+  <si>
+    <t>https://xtjh-yucc.github.io/math/html5_basketball_81-3-2/html5_basketball.html</t>
+  </si>
+  <si>
+    <t>3-2 籃球高手--康軒有GO補</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61300/383/455</t>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61300/315/264</t>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61300/257/555</t>
+  </si>
+  <si>
+    <t>WORDWALL--3-2-3 二次項係數為負的十字交乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wordwall.net/play/61300/183/482</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--3-2-4 先提出係數的公因數再做因式分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--3-2-2 二次項係數不為1的十字交乘法---因式分解二次多項式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--3-2-1 二次項係數為1的十字交乘法---因式分解二次多項式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--3-1-6 利用"和的平方"及"差的平方"公式做因式分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--3-1-5 利用平方差公式做因式分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--3-1-4 因式分解2--先變號變號再提公因式做因式分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--3-1-3 因式分解1--利用提公因式做因式分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--3-1-2 因式分解的應用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--3-1-1 判別因式與倍式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--2-3-8 求直角坐標平面上兩點的距離</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--2-3-7 應用問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--2-3-6 求直角三角形斜邊上的高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--2-3-5 正三角形的複合圖形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--2-3-4 求三角形的高與面積-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--2-3-3 求正方形的對角線長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--2-3-2 求複合直角三角形的邊長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--2-3-1 求直角三角形的第三邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDWALL--2-3-1A判斷下列各組數是否為直角三角形的三邊長</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1304,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B8439-9079-4DF4-BB05-62730084EFF9}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1532,10 +1888,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1543,16 +1899,16 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1566,10 +1922,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1756,7 +2112,7 @@
         <v>148</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1770,10 +2126,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1781,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1804,10 +2160,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1960,7 +2316,7 @@
         <v>150</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1968,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1991,10 +2347,10 @@
         <v>43</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2144,10 +2500,10 @@
         <v>54</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2161,10 +2517,10 @@
         <v>54</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2172,16 +2528,16 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2195,10 +2551,10 @@
         <v>54</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2206,16 +2562,16 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2223,16 +2579,16 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2240,16 +2596,16 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2257,16 +2613,16 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2280,10 +2636,10 @@
         <v>54</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2297,10 +2653,10 @@
         <v>54</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2438,10 +2794,10 @@
         <v>2</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2449,16 +2805,16 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="D68" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2472,10 +2828,10 @@
         <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2602,16 +2958,16 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2625,10 +2981,10 @@
         <v>3</v>
       </c>
       <c r="D78" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2806,16 +3162,16 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2829,10 +3185,10 @@
         <v>43</v>
       </c>
       <c r="D90" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2979,13 +3335,13 @@
         <v>88</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E99" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2999,10 +3355,10 @@
         <v>86</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3010,16 +3366,16 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="E101" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3033,10 +3389,10 @@
         <v>86</v>
       </c>
       <c r="D102" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3044,16 +3400,16 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
+        <v>193</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="D103" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3061,16 +3417,16 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
+        <v>193</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="D104" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3078,16 +3434,16 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="D105" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3101,10 +3457,10 @@
         <v>86</v>
       </c>
       <c r="D106" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3118,10 +3474,10 @@
         <v>86</v>
       </c>
       <c r="D107" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3135,24 +3491,789 @@
         <v>86</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>88</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>88</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>88</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>88</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>88</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>88</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>88</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>88</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>88</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>88</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>88</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>88</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>88</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>88</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>88</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>88</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>88</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>88</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>228</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>228</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>228</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>228</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>228</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>228</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>228</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>228</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>228</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>293</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>293</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>293</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>293</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>293</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>293</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>293</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3260,8 +4381,29 @@
     <hyperlink ref="E40" r:id="rId99" xr:uid="{2B04F8AE-8F7F-4775-9E56-E7DF2EE29814}"/>
     <hyperlink ref="E29" r:id="rId100" xr:uid="{3A02EAF4-A2E1-4E99-84CF-A6A82417B094}"/>
     <hyperlink ref="E15" r:id="rId101" xr:uid="{2D6E8101-17A7-48E7-947F-AAD3D0948B00}"/>
+    <hyperlink ref="E109" r:id="rId102" xr:uid="{4E1CA3CE-E492-4324-A1A4-DF1551516EB3}"/>
+    <hyperlink ref="E110" r:id="rId103" xr:uid="{BB4BA058-0E80-4FEA-9E85-9343B8D435C8}"/>
+    <hyperlink ref="E111" r:id="rId104" xr:uid="{F8597917-E48D-44F1-8C42-A84FAB85F9BF}"/>
+    <hyperlink ref="E112" r:id="rId105" xr:uid="{CF604BDA-F65E-487B-9476-BA62B439F3EA}"/>
+    <hyperlink ref="E113" r:id="rId106" xr:uid="{F9D4F021-DCAE-4D3E-9C2F-ABAAF9E3B176}"/>
+    <hyperlink ref="E114" r:id="rId107" xr:uid="{18073D87-C544-4971-B791-D369F3C7530D}"/>
+    <hyperlink ref="E115" r:id="rId108" xr:uid="{47EBC33B-76A0-460D-83A3-17C0A3CB1BAD}"/>
+    <hyperlink ref="E116" r:id="rId109" xr:uid="{6A209524-4E51-434A-BEAA-E7A26BF61749}"/>
+    <hyperlink ref="E117" r:id="rId110" xr:uid="{67C9DBF0-51D9-4454-936A-E49C8F9E110F}"/>
+    <hyperlink ref="E118" r:id="rId111" xr:uid="{E18F8A00-D26B-4CFC-82EE-29B306CD6867}"/>
+    <hyperlink ref="E119" r:id="rId112" xr:uid="{3FD82473-8423-4B9B-9665-D2C8FAF4B106}"/>
+    <hyperlink ref="E120" r:id="rId113" xr:uid="{AE9A7C6E-FF46-483A-B439-218511924E80}"/>
+    <hyperlink ref="E122" r:id="rId114" xr:uid="{B2B63410-8AE0-4AE4-92D8-D19EC7A1EAE1}"/>
+    <hyperlink ref="E123" r:id="rId115" xr:uid="{0A7381DE-21A5-41B4-B622-81EECA965486}"/>
+    <hyperlink ref="E124" r:id="rId116" xr:uid="{47CCED38-9DB9-46E4-BF87-5CF7D35475CB}"/>
+    <hyperlink ref="E128" r:id="rId117" xr:uid="{DEC999D4-3355-4D13-8403-1842561188CB}"/>
+    <hyperlink ref="E130" r:id="rId118" xr:uid="{82E209EA-27AB-423F-AD14-411662F69A6C}"/>
+    <hyperlink ref="E131" r:id="rId119" xr:uid="{9AF87266-9C6B-4AD3-B074-B80235F465F0}"/>
+    <hyperlink ref="E133" r:id="rId120" xr:uid="{2D7F78FD-E954-4BF8-B6C3-16E08C6D749F}"/>
+    <hyperlink ref="E139" r:id="rId121" xr:uid="{78B14BED-5627-4257-8E09-7DC40126A0DA}"/>
+    <hyperlink ref="E153" r:id="rId122" xr:uid="{00CD3BFA-B6D9-4ED7-A775-F0AE230ACE5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId102"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId123"/>
 </worksheet>
 </file>